--- a/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
+++ b/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="204">
   <si>
     <t xml:space="preserve">STANDARD 140 OUTPUT FORM - RESULTS    </t>
   </si>
@@ -2332,11 +2332,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A317" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -4558,85 +4558,193 @@
       <c r="B130" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C130" s="80"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="81"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="81"/>
-      <c r="K130" s="58"/>
+      <c r="C130" s="80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D130" s="54" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="81" t="n">
+        <v>26</v>
+      </c>
+      <c r="G130" s="81" t="n">
+        <v>8</v>
+      </c>
+      <c r="H130" s="82" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="I130" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="81" t="n">
+        <v>18</v>
+      </c>
+      <c r="K130" s="58" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C131" s="83"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="62"/>
+      <c r="C131" s="83" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D131" s="59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" s="56" t="n">
+        <v>11</v>
+      </c>
+      <c r="H131" s="57" t="n">
+        <v>46</v>
+      </c>
+      <c r="I131" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C132" s="83"/>
-      <c r="D132" s="59"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="62"/>
+      <c r="C132" s="83" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D132" s="59" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="E132" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="G132" s="56" t="n">
+        <v>24</v>
+      </c>
+      <c r="H132" s="57" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="I132" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="56" t="n">
+        <v>18</v>
+      </c>
+      <c r="K132" s="62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="62"/>
+      <c r="C133" s="83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D133" s="59" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="E133" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="G133" s="56" t="n">
+        <v>24</v>
+      </c>
+      <c r="H133" s="57" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I133" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="83"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="62"/>
+      <c r="C134" s="83" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D134" s="59" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="E134" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G134" s="56" t="n">
+        <v>11</v>
+      </c>
+      <c r="H134" s="57" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="I134" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="56" t="n">
+        <v>22</v>
+      </c>
+      <c r="K134" s="62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="83"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="62"/>
+      <c r="C135" s="83" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D135" s="59" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E135" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G135" s="56" t="n">
+        <v>11</v>
+      </c>
+      <c r="H135" s="57" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="I135" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" s="62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="47" t="s">

--- a/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
+++ b/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
@@ -2037,7 +2037,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2045,7 +2045,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2332,13 +2332,13 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="9.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="10.53"/>
@@ -5198,253 +5198,625 @@
       <c r="B190" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C190" s="59"/>
-      <c r="D190" s="121"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="56"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="56"/>
-      <c r="J190" s="56"/>
-      <c r="K190" s="59"/>
-      <c r="L190" s="121"/>
-      <c r="M190" s="56"/>
-      <c r="N190" s="56"/>
-      <c r="O190" s="56"/>
-      <c r="P190" s="57"/>
-      <c r="Q190" s="56"/>
-      <c r="R190" s="62"/>
+      <c r="C190" s="59" t="n">
+        <v>664</v>
+      </c>
+      <c r="D190" s="121" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="E190" s="57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F190" s="56" t="n">
+        <v>29</v>
+      </c>
+      <c r="G190" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H190" s="56" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I190" s="56" t="n">
+        <v>22</v>
+      </c>
+      <c r="J190" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="K190" s="59" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="L190" s="121" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M190" s="56" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="N190" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="O190" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P190" s="57" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="Q190" s="56" t="n">
+        <v>22</v>
+      </c>
+      <c r="R190" s="62" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="59"/>
-      <c r="D191" s="121"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="56"/>
-      <c r="G191" s="61"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="56"/>
-      <c r="J191" s="56"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="121"/>
-      <c r="M191" s="56"/>
-      <c r="N191" s="56"/>
-      <c r="O191" s="56"/>
-      <c r="P191" s="57"/>
-      <c r="Q191" s="56"/>
-      <c r="R191" s="62"/>
+      <c r="C191" s="59" t="n">
+        <v>653.3</v>
+      </c>
+      <c r="D191" s="121" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="E191" s="57" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="F191" s="56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G191" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H191" s="56" t="n">
+        <v>4.921</v>
+      </c>
+      <c r="I191" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="J191" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="K191" s="59" t="n">
+        <v>307.4</v>
+      </c>
+      <c r="L191" s="121" t="n">
+        <v>24</v>
+      </c>
+      <c r="M191" s="56" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="N191" s="56" t="n">
+        <v>8</v>
+      </c>
+      <c r="O191" s="56" t="n">
+        <v>24</v>
+      </c>
+      <c r="P191" s="57" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="Q191" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="R191" s="62" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C192" s="59"/>
-      <c r="D192" s="121"/>
-      <c r="E192" s="57"/>
-      <c r="F192" s="56"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="56"/>
-      <c r="J192" s="56"/>
-      <c r="K192" s="59"/>
-      <c r="L192" s="121"/>
-      <c r="M192" s="56"/>
-      <c r="N192" s="56"/>
-      <c r="O192" s="56"/>
-      <c r="P192" s="57"/>
-      <c r="Q192" s="56"/>
-      <c r="R192" s="62"/>
+      <c r="C192" s="59" t="n">
+        <v>433.5</v>
+      </c>
+      <c r="D192" s="121" t="n">
+        <v>450.3</v>
+      </c>
+      <c r="E192" s="57" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="F192" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H192" s="56" t="n">
+        <v>4.458</v>
+      </c>
+      <c r="I192" s="56" t="n">
+        <v>24</v>
+      </c>
+      <c r="J192" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K192" s="59" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="L192" s="121" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="M192" s="56" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="N192" s="56" t="n">
+        <v>16</v>
+      </c>
+      <c r="O192" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P192" s="57" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="Q192" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="R192" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C193" s="59"/>
-      <c r="D193" s="121"/>
-      <c r="E193" s="57"/>
-      <c r="F193" s="56"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="56"/>
-      <c r="J193" s="56"/>
-      <c r="K193" s="59"/>
-      <c r="L193" s="121"/>
-      <c r="M193" s="56"/>
-      <c r="N193" s="56"/>
-      <c r="O193" s="56"/>
-      <c r="P193" s="57"/>
-      <c r="Q193" s="56"/>
-      <c r="R193" s="62"/>
+      <c r="C193" s="59" t="n">
+        <v>511</v>
+      </c>
+      <c r="D193" s="121" t="n">
+        <v>218.7</v>
+      </c>
+      <c r="E193" s="57" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="F193" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G193" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H193" s="56" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="I193" s="56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J193" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K193" s="59" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="L193" s="121" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="M193" s="56" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="N193" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P193" s="57" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="Q193" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="R193" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C194" s="59"/>
-      <c r="D194" s="121"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="56"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="56"/>
-      <c r="J194" s="56"/>
-      <c r="K194" s="59"/>
-      <c r="L194" s="121"/>
-      <c r="M194" s="56"/>
-      <c r="N194" s="56"/>
-      <c r="O194" s="56"/>
-      <c r="P194" s="57"/>
-      <c r="Q194" s="56"/>
-      <c r="R194" s="62"/>
+      <c r="C194" s="59" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="D194" s="121" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="E194" s="57" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="F194" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G194" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H194" s="56" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="I194" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J194" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K194" s="59" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L194" s="121" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="M194" s="56" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="N194" s="56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O194" s="56" t="n">
+        <v>6</v>
+      </c>
+      <c r="P194" s="57" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="Q194" s="56" t="n">
+        <v>11</v>
+      </c>
+      <c r="R194" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="59"/>
-      <c r="D195" s="121"/>
-      <c r="E195" s="57"/>
-      <c r="F195" s="56"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="56"/>
-      <c r="J195" s="56"/>
-      <c r="K195" s="59"/>
-      <c r="L195" s="121"/>
-      <c r="M195" s="56"/>
+      <c r="C195" s="59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D195" s="121" t="n">
+        <v>578.3</v>
+      </c>
+      <c r="E195" s="57" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F195" s="56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G195" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H195" s="56" t="n">
+        <v>3.253</v>
+      </c>
+      <c r="I195" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J195" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="K195" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" s="121" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="M195" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="N195" s="56"/>
       <c r="O195" s="56"/>
-      <c r="P195" s="57"/>
-      <c r="Q195" s="56"/>
-      <c r="R195" s="62"/>
+      <c r="P195" s="57" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="Q195" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="R195" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="59"/>
-      <c r="D196" s="121"/>
-      <c r="E196" s="57"/>
-      <c r="F196" s="56"/>
-      <c r="G196" s="61"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="56"/>
-      <c r="J196" s="56"/>
-      <c r="K196" s="59"/>
-      <c r="L196" s="121"/>
-      <c r="M196" s="56"/>
+      <c r="C196" s="59" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D196" s="121" t="n">
+        <v>568.4</v>
+      </c>
+      <c r="E196" s="57" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F196" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H196" s="56" t="n">
+        <v>3.319</v>
+      </c>
+      <c r="I196" s="56" t="n">
+        <v>17</v>
+      </c>
+      <c r="J196" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K196" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" s="121" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="M196" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="N196" s="56"/>
       <c r="O196" s="56"/>
-      <c r="P196" s="57"/>
-      <c r="Q196" s="56"/>
-      <c r="R196" s="62"/>
+      <c r="P196" s="57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q196" s="56" t="n">
+        <v>17</v>
+      </c>
+      <c r="R196" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C197" s="59"/>
-      <c r="D197" s="121"/>
-      <c r="E197" s="57"/>
-      <c r="F197" s="56"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="56"/>
-      <c r="I197" s="56"/>
-      <c r="J197" s="56"/>
-      <c r="K197" s="59"/>
-      <c r="L197" s="121"/>
-      <c r="M197" s="56"/>
+      <c r="C197" s="59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D197" s="121" t="n">
+        <v>658.2</v>
+      </c>
+      <c r="E197" s="57" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F197" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H197" s="56" t="n">
+        <v>4.192</v>
+      </c>
+      <c r="I197" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J197" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K197" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" s="121" t="n">
+        <v>532.6</v>
+      </c>
+      <c r="M197" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="N197" s="56"/>
       <c r="O197" s="56"/>
-      <c r="P197" s="57"/>
-      <c r="Q197" s="56"/>
-      <c r="R197" s="62"/>
+      <c r="P197" s="57" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="Q197" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="R197" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C198" s="59"/>
-      <c r="D198" s="121"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="61"/>
-      <c r="H198" s="56"/>
-      <c r="I198" s="56"/>
-      <c r="J198" s="56"/>
-      <c r="K198" s="59"/>
-      <c r="L198" s="121"/>
-      <c r="M198" s="56"/>
-      <c r="N198" s="56"/>
-      <c r="O198" s="56"/>
-      <c r="P198" s="57"/>
-      <c r="Q198" s="56"/>
-      <c r="R198" s="62"/>
+      <c r="C198" s="59" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D198" s="121" t="n">
+        <v>724.8</v>
+      </c>
+      <c r="E198" s="57" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="F198" s="56" t="n">
+        <v>28</v>
+      </c>
+      <c r="G198" s="61" t="n">
+        <v>24</v>
+      </c>
+      <c r="H198" s="56" t="n">
+        <v>5.086</v>
+      </c>
+      <c r="I198" s="56" t="n">
+        <v>30</v>
+      </c>
+      <c r="J198" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K198" s="59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L198" s="121" t="n">
+        <v>517.9</v>
+      </c>
+      <c r="M198" s="56" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="N198" s="56" t="n">
+        <v>28</v>
+      </c>
+      <c r="O198" s="56" t="n">
+        <v>6</v>
+      </c>
+      <c r="P198" s="57" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="Q198" s="56" t="n">
+        <v>30</v>
+      </c>
+      <c r="R198" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C199" s="59"/>
-      <c r="D199" s="121"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="56"/>
-      <c r="G199" s="61"/>
-      <c r="H199" s="56"/>
-      <c r="I199" s="56"/>
-      <c r="J199" s="56"/>
-      <c r="K199" s="59"/>
-      <c r="L199" s="121"/>
-      <c r="M199" s="56"/>
-      <c r="N199" s="56"/>
-      <c r="O199" s="56"/>
-      <c r="P199" s="57"/>
-      <c r="Q199" s="56"/>
-      <c r="R199" s="62"/>
+      <c r="C199" s="59" t="n">
+        <v>317</v>
+      </c>
+      <c r="D199" s="121" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="E199" s="57" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="F199" s="56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G199" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H199" s="56" t="n">
+        <v>5.577</v>
+      </c>
+      <c r="I199" s="56" t="n">
+        <v>18</v>
+      </c>
+      <c r="J199" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K199" s="59" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="L199" s="121" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="M199" s="56" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="N199" s="56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O199" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P199" s="57" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="Q199" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R199" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C200" s="59"/>
-      <c r="D200" s="121"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="56"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="56"/>
-      <c r="J200" s="56"/>
-      <c r="K200" s="59"/>
-      <c r="L200" s="121"/>
-      <c r="M200" s="56"/>
-      <c r="N200" s="56"/>
-      <c r="O200" s="56"/>
-      <c r="P200" s="57"/>
-      <c r="Q200" s="56"/>
-      <c r="R200" s="62"/>
+      <c r="C200" s="59" t="n">
+        <v>598.7</v>
+      </c>
+      <c r="D200" s="121" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="E200" s="57" t="n">
+        <v>3.255</v>
+      </c>
+      <c r="F200" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="G200" s="61" t="n">
+        <v>8</v>
+      </c>
+      <c r="H200" s="56" t="n">
+        <v>5.476</v>
+      </c>
+      <c r="I200" s="56" t="n">
+        <v>28</v>
+      </c>
+      <c r="J200" s="56" t="n">
+        <v>14</v>
+      </c>
+      <c r="K200" s="59" t="n">
+        <v>298.2</v>
+      </c>
+      <c r="L200" s="121" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="M200" s="56" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="N200" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P200" s="57" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="Q200" s="56" t="n">
+        <v>6</v>
+      </c>
+      <c r="R200" s="62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C201" s="66"/>
-      <c r="D201" s="123"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="68"/>
-      <c r="G201" s="69"/>
-      <c r="H201" s="68"/>
-      <c r="I201" s="68"/>
-      <c r="J201" s="68"/>
-      <c r="K201" s="66"/>
-      <c r="L201" s="123"/>
-      <c r="M201" s="68"/>
-      <c r="N201" s="68"/>
-      <c r="O201" s="68"/>
-      <c r="P201" s="86"/>
-      <c r="Q201" s="68"/>
-      <c r="R201" s="70"/>
+      <c r="C201" s="66" t="n">
+        <v>698.7</v>
+      </c>
+      <c r="D201" s="123" t="n">
+        <v>433.3</v>
+      </c>
+      <c r="E201" s="86" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="F201" s="68" t="n">
+        <v>31</v>
+      </c>
+      <c r="G201" s="69" t="n">
+        <v>24</v>
+      </c>
+      <c r="H201" s="68" t="n">
+        <v>5.537</v>
+      </c>
+      <c r="I201" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" s="68" t="n">
+        <v>14</v>
+      </c>
+      <c r="K201" s="66" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="L201" s="123" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="M201" s="68" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N201" s="68" t="n">
+        <v>31</v>
+      </c>
+      <c r="O201" s="68" t="n">
+        <v>8</v>
+      </c>
+      <c r="P201" s="86" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="Q201" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" s="70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O202" s="124"/>

--- a/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
+++ b/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
@@ -1555,7 +1555,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="177">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2125,15 +2125,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2166,6 +2166,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
@@ -2179,6 +2183,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2332,11 +2344,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C231" activeCellId="0" sqref="C231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -6188,392 +6200,1004 @@
       <c r="B230" s="142" t="n">
         <v>1</v>
       </c>
-      <c r="C230" s="54"/>
-      <c r="D230" s="81"/>
-      <c r="E230" s="81"/>
-      <c r="F230" s="82"/>
-      <c r="G230" s="81"/>
-      <c r="H230" s="81"/>
-      <c r="I230" s="59"/>
-      <c r="J230" s="56"/>
-      <c r="K230" s="62"/>
-      <c r="L230" s="59"/>
-      <c r="M230" s="56"/>
-      <c r="N230" s="61"/>
-      <c r="O230" s="56"/>
-      <c r="P230" s="56"/>
-      <c r="Q230" s="56"/>
-      <c r="R230" s="57"/>
-      <c r="S230" s="56"/>
-      <c r="T230" s="62"/>
+      <c r="C230" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" s="59" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="J230" s="56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K230" s="62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L230" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="143" t="n">
         <v>2</v>
       </c>
-      <c r="C231" s="59"/>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="56"/>
-      <c r="H231" s="56"/>
-      <c r="I231" s="59"/>
-      <c r="J231" s="56"/>
-      <c r="K231" s="62"/>
-      <c r="L231" s="59"/>
-      <c r="M231" s="56"/>
-      <c r="N231" s="61"/>
-      <c r="O231" s="56"/>
-      <c r="P231" s="56"/>
-      <c r="Q231" s="56"/>
-      <c r="R231" s="57"/>
-      <c r="S231" s="56"/>
-      <c r="T231" s="62"/>
+      <c r="C231" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="59" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="J231" s="56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K231" s="62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L231" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="143" t="n">
         <v>3</v>
       </c>
-      <c r="C232" s="59"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="56"/>
-      <c r="H232" s="56"/>
-      <c r="I232" s="59"/>
-      <c r="J232" s="56"/>
-      <c r="K232" s="62"/>
-      <c r="L232" s="59"/>
-      <c r="M232" s="56"/>
-      <c r="N232" s="61"/>
-      <c r="O232" s="56"/>
-      <c r="P232" s="56"/>
-      <c r="Q232" s="56"/>
-      <c r="R232" s="57"/>
-      <c r="S232" s="56"/>
-      <c r="T232" s="62"/>
+      <c r="C232" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" s="59" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="J232" s="56" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K232" s="62" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="L232" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="143" t="n">
         <v>4</v>
       </c>
-      <c r="C233" s="59"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="56"/>
-      <c r="H233" s="56"/>
-      <c r="I233" s="59"/>
-      <c r="J233" s="56"/>
-      <c r="K233" s="62"/>
-      <c r="L233" s="59"/>
-      <c r="M233" s="56"/>
-      <c r="N233" s="61"/>
-      <c r="O233" s="56"/>
-      <c r="P233" s="56"/>
-      <c r="Q233" s="56"/>
-      <c r="R233" s="57"/>
-      <c r="S233" s="56"/>
-      <c r="T233" s="62"/>
+      <c r="C233" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="59" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="J233" s="56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K233" s="62" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="L233" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="143" t="n">
         <v>5</v>
       </c>
-      <c r="C234" s="59"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="56"/>
-      <c r="H234" s="56"/>
-      <c r="I234" s="59"/>
-      <c r="J234" s="56"/>
-      <c r="K234" s="62"/>
-      <c r="L234" s="59"/>
-      <c r="M234" s="56"/>
-      <c r="N234" s="61"/>
-      <c r="O234" s="56"/>
-      <c r="P234" s="56"/>
-      <c r="Q234" s="56"/>
-      <c r="R234" s="57"/>
-      <c r="S234" s="56"/>
-      <c r="T234" s="62"/>
+      <c r="C234" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="59" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J234" s="56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K234" s="62" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="L234" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="143" t="n">
         <v>6</v>
       </c>
-      <c r="C235" s="59"/>
-      <c r="D235" s="56"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="56"/>
-      <c r="H235" s="56"/>
-      <c r="I235" s="59"/>
-      <c r="J235" s="56"/>
-      <c r="K235" s="62"/>
-      <c r="L235" s="59"/>
-      <c r="M235" s="56"/>
-      <c r="N235" s="61"/>
-      <c r="O235" s="56"/>
-      <c r="P235" s="56"/>
-      <c r="Q235" s="56"/>
-      <c r="R235" s="57"/>
-      <c r="S235" s="56"/>
-      <c r="T235" s="62"/>
+      <c r="C235" s="59" t="n">
+        <v>15</v>
+      </c>
+      <c r="D235" s="56" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E235" s="56" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F235" s="57" t="n">
+        <v>90</v>
+      </c>
+      <c r="G235" s="56" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="H235" s="56" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="I235" s="59" t="n">
+        <v>-36</v>
+      </c>
+      <c r="J235" s="56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K235" s="62" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="L235" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="56" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P235" s="56" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q235" s="56" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="R235" s="57" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="S235" s="56" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="T235" s="62" t="n">
+        <v>19.48</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="143" t="n">
         <v>7</v>
       </c>
-      <c r="C236" s="59"/>
-      <c r="D236" s="56"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="56"/>
-      <c r="H236" s="56"/>
-      <c r="I236" s="59"/>
-      <c r="J236" s="56"/>
-      <c r="K236" s="62"/>
-      <c r="L236" s="59"/>
-      <c r="M236" s="56"/>
-      <c r="N236" s="61"/>
-      <c r="O236" s="56"/>
-      <c r="P236" s="56"/>
-      <c r="Q236" s="56"/>
-      <c r="R236" s="57"/>
-      <c r="S236" s="56"/>
-      <c r="T236" s="62"/>
+      <c r="C236" s="59" t="n">
+        <v>60</v>
+      </c>
+      <c r="D236" s="56" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="E236" s="56" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="F236" s="57" t="n">
+        <v>275</v>
+      </c>
+      <c r="G236" s="56" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="H236" s="56" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="I236" s="59" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="J236" s="56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K236" s="62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L236" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" s="56" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P236" s="56" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="Q236" s="56" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="R236" s="57" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="S236" s="56" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="T236" s="62" t="n">
+        <v>39.61</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="143" t="n">
         <v>8</v>
       </c>
-      <c r="C237" s="59"/>
-      <c r="D237" s="56"/>
-      <c r="E237" s="56"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="56"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="59"/>
-      <c r="J237" s="56"/>
-      <c r="K237" s="62"/>
-      <c r="L237" s="59"/>
-      <c r="M237" s="56"/>
-      <c r="N237" s="61"/>
-      <c r="O237" s="56"/>
-      <c r="P237" s="56"/>
-      <c r="Q237" s="56"/>
-      <c r="R237" s="57"/>
-      <c r="S237" s="56"/>
-      <c r="T237" s="62"/>
+      <c r="C237" s="59" t="n">
+        <v>111</v>
+      </c>
+      <c r="D237" s="56" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="E237" s="56" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="F237" s="57" t="n">
+        <v>479</v>
+      </c>
+      <c r="G237" s="56" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="H237" s="56" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="I237" s="59" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="J237" s="56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K237" s="62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L237" s="59" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="M237" s="56" t="n">
+        <v>55.73</v>
+      </c>
+      <c r="N237" s="61" t="n">
+        <v>138.85</v>
+      </c>
+      <c r="O237" s="56" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="P237" s="56" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="Q237" s="56" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="R237" s="57" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="S237" s="56" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="T237" s="62" t="n">
+        <v>60.11</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="143" t="n">
         <v>9</v>
       </c>
-      <c r="C238" s="59"/>
-      <c r="D238" s="56"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="57"/>
-      <c r="G238" s="56"/>
-      <c r="H238" s="56"/>
-      <c r="I238" s="59"/>
-      <c r="J238" s="56"/>
-      <c r="K238" s="62"/>
-      <c r="L238" s="59"/>
-      <c r="M238" s="56"/>
-      <c r="N238" s="61"/>
-      <c r="O238" s="56"/>
-      <c r="P238" s="56"/>
-      <c r="Q238" s="56"/>
-      <c r="R238" s="57"/>
-      <c r="S238" s="56"/>
-      <c r="T238" s="62"/>
+      <c r="C238" s="59" t="n">
+        <v>158</v>
+      </c>
+      <c r="D238" s="56" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="E238" s="56" t="n">
+        <v>92.71</v>
+      </c>
+      <c r="F238" s="57" t="n">
+        <v>668</v>
+      </c>
+      <c r="G238" s="56" t="n">
+        <v>166.73</v>
+      </c>
+      <c r="H238" s="56" t="n">
+        <v>101.35</v>
+      </c>
+      <c r="I238" s="59" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="J238" s="56" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K238" s="62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L238" s="59" t="n">
+        <v>325.7</v>
+      </c>
+      <c r="M238" s="56" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="N238" s="61" t="n">
+        <v>409.45</v>
+      </c>
+      <c r="O238" s="56" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="P238" s="56" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="Q238" s="56" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="R238" s="57" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="S238" s="56" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="T238" s="62" t="n">
+        <v>89.08</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="143" t="n">
         <v>10</v>
       </c>
-      <c r="C239" s="59"/>
-      <c r="D239" s="56"/>
-      <c r="E239" s="56"/>
-      <c r="F239" s="57"/>
-      <c r="G239" s="56"/>
-      <c r="H239" s="56"/>
-      <c r="I239" s="59"/>
-      <c r="J239" s="56"/>
-      <c r="K239" s="62"/>
-      <c r="L239" s="59"/>
-      <c r="M239" s="56"/>
-      <c r="N239" s="61"/>
-      <c r="O239" s="56"/>
-      <c r="P239" s="56"/>
-      <c r="Q239" s="56"/>
-      <c r="R239" s="57"/>
-      <c r="S239" s="56"/>
-      <c r="T239" s="62"/>
+      <c r="C239" s="59" t="n">
+        <v>195</v>
+      </c>
+      <c r="D239" s="56" t="n">
+        <v>116.03</v>
+      </c>
+      <c r="E239" s="56" t="n">
+        <v>113.11</v>
+      </c>
+      <c r="F239" s="57" t="n">
+        <v>827</v>
+      </c>
+      <c r="G239" s="56" t="n">
+        <v>296.45</v>
+      </c>
+      <c r="H239" s="56" t="n">
+        <v>117.44</v>
+      </c>
+      <c r="I239" s="59" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="J239" s="56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K239" s="62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L239" s="59" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="M239" s="56" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="N239" s="61" t="n">
+        <v>592.98</v>
+      </c>
+      <c r="O239" s="56" t="n">
+        <v>69.73</v>
+      </c>
+      <c r="P239" s="56" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="Q239" s="56" t="n">
+        <v>87.37</v>
+      </c>
+      <c r="R239" s="57" t="n">
+        <v>112.79</v>
+      </c>
+      <c r="S239" s="56" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="T239" s="62" t="n">
+        <v>163.22</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="143" t="n">
         <v>11</v>
       </c>
-      <c r="C240" s="59"/>
-      <c r="D240" s="56"/>
-      <c r="E240" s="56"/>
-      <c r="F240" s="57"/>
-      <c r="G240" s="56"/>
-      <c r="H240" s="56"/>
-      <c r="I240" s="59"/>
-      <c r="J240" s="56"/>
-      <c r="K240" s="62"/>
-      <c r="L240" s="59"/>
-      <c r="M240" s="56"/>
-      <c r="N240" s="61"/>
-      <c r="O240" s="56"/>
-      <c r="P240" s="56"/>
-      <c r="Q240" s="56"/>
-      <c r="R240" s="57"/>
-      <c r="S240" s="56"/>
-      <c r="T240" s="62"/>
+      <c r="C240" s="59" t="n">
+        <v>263</v>
+      </c>
+      <c r="D240" s="56" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="E240" s="56" t="n">
+        <v>148.79</v>
+      </c>
+      <c r="F240" s="57" t="n">
+        <v>941</v>
+      </c>
+      <c r="G240" s="56" t="n">
+        <v>390.91</v>
+      </c>
+      <c r="H240" s="56" t="n">
+        <v>126.74</v>
+      </c>
+      <c r="I240" s="59" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="J240" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="K240" s="62" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L240" s="59" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="M240" s="56" t="n">
+        <v>327.31</v>
+      </c>
+      <c r="N240" s="61" t="n">
+        <v>719.04</v>
+      </c>
+      <c r="O240" s="56" t="n">
+        <v>94.02</v>
+      </c>
+      <c r="P240" s="56" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="Q240" s="56" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="R240" s="57" t="n">
+        <v>166.86</v>
+      </c>
+      <c r="S240" s="56" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="T240" s="62" t="n">
+        <v>238.46</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="143" t="n">
         <v>12</v>
       </c>
-      <c r="C241" s="59"/>
-      <c r="D241" s="56"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="56"/>
-      <c r="H241" s="56"/>
-      <c r="I241" s="59"/>
-      <c r="J241" s="56"/>
-      <c r="K241" s="62"/>
-      <c r="L241" s="59"/>
-      <c r="M241" s="56"/>
-      <c r="N241" s="61"/>
-      <c r="O241" s="56"/>
-      <c r="P241" s="56"/>
-      <c r="Q241" s="56"/>
-      <c r="R241" s="57"/>
-      <c r="S241" s="56"/>
-      <c r="T241" s="62"/>
+      <c r="C241" s="59" t="n">
+        <v>278</v>
+      </c>
+      <c r="D241" s="56" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="E241" s="56" t="n">
+        <v>158.81</v>
+      </c>
+      <c r="F241" s="57" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G241" s="56" t="n">
+        <v>441.65</v>
+      </c>
+      <c r="H241" s="56" t="n">
+        <v>130.36</v>
+      </c>
+      <c r="I241" s="59" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="J241" s="56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K241" s="62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L241" s="59" t="n">
+        <v>653.9</v>
+      </c>
+      <c r="M241" s="56" t="n">
+        <v>361.31</v>
+      </c>
+      <c r="N241" s="61" t="n">
+        <v>788.87</v>
+      </c>
+      <c r="O241" s="56" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="P241" s="56" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="Q241" s="56" t="n">
+        <v>124.74</v>
+      </c>
+      <c r="R241" s="57" t="n">
+        <v>201.93</v>
+      </c>
+      <c r="S241" s="56" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="T241" s="62" t="n">
+        <v>283.59</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="143" t="n">
         <v>13</v>
       </c>
-      <c r="C242" s="59"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="57"/>
-      <c r="G242" s="56"/>
-      <c r="H242" s="56"/>
-      <c r="I242" s="59"/>
-      <c r="J242" s="56"/>
-      <c r="K242" s="62"/>
-      <c r="L242" s="59"/>
-      <c r="M242" s="56"/>
-      <c r="N242" s="61"/>
-      <c r="O242" s="56"/>
-      <c r="P242" s="56"/>
-      <c r="Q242" s="56"/>
-      <c r="R242" s="57"/>
-      <c r="S242" s="56"/>
-      <c r="T242" s="62"/>
+      <c r="C242" s="59" t="n">
+        <v>277</v>
+      </c>
+      <c r="D242" s="56" t="n">
+        <v>165.04</v>
+      </c>
+      <c r="E242" s="56" t="n">
+        <v>159.18</v>
+      </c>
+      <c r="F242" s="57" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G242" s="56" t="n">
+        <v>445.59</v>
+      </c>
+      <c r="H242" s="56" t="n">
+        <v>238.98</v>
+      </c>
+      <c r="I242" s="59" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="J242" s="56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K242" s="62" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L242" s="59" t="n">
+        <v>665</v>
+      </c>
+      <c r="M242" s="56" t="n">
+        <v>367.54</v>
+      </c>
+      <c r="N242" s="61" t="n">
+        <v>801.72</v>
+      </c>
+      <c r="O242" s="56" t="n">
+        <v>99.19</v>
+      </c>
+      <c r="P242" s="56" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="Q242" s="56" t="n">
+        <v>124.27</v>
+      </c>
+      <c r="R242" s="57" t="n">
+        <v>204.75</v>
+      </c>
+      <c r="S242" s="56" t="n">
+        <v>109.01</v>
+      </c>
+      <c r="T242" s="62" t="n">
+        <v>287.12</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="143" t="n">
         <v>14</v>
       </c>
-      <c r="C243" s="59"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="57"/>
-      <c r="G243" s="56"/>
-      <c r="H243" s="56"/>
-      <c r="I243" s="59"/>
-      <c r="J243" s="56"/>
-      <c r="K243" s="62"/>
-      <c r="L243" s="59"/>
-      <c r="M243" s="56"/>
-      <c r="N243" s="61"/>
-      <c r="O243" s="56"/>
-      <c r="P243" s="56"/>
-      <c r="Q243" s="56"/>
-      <c r="R243" s="57"/>
-      <c r="S243" s="56"/>
-      <c r="T243" s="62"/>
+      <c r="C243" s="59" t="n">
+        <v>259</v>
+      </c>
+      <c r="D243" s="56" t="n">
+        <v>154</v>
+      </c>
+      <c r="E243" s="56" t="n">
+        <v>154.61</v>
+      </c>
+      <c r="F243" s="57" t="n">
+        <v>955</v>
+      </c>
+      <c r="G243" s="56" t="n">
+        <v>401.73</v>
+      </c>
+      <c r="H243" s="56" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I243" s="59" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="J243" s="56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K243" s="62" t="n">
+        <v>5</v>
+      </c>
+      <c r="L243" s="59" t="n">
+        <v>623.5</v>
+      </c>
+      <c r="M243" s="56" t="n">
+        <v>344.22</v>
+      </c>
+      <c r="N243" s="61" t="n">
+        <v>753.75</v>
+      </c>
+      <c r="O243" s="56" t="n">
+        <v>92.55</v>
+      </c>
+      <c r="P243" s="56" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="Q243" s="56" t="n">
+        <v>115.96</v>
+      </c>
+      <c r="R243" s="57" t="n">
+        <v>173.86</v>
+      </c>
+      <c r="S243" s="56" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="T243" s="62" t="n">
+        <v>247.65</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="143" t="n">
         <v>15</v>
       </c>
-      <c r="C244" s="59"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="57"/>
-      <c r="G244" s="56"/>
-      <c r="H244" s="56"/>
-      <c r="I244" s="59"/>
-      <c r="J244" s="56"/>
-      <c r="K244" s="62"/>
-      <c r="L244" s="59"/>
-      <c r="M244" s="56"/>
-      <c r="N244" s="61"/>
-      <c r="O244" s="56"/>
-      <c r="P244" s="56"/>
-      <c r="Q244" s="56"/>
-      <c r="R244" s="57"/>
-      <c r="S244" s="56"/>
-      <c r="T244" s="62"/>
+      <c r="C244" s="59" t="n">
+        <v>227</v>
+      </c>
+      <c r="D244" s="56" t="n">
+        <v>134.48</v>
+      </c>
+      <c r="E244" s="56" t="n">
+        <v>140.01</v>
+      </c>
+      <c r="F244" s="57" t="n">
+        <v>848</v>
+      </c>
+      <c r="G244" s="56" t="n">
+        <v>312.89</v>
+      </c>
+      <c r="H244" s="56" t="n">
+        <v>672.39</v>
+      </c>
+      <c r="I244" s="59" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="J244" s="56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K244" s="62" t="n">
+        <v>6</v>
+      </c>
+      <c r="L244" s="59" t="n">
+        <v>534.1</v>
+      </c>
+      <c r="M244" s="56" t="n">
+        <v>293.82</v>
+      </c>
+      <c r="N244" s="61" t="n">
+        <v>650.33</v>
+      </c>
+      <c r="O244" s="56" t="n">
+        <v>80.82</v>
+      </c>
+      <c r="P244" s="56" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="Q244" s="56" t="n">
+        <v>101.26</v>
+      </c>
+      <c r="R244" s="57" t="n">
+        <v>121.01</v>
+      </c>
+      <c r="S244" s="56" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="T244" s="62" t="n">
+        <v>175.19</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="143" t="n">
         <v>16</v>
       </c>
-      <c r="C245" s="59"/>
-      <c r="D245" s="56"/>
-      <c r="E245" s="56"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="56"/>
-      <c r="H245" s="56"/>
-      <c r="I245" s="59"/>
-      <c r="J245" s="56"/>
-      <c r="K245" s="62"/>
-      <c r="L245" s="59"/>
-      <c r="M245" s="56"/>
-      <c r="N245" s="61"/>
-      <c r="O245" s="56"/>
-      <c r="P245" s="56"/>
-      <c r="Q245" s="56"/>
-      <c r="R245" s="57"/>
-      <c r="S245" s="56"/>
-      <c r="T245" s="62"/>
+      <c r="C245" s="59" t="n">
+        <v>181</v>
+      </c>
+      <c r="D245" s="56" t="n">
+        <v>106.77</v>
+      </c>
+      <c r="E245" s="56" t="n">
+        <v>114.38</v>
+      </c>
+      <c r="F245" s="57" t="n">
+        <v>696</v>
+      </c>
+      <c r="G245" s="56" t="n">
+        <v>187.67</v>
+      </c>
+      <c r="H245" s="56" t="n">
+        <v>809.04</v>
+      </c>
+      <c r="I245" s="59" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="J245" s="56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K245" s="62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L245" s="59" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="M245" s="56" t="n">
+        <v>216.33</v>
+      </c>
+      <c r="N245" s="61" t="n">
+        <v>492.04</v>
+      </c>
+      <c r="O245" s="56" t="n">
+        <v>64.17</v>
+      </c>
+      <c r="P245" s="56" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="Q245" s="56" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="R245" s="57" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="S245" s="56" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="T245" s="62" t="n">
+        <v>98.49</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="143" t="n">
         <v>17</v>
       </c>
-      <c r="C246" s="59"/>
-      <c r="D246" s="56"/>
-      <c r="E246" s="56"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="56"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="59"/>
-      <c r="J246" s="56"/>
-      <c r="K246" s="62"/>
-      <c r="L246" s="59"/>
-      <c r="M246" s="56"/>
-      <c r="N246" s="61"/>
-      <c r="O246" s="56"/>
-      <c r="P246" s="56"/>
-      <c r="Q246" s="56"/>
-      <c r="R246" s="57"/>
-      <c r="S246" s="56"/>
-      <c r="T246" s="62"/>
+      <c r="C246" s="59" t="n">
+        <v>104</v>
+      </c>
+      <c r="D246" s="56" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="E246" s="56" t="n">
+        <v>63.55</v>
+      </c>
+      <c r="F246" s="57" t="n">
+        <v>509</v>
+      </c>
+      <c r="G246" s="56" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="H246" s="56" t="n">
+        <v>861.62</v>
+      </c>
+      <c r="I246" s="59" t="n">
+        <v>-34</v>
+      </c>
+      <c r="J246" s="56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K246" s="62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L246" s="59" t="n">
+        <v>210.3</v>
+      </c>
+      <c r="M246" s="56" t="n">
+        <v>112.91</v>
+      </c>
+      <c r="N246" s="61" t="n">
+        <v>272.44</v>
+      </c>
+      <c r="O246" s="56" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="P246" s="56" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="Q246" s="56" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="R246" s="57" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="S246" s="56" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="T246" s="62" t="n">
+        <v>63.18</v>
+      </c>
       <c r="AB246" s="125"/>
       <c r="AC246" s="125"/>
     </row>
@@ -6581,162 +7205,414 @@
       <c r="B247" s="143" t="n">
         <v>18</v>
       </c>
-      <c r="C247" s="59"/>
-      <c r="D247" s="56"/>
-      <c r="E247" s="56"/>
-      <c r="F247" s="57"/>
-      <c r="G247" s="56"/>
-      <c r="H247" s="56"/>
-      <c r="I247" s="59"/>
-      <c r="J247" s="56"/>
-      <c r="K247" s="62"/>
-      <c r="L247" s="59"/>
-      <c r="M247" s="56"/>
-      <c r="N247" s="61"/>
-      <c r="O247" s="56"/>
-      <c r="P247" s="56"/>
-      <c r="Q247" s="56"/>
-      <c r="R247" s="57"/>
-      <c r="S247" s="56"/>
-      <c r="T247" s="62"/>
+      <c r="C247" s="59" t="n">
+        <v>53</v>
+      </c>
+      <c r="D247" s="56" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E247" s="56" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F247" s="57" t="n">
+        <v>306</v>
+      </c>
+      <c r="G247" s="56" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="H247" s="56" t="n">
+        <v>806.87</v>
+      </c>
+      <c r="I247" s="59" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="J247" s="56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K247" s="62" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L247" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" s="56" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="P247" s="56" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="Q247" s="56" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="R247" s="57" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="S247" s="56" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="T247" s="62" t="n">
+        <v>43.46</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="143" t="n">
         <v>19</v>
       </c>
-      <c r="C248" s="59"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="56"/>
-      <c r="F248" s="57"/>
-      <c r="G248" s="56"/>
-      <c r="H248" s="56"/>
-      <c r="I248" s="59"/>
-      <c r="J248" s="56"/>
-      <c r="K248" s="62"/>
-      <c r="L248" s="59"/>
-      <c r="M248" s="56"/>
-      <c r="N248" s="61"/>
-      <c r="O248" s="56"/>
-      <c r="P248" s="56"/>
-      <c r="Q248" s="56"/>
-      <c r="R248" s="57"/>
-      <c r="S248" s="56"/>
-      <c r="T248" s="62"/>
+      <c r="C248" s="59" t="n">
+        <v>11</v>
+      </c>
+      <c r="D248" s="56" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E248" s="56" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F248" s="57" t="n">
+        <v>114</v>
+      </c>
+      <c r="G248" s="56" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="H248" s="56" t="n">
+        <v>578.91</v>
+      </c>
+      <c r="I248" s="59" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="J248" s="56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K248" s="62" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L248" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" s="56" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="P248" s="56" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q248" s="56" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="R248" s="57" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="S248" s="56" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="T248" s="62" t="n">
+        <v>22.72</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="143" t="n">
         <v>20</v>
       </c>
-      <c r="C249" s="59"/>
-      <c r="D249" s="56"/>
-      <c r="E249" s="56"/>
-      <c r="F249" s="57"/>
-      <c r="G249" s="56"/>
-      <c r="H249" s="56"/>
-      <c r="I249" s="59"/>
-      <c r="J249" s="56"/>
-      <c r="K249" s="62"/>
-      <c r="L249" s="59"/>
-      <c r="M249" s="56"/>
-      <c r="N249" s="61"/>
-      <c r="O249" s="56"/>
-      <c r="P249" s="56"/>
-      <c r="Q249" s="56"/>
-      <c r="R249" s="57"/>
-      <c r="S249" s="56"/>
-      <c r="T249" s="62"/>
+      <c r="C249" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" s="59" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="J249" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K249" s="62" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L249" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="143" t="n">
         <v>21</v>
       </c>
-      <c r="C250" s="59"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="57"/>
-      <c r="G250" s="56"/>
-      <c r="H250" s="56"/>
-      <c r="I250" s="59"/>
-      <c r="J250" s="56"/>
-      <c r="K250" s="62"/>
-      <c r="L250" s="59"/>
-      <c r="M250" s="56"/>
-      <c r="N250" s="61"/>
-      <c r="O250" s="56"/>
-      <c r="P250" s="56"/>
-      <c r="Q250" s="56"/>
-      <c r="R250" s="57"/>
-      <c r="S250" s="56"/>
-      <c r="T250" s="62"/>
+      <c r="C250" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" s="59" t="n">
+        <v>-38</v>
+      </c>
+      <c r="J250" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K250" s="62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L250" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="143" t="n">
         <v>22</v>
       </c>
-      <c r="C251" s="59"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="56"/>
-      <c r="F251" s="57"/>
-      <c r="G251" s="56"/>
-      <c r="H251" s="56"/>
-      <c r="I251" s="59"/>
-      <c r="J251" s="56"/>
-      <c r="K251" s="62"/>
-      <c r="L251" s="59"/>
-      <c r="M251" s="56"/>
-      <c r="N251" s="61"/>
-      <c r="O251" s="56"/>
-      <c r="P251" s="56"/>
-      <c r="Q251" s="56"/>
-      <c r="R251" s="57"/>
-      <c r="S251" s="56"/>
-      <c r="T251" s="62"/>
+      <c r="C251" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" s="59" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="J251" s="56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K251" s="62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L251" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="143" t="n">
         <v>23</v>
       </c>
-      <c r="C252" s="59"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="57"/>
-      <c r="G252" s="56"/>
-      <c r="H252" s="56"/>
-      <c r="I252" s="59"/>
-      <c r="J252" s="56"/>
-      <c r="K252" s="62"/>
-      <c r="L252" s="59"/>
-      <c r="M252" s="56"/>
-      <c r="N252" s="61"/>
-      <c r="O252" s="56"/>
-      <c r="P252" s="56"/>
-      <c r="Q252" s="56"/>
-      <c r="R252" s="57"/>
-      <c r="S252" s="56"/>
-      <c r="T252" s="62"/>
+      <c r="C252" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" s="59" t="n">
+        <v>-39</v>
+      </c>
+      <c r="J252" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" s="62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L252" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="144" t="n">
         <v>24</v>
       </c>
-      <c r="C253" s="66"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="68"/>
-      <c r="F253" s="86"/>
-      <c r="G253" s="68"/>
-      <c r="H253" s="68"/>
-      <c r="I253" s="66"/>
-      <c r="J253" s="68"/>
-      <c r="K253" s="70"/>
-      <c r="L253" s="66"/>
-      <c r="M253" s="68"/>
-      <c r="N253" s="69"/>
-      <c r="O253" s="68"/>
-      <c r="P253" s="68"/>
-      <c r="Q253" s="68"/>
-      <c r="R253" s="86"/>
-      <c r="S253" s="68"/>
-      <c r="T253" s="70"/>
+      <c r="C253" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" s="66" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="J253" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" s="70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L253" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" s="70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="145"/>
@@ -7031,18 +7907,18 @@
       <c r="AO261" s="44"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="142" t="n">
+      <c r="B262" s="153" t="n">
         <v>1</v>
       </c>
       <c r="C262" s="59"/>
-      <c r="D262" s="153"/>
+      <c r="D262" s="154"/>
       <c r="E262" s="56"/>
       <c r="F262" s="56"/>
       <c r="G262" s="56"/>
       <c r="H262" s="56"/>
       <c r="I262" s="56"/>
       <c r="J262" s="56"/>
-      <c r="K262" s="153"/>
+      <c r="K262" s="154"/>
       <c r="L262" s="56"/>
       <c r="M262" s="56"/>
       <c r="N262" s="61"/>
@@ -7056,8 +7932,8 @@
       <c r="V262" s="56"/>
       <c r="W262" s="56"/>
       <c r="X262" s="62"/>
-      <c r="Y262" s="154"/>
-      <c r="Z262" s="155"/>
+      <c r="Y262" s="155"/>
+      <c r="Z262" s="156"/>
       <c r="AB262" s="146"/>
       <c r="AC262" s="146"/>
       <c r="AD262" s="125"/>
@@ -7074,18 +7950,18 @@
       <c r="AO262" s="125"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="143" t="n">
+      <c r="B263" s="157" t="n">
         <v>2</v>
       </c>
       <c r="C263" s="59"/>
-      <c r="D263" s="153"/>
+      <c r="D263" s="154"/>
       <c r="E263" s="56"/>
       <c r="F263" s="56"/>
       <c r="G263" s="56"/>
       <c r="H263" s="56"/>
       <c r="I263" s="56"/>
       <c r="J263" s="56"/>
-      <c r="K263" s="153"/>
+      <c r="K263" s="154"/>
       <c r="L263" s="56"/>
       <c r="M263" s="56"/>
       <c r="N263" s="61"/>
@@ -7099,24 +7975,24 @@
       <c r="V263" s="56"/>
       <c r="W263" s="56"/>
       <c r="X263" s="62"/>
-      <c r="Y263" s="154"/>
-      <c r="Z263" s="155"/>
+      <c r="Y263" s="155"/>
+      <c r="Z263" s="156"/>
       <c r="AB263" s="146"/>
       <c r="AC263" s="146"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="143" t="n">
+      <c r="B264" s="157" t="n">
         <v>3</v>
       </c>
       <c r="C264" s="59"/>
-      <c r="D264" s="153"/>
+      <c r="D264" s="154"/>
       <c r="E264" s="56"/>
       <c r="F264" s="56"/>
       <c r="G264" s="56"/>
       <c r="H264" s="56"/>
       <c r="I264" s="56"/>
       <c r="J264" s="56"/>
-      <c r="K264" s="153"/>
+      <c r="K264" s="154"/>
       <c r="L264" s="56"/>
       <c r="M264" s="56"/>
       <c r="N264" s="61"/>
@@ -7130,24 +8006,24 @@
       <c r="V264" s="56"/>
       <c r="W264" s="56"/>
       <c r="X264" s="62"/>
-      <c r="Y264" s="154"/>
-      <c r="Z264" s="155"/>
+      <c r="Y264" s="155"/>
+      <c r="Z264" s="156"/>
       <c r="AB264" s="146"/>
       <c r="AC264" s="146"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="143" t="n">
+      <c r="B265" s="157" t="n">
         <v>4</v>
       </c>
       <c r="C265" s="59"/>
-      <c r="D265" s="153"/>
+      <c r="D265" s="154"/>
       <c r="E265" s="56"/>
       <c r="F265" s="56"/>
       <c r="G265" s="56"/>
       <c r="H265" s="56"/>
       <c r="I265" s="56"/>
       <c r="J265" s="56"/>
-      <c r="K265" s="153"/>
+      <c r="K265" s="154"/>
       <c r="L265" s="56"/>
       <c r="M265" s="56"/>
       <c r="N265" s="61"/>
@@ -7161,24 +8037,24 @@
       <c r="V265" s="56"/>
       <c r="W265" s="56"/>
       <c r="X265" s="62"/>
-      <c r="Y265" s="154"/>
-      <c r="Z265" s="155"/>
+      <c r="Y265" s="155"/>
+      <c r="Z265" s="156"/>
       <c r="AB265" s="146"/>
       <c r="AC265" s="146"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="143" t="n">
+      <c r="B266" s="157" t="n">
         <v>5</v>
       </c>
       <c r="C266" s="59"/>
-      <c r="D266" s="153"/>
+      <c r="D266" s="154"/>
       <c r="E266" s="56"/>
       <c r="F266" s="56"/>
       <c r="G266" s="56"/>
       <c r="H266" s="56"/>
       <c r="I266" s="56"/>
       <c r="J266" s="56"/>
-      <c r="K266" s="153"/>
+      <c r="K266" s="154"/>
       <c r="L266" s="56"/>
       <c r="M266" s="56"/>
       <c r="N266" s="61"/>
@@ -7192,24 +8068,24 @@
       <c r="V266" s="56"/>
       <c r="W266" s="56"/>
       <c r="X266" s="62"/>
-      <c r="Y266" s="154"/>
-      <c r="Z266" s="155"/>
+      <c r="Y266" s="155"/>
+      <c r="Z266" s="156"/>
       <c r="AB266" s="146"/>
       <c r="AC266" s="146"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="143" t="n">
+      <c r="B267" s="157" t="n">
         <v>6</v>
       </c>
       <c r="C267" s="59"/>
-      <c r="D267" s="153"/>
+      <c r="D267" s="154"/>
       <c r="E267" s="56"/>
       <c r="F267" s="56"/>
       <c r="G267" s="56"/>
       <c r="H267" s="56"/>
       <c r="I267" s="56"/>
       <c r="J267" s="56"/>
-      <c r="K267" s="153"/>
+      <c r="K267" s="154"/>
       <c r="L267" s="56"/>
       <c r="M267" s="56"/>
       <c r="N267" s="61"/>
@@ -7223,24 +8099,24 @@
       <c r="V267" s="56"/>
       <c r="W267" s="56"/>
       <c r="X267" s="62"/>
-      <c r="Y267" s="154"/>
-      <c r="Z267" s="155"/>
+      <c r="Y267" s="155"/>
+      <c r="Z267" s="156"/>
       <c r="AB267" s="146"/>
       <c r="AC267" s="146"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="143" t="n">
+      <c r="B268" s="157" t="n">
         <v>7</v>
       </c>
       <c r="C268" s="59"/>
-      <c r="D268" s="153"/>
+      <c r="D268" s="154"/>
       <c r="E268" s="56"/>
       <c r="F268" s="56"/>
       <c r="G268" s="56"/>
       <c r="H268" s="56"/>
       <c r="I268" s="56"/>
       <c r="J268" s="56"/>
-      <c r="K268" s="153"/>
+      <c r="K268" s="154"/>
       <c r="L268" s="56"/>
       <c r="M268" s="56"/>
       <c r="N268" s="61"/>
@@ -7254,24 +8130,24 @@
       <c r="V268" s="56"/>
       <c r="W268" s="56"/>
       <c r="X268" s="62"/>
-      <c r="Y268" s="154"/>
-      <c r="Z268" s="155"/>
+      <c r="Y268" s="155"/>
+      <c r="Z268" s="156"/>
       <c r="AB268" s="146"/>
       <c r="AC268" s="146"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="143" t="n">
+      <c r="B269" s="157" t="n">
         <v>8</v>
       </c>
       <c r="C269" s="59"/>
-      <c r="D269" s="153"/>
+      <c r="D269" s="154"/>
       <c r="E269" s="56"/>
       <c r="F269" s="56"/>
       <c r="G269" s="56"/>
       <c r="H269" s="56"/>
       <c r="I269" s="56"/>
       <c r="J269" s="56"/>
-      <c r="K269" s="153"/>
+      <c r="K269" s="154"/>
       <c r="L269" s="56"/>
       <c r="M269" s="56"/>
       <c r="N269" s="61"/>
@@ -7285,24 +8161,24 @@
       <c r="V269" s="56"/>
       <c r="W269" s="56"/>
       <c r="X269" s="62"/>
-      <c r="Y269" s="154"/>
-      <c r="Z269" s="155"/>
+      <c r="Y269" s="155"/>
+      <c r="Z269" s="156"/>
       <c r="AB269" s="146"/>
       <c r="AC269" s="146"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="143" t="n">
+      <c r="B270" s="157" t="n">
         <v>9</v>
       </c>
       <c r="C270" s="59"/>
-      <c r="D270" s="153"/>
+      <c r="D270" s="154"/>
       <c r="E270" s="56"/>
       <c r="F270" s="56"/>
       <c r="G270" s="56"/>
       <c r="H270" s="56"/>
       <c r="I270" s="56"/>
       <c r="J270" s="56"/>
-      <c r="K270" s="153"/>
+      <c r="K270" s="154"/>
       <c r="L270" s="56"/>
       <c r="M270" s="56"/>
       <c r="N270" s="61"/>
@@ -7316,24 +8192,24 @@
       <c r="V270" s="56"/>
       <c r="W270" s="56"/>
       <c r="X270" s="62"/>
-      <c r="Y270" s="154"/>
-      <c r="Z270" s="155"/>
+      <c r="Y270" s="155"/>
+      <c r="Z270" s="156"/>
       <c r="AB270" s="146"/>
       <c r="AC270" s="146"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="143" t="n">
+      <c r="B271" s="157" t="n">
         <v>10</v>
       </c>
       <c r="C271" s="59"/>
-      <c r="D271" s="153"/>
+      <c r="D271" s="154"/>
       <c r="E271" s="56"/>
       <c r="F271" s="56"/>
       <c r="G271" s="56"/>
       <c r="H271" s="56"/>
       <c r="I271" s="56"/>
       <c r="J271" s="56"/>
-      <c r="K271" s="153"/>
+      <c r="K271" s="154"/>
       <c r="L271" s="56"/>
       <c r="M271" s="56"/>
       <c r="N271" s="61"/>
@@ -7347,24 +8223,24 @@
       <c r="V271" s="56"/>
       <c r="W271" s="56"/>
       <c r="X271" s="62"/>
-      <c r="Y271" s="154"/>
-      <c r="Z271" s="155"/>
+      <c r="Y271" s="155"/>
+      <c r="Z271" s="156"/>
       <c r="AB271" s="146"/>
       <c r="AC271" s="146"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="143" t="n">
+      <c r="B272" s="157" t="n">
         <v>11</v>
       </c>
       <c r="C272" s="59"/>
-      <c r="D272" s="153"/>
+      <c r="D272" s="154"/>
       <c r="E272" s="56"/>
       <c r="F272" s="56"/>
       <c r="G272" s="56"/>
       <c r="H272" s="56"/>
       <c r="I272" s="56"/>
       <c r="J272" s="56"/>
-      <c r="K272" s="153"/>
+      <c r="K272" s="154"/>
       <c r="L272" s="56"/>
       <c r="M272" s="56"/>
       <c r="N272" s="61"/>
@@ -7378,24 +8254,24 @@
       <c r="V272" s="56"/>
       <c r="W272" s="56"/>
       <c r="X272" s="62"/>
-      <c r="Y272" s="154"/>
-      <c r="Z272" s="155"/>
+      <c r="Y272" s="155"/>
+      <c r="Z272" s="156"/>
       <c r="AB272" s="146"/>
       <c r="AC272" s="146"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="143" t="n">
+      <c r="B273" s="157" t="n">
         <v>12</v>
       </c>
       <c r="C273" s="59"/>
-      <c r="D273" s="153"/>
+      <c r="D273" s="154"/>
       <c r="E273" s="56"/>
       <c r="F273" s="56"/>
       <c r="G273" s="56"/>
       <c r="H273" s="56"/>
       <c r="I273" s="56"/>
       <c r="J273" s="56"/>
-      <c r="K273" s="153"/>
+      <c r="K273" s="154"/>
       <c r="L273" s="56"/>
       <c r="M273" s="56"/>
       <c r="N273" s="61"/>
@@ -7409,24 +8285,24 @@
       <c r="V273" s="56"/>
       <c r="W273" s="56"/>
       <c r="X273" s="62"/>
-      <c r="Y273" s="154"/>
-      <c r="Z273" s="155"/>
+      <c r="Y273" s="155"/>
+      <c r="Z273" s="156"/>
       <c r="AB273" s="146"/>
       <c r="AC273" s="146"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="143" t="n">
+      <c r="B274" s="157" t="n">
         <v>13</v>
       </c>
       <c r="C274" s="59"/>
-      <c r="D274" s="153"/>
+      <c r="D274" s="154"/>
       <c r="E274" s="56"/>
       <c r="F274" s="56"/>
       <c r="G274" s="56"/>
       <c r="H274" s="56"/>
       <c r="I274" s="56"/>
       <c r="J274" s="56"/>
-      <c r="K274" s="153"/>
+      <c r="K274" s="154"/>
       <c r="L274" s="56"/>
       <c r="M274" s="56"/>
       <c r="N274" s="61"/>
@@ -7440,24 +8316,24 @@
       <c r="V274" s="56"/>
       <c r="W274" s="56"/>
       <c r="X274" s="62"/>
-      <c r="Y274" s="154"/>
-      <c r="Z274" s="155"/>
+      <c r="Y274" s="155"/>
+      <c r="Z274" s="156"/>
       <c r="AB274" s="146"/>
       <c r="AC274" s="146"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="143" t="n">
+      <c r="B275" s="157" t="n">
         <v>14</v>
       </c>
       <c r="C275" s="59"/>
-      <c r="D275" s="153"/>
+      <c r="D275" s="154"/>
       <c r="E275" s="56"/>
       <c r="F275" s="56"/>
       <c r="G275" s="56"/>
       <c r="H275" s="56"/>
       <c r="I275" s="56"/>
       <c r="J275" s="56"/>
-      <c r="K275" s="153"/>
+      <c r="K275" s="154"/>
       <c r="L275" s="56"/>
       <c r="M275" s="56"/>
       <c r="N275" s="61"/>
@@ -7471,24 +8347,24 @@
       <c r="V275" s="56"/>
       <c r="W275" s="56"/>
       <c r="X275" s="62"/>
-      <c r="Y275" s="154"/>
-      <c r="Z275" s="155"/>
+      <c r="Y275" s="155"/>
+      <c r="Z275" s="156"/>
       <c r="AB275" s="146"/>
       <c r="AC275" s="146"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="143" t="n">
+      <c r="B276" s="157" t="n">
         <v>15</v>
       </c>
       <c r="C276" s="59"/>
-      <c r="D276" s="153"/>
+      <c r="D276" s="154"/>
       <c r="E276" s="56"/>
       <c r="F276" s="56"/>
       <c r="G276" s="56"/>
       <c r="H276" s="56"/>
       <c r="I276" s="56"/>
       <c r="J276" s="56"/>
-      <c r="K276" s="153"/>
+      <c r="K276" s="154"/>
       <c r="L276" s="56"/>
       <c r="M276" s="56"/>
       <c r="N276" s="61"/>
@@ -7502,24 +8378,24 @@
       <c r="V276" s="56"/>
       <c r="W276" s="56"/>
       <c r="X276" s="62"/>
-      <c r="Y276" s="154"/>
-      <c r="Z276" s="155"/>
+      <c r="Y276" s="155"/>
+      <c r="Z276" s="156"/>
       <c r="AB276" s="146"/>
       <c r="AC276" s="146"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="143" t="n">
+      <c r="B277" s="157" t="n">
         <v>16</v>
       </c>
       <c r="C277" s="59"/>
-      <c r="D277" s="153"/>
+      <c r="D277" s="154"/>
       <c r="E277" s="56"/>
       <c r="F277" s="56"/>
       <c r="G277" s="56"/>
       <c r="H277" s="56"/>
       <c r="I277" s="56"/>
       <c r="J277" s="56"/>
-      <c r="K277" s="153"/>
+      <c r="K277" s="154"/>
       <c r="L277" s="56"/>
       <c r="M277" s="56"/>
       <c r="N277" s="61"/>
@@ -7533,24 +8409,24 @@
       <c r="V277" s="56"/>
       <c r="W277" s="56"/>
       <c r="X277" s="62"/>
-      <c r="Y277" s="154"/>
-      <c r="Z277" s="155"/>
+      <c r="Y277" s="155"/>
+      <c r="Z277" s="156"/>
       <c r="AB277" s="146"/>
       <c r="AC277" s="146"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="143" t="n">
+      <c r="B278" s="157" t="n">
         <v>17</v>
       </c>
       <c r="C278" s="59"/>
-      <c r="D278" s="153"/>
+      <c r="D278" s="154"/>
       <c r="E278" s="56"/>
       <c r="F278" s="56"/>
       <c r="G278" s="56"/>
       <c r="H278" s="56"/>
       <c r="I278" s="56"/>
       <c r="J278" s="56"/>
-      <c r="K278" s="153"/>
+      <c r="K278" s="154"/>
       <c r="L278" s="56"/>
       <c r="M278" s="56"/>
       <c r="N278" s="61"/>
@@ -7564,24 +8440,24 @@
       <c r="V278" s="56"/>
       <c r="W278" s="56"/>
       <c r="X278" s="62"/>
-      <c r="Y278" s="154"/>
-      <c r="Z278" s="155"/>
+      <c r="Y278" s="155"/>
+      <c r="Z278" s="156"/>
       <c r="AB278" s="146"/>
       <c r="AC278" s="146"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="143" t="n">
+      <c r="B279" s="157" t="n">
         <v>18</v>
       </c>
       <c r="C279" s="59"/>
-      <c r="D279" s="153"/>
+      <c r="D279" s="154"/>
       <c r="E279" s="56"/>
       <c r="F279" s="56"/>
       <c r="G279" s="56"/>
       <c r="H279" s="56"/>
       <c r="I279" s="56"/>
       <c r="J279" s="56"/>
-      <c r="K279" s="153"/>
+      <c r="K279" s="154"/>
       <c r="L279" s="56"/>
       <c r="M279" s="56"/>
       <c r="N279" s="61"/>
@@ -7595,24 +8471,24 @@
       <c r="V279" s="56"/>
       <c r="W279" s="56"/>
       <c r="X279" s="62"/>
-      <c r="Y279" s="154"/>
-      <c r="Z279" s="155"/>
+      <c r="Y279" s="155"/>
+      <c r="Z279" s="156"/>
       <c r="AB279" s="146"/>
       <c r="AC279" s="146"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="143" t="n">
+      <c r="B280" s="157" t="n">
         <v>19</v>
       </c>
       <c r="C280" s="59"/>
-      <c r="D280" s="153"/>
+      <c r="D280" s="154"/>
       <c r="E280" s="56"/>
       <c r="F280" s="56"/>
       <c r="G280" s="56"/>
       <c r="H280" s="56"/>
       <c r="I280" s="56"/>
       <c r="J280" s="56"/>
-      <c r="K280" s="153"/>
+      <c r="K280" s="154"/>
       <c r="L280" s="56"/>
       <c r="M280" s="56"/>
       <c r="N280" s="61"/>
@@ -7626,24 +8502,24 @@
       <c r="V280" s="56"/>
       <c r="W280" s="56"/>
       <c r="X280" s="62"/>
-      <c r="Y280" s="154"/>
-      <c r="Z280" s="155"/>
+      <c r="Y280" s="155"/>
+      <c r="Z280" s="156"/>
       <c r="AB280" s="146"/>
       <c r="AC280" s="146"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="143" t="n">
+      <c r="B281" s="157" t="n">
         <v>20</v>
       </c>
       <c r="C281" s="59"/>
-      <c r="D281" s="153"/>
+      <c r="D281" s="154"/>
       <c r="E281" s="56"/>
       <c r="F281" s="56"/>
       <c r="G281" s="56"/>
       <c r="H281" s="56"/>
       <c r="I281" s="56"/>
       <c r="J281" s="56"/>
-      <c r="K281" s="153"/>
+      <c r="K281" s="154"/>
       <c r="L281" s="56"/>
       <c r="M281" s="56"/>
       <c r="N281" s="61"/>
@@ -7657,24 +8533,24 @@
       <c r="V281" s="56"/>
       <c r="W281" s="56"/>
       <c r="X281" s="62"/>
-      <c r="Y281" s="154"/>
-      <c r="Z281" s="155"/>
+      <c r="Y281" s="155"/>
+      <c r="Z281" s="156"/>
       <c r="AB281" s="146"/>
       <c r="AC281" s="146"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="143" t="n">
+      <c r="B282" s="157" t="n">
         <v>21</v>
       </c>
       <c r="C282" s="59"/>
-      <c r="D282" s="153"/>
+      <c r="D282" s="154"/>
       <c r="E282" s="56"/>
       <c r="F282" s="56"/>
       <c r="G282" s="56"/>
       <c r="H282" s="56"/>
       <c r="I282" s="56"/>
       <c r="J282" s="56"/>
-      <c r="K282" s="153"/>
+      <c r="K282" s="154"/>
       <c r="L282" s="56"/>
       <c r="M282" s="56"/>
       <c r="N282" s="61"/>
@@ -7688,24 +8564,24 @@
       <c r="V282" s="56"/>
       <c r="W282" s="56"/>
       <c r="X282" s="62"/>
-      <c r="Y282" s="154"/>
-      <c r="Z282" s="155"/>
+      <c r="Y282" s="155"/>
+      <c r="Z282" s="156"/>
       <c r="AB282" s="146"/>
       <c r="AC282" s="146"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="143" t="n">
+      <c r="B283" s="157" t="n">
         <v>22</v>
       </c>
       <c r="C283" s="59"/>
-      <c r="D283" s="153"/>
+      <c r="D283" s="154"/>
       <c r="E283" s="56"/>
       <c r="F283" s="56"/>
       <c r="G283" s="56"/>
       <c r="H283" s="56"/>
       <c r="I283" s="56"/>
       <c r="J283" s="56"/>
-      <c r="K283" s="153"/>
+      <c r="K283" s="154"/>
       <c r="L283" s="56"/>
       <c r="M283" s="56"/>
       <c r="N283" s="61"/>
@@ -7719,24 +8595,24 @@
       <c r="V283" s="56"/>
       <c r="W283" s="56"/>
       <c r="X283" s="62"/>
-      <c r="Y283" s="154"/>
-      <c r="Z283" s="155"/>
+      <c r="Y283" s="155"/>
+      <c r="Z283" s="156"/>
       <c r="AB283" s="146"/>
       <c r="AC283" s="146"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="143" t="n">
+      <c r="B284" s="157" t="n">
         <v>23</v>
       </c>
       <c r="C284" s="59"/>
-      <c r="D284" s="153"/>
+      <c r="D284" s="154"/>
       <c r="E284" s="56"/>
       <c r="F284" s="56"/>
       <c r="G284" s="56"/>
       <c r="H284" s="56"/>
       <c r="I284" s="56"/>
       <c r="J284" s="56"/>
-      <c r="K284" s="153"/>
+      <c r="K284" s="154"/>
       <c r="L284" s="56"/>
       <c r="M284" s="56"/>
       <c r="N284" s="61"/>
@@ -7750,24 +8626,24 @@
       <c r="V284" s="56"/>
       <c r="W284" s="56"/>
       <c r="X284" s="62"/>
-      <c r="Y284" s="154"/>
-      <c r="Z284" s="155"/>
+      <c r="Y284" s="155"/>
+      <c r="Z284" s="156"/>
       <c r="AB284" s="146"/>
       <c r="AC284" s="146"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="144" t="n">
+      <c r="B285" s="158" t="n">
         <v>24</v>
       </c>
       <c r="C285" s="66"/>
-      <c r="D285" s="156"/>
+      <c r="D285" s="159"/>
       <c r="E285" s="68"/>
       <c r="F285" s="68"/>
       <c r="G285" s="68"/>
       <c r="H285" s="68"/>
       <c r="I285" s="68"/>
       <c r="J285" s="68"/>
-      <c r="K285" s="156"/>
+      <c r="K285" s="159"/>
       <c r="L285" s="68"/>
       <c r="M285" s="68"/>
       <c r="N285" s="69"/>
@@ -7781,8 +8657,8 @@
       <c r="V285" s="68"/>
       <c r="W285" s="68"/>
       <c r="X285" s="70"/>
-      <c r="Y285" s="157"/>
-      <c r="Z285" s="158"/>
+      <c r="Y285" s="160"/>
+      <c r="Z285" s="161"/>
       <c r="AB285" s="146"/>
       <c r="AC285" s="146"/>
     </row>
@@ -7842,7 +8718,7 @@
       <c r="D290" s="38"/>
       <c r="E290" s="38"/>
       <c r="F290" s="38"/>
-      <c r="G290" s="159"/>
+      <c r="G290" s="162"/>
       <c r="H290" s="36"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +8743,7 @@
       <c r="C292" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D292" s="160" t="s">
+      <c r="D292" s="163" t="s">
         <v>127</v>
       </c>
       <c r="E292" s="7" t="s">
@@ -7890,7 +8766,7 @@
       <c r="C293" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D293" s="161" t="s">
+      <c r="D293" s="164" t="s">
         <v>125</v>
       </c>
       <c r="E293" s="51" t="s">
@@ -7907,7 +8783,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="142" t="n">
+      <c r="B294" s="153" t="n">
         <v>1</v>
       </c>
       <c r="C294" s="59"/>
@@ -7918,7 +8794,7 @@
       <c r="H294" s="62"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="143" t="n">
+      <c r="B295" s="157" t="n">
         <v>2</v>
       </c>
       <c r="C295" s="59"/>
@@ -7929,7 +8805,7 @@
       <c r="H295" s="62"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="143" t="n">
+      <c r="B296" s="157" t="n">
         <v>3</v>
       </c>
       <c r="C296" s="59"/>
@@ -7940,7 +8816,7 @@
       <c r="H296" s="62"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="143" t="n">
+      <c r="B297" s="157" t="n">
         <v>4</v>
       </c>
       <c r="C297" s="59"/>
@@ -7951,7 +8827,7 @@
       <c r="H297" s="62"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="143" t="n">
+      <c r="B298" s="157" t="n">
         <v>5</v>
       </c>
       <c r="C298" s="59"/>
@@ -7962,7 +8838,7 @@
       <c r="H298" s="62"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="143" t="n">
+      <c r="B299" s="157" t="n">
         <v>6</v>
       </c>
       <c r="C299" s="59"/>
@@ -7973,7 +8849,7 @@
       <c r="H299" s="62"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="143" t="n">
+      <c r="B300" s="157" t="n">
         <v>7</v>
       </c>
       <c r="C300" s="59"/>
@@ -7984,7 +8860,7 @@
       <c r="H300" s="62"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="143" t="n">
+      <c r="B301" s="157" t="n">
         <v>8</v>
       </c>
       <c r="C301" s="59"/>
@@ -7995,7 +8871,7 @@
       <c r="H301" s="62"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="143" t="n">
+      <c r="B302" s="157" t="n">
         <v>9</v>
       </c>
       <c r="C302" s="59"/>
@@ -8006,7 +8882,7 @@
       <c r="H302" s="62"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="143" t="n">
+      <c r="B303" s="157" t="n">
         <v>10</v>
       </c>
       <c r="C303" s="59"/>
@@ -8017,7 +8893,7 @@
       <c r="H303" s="62"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="143" t="n">
+      <c r="B304" s="157" t="n">
         <v>11</v>
       </c>
       <c r="C304" s="59"/>
@@ -8028,7 +8904,7 @@
       <c r="H304" s="62"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="143" t="n">
+      <c r="B305" s="157" t="n">
         <v>12</v>
       </c>
       <c r="C305" s="59"/>
@@ -8039,7 +8915,7 @@
       <c r="H305" s="62"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="143" t="n">
+      <c r="B306" s="157" t="n">
         <v>13</v>
       </c>
       <c r="C306" s="59"/>
@@ -8050,7 +8926,7 @@
       <c r="H306" s="62"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="143" t="n">
+      <c r="B307" s="157" t="n">
         <v>14</v>
       </c>
       <c r="C307" s="59"/>
@@ -8061,7 +8937,7 @@
       <c r="H307" s="62"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="143" t="n">
+      <c r="B308" s="157" t="n">
         <v>15</v>
       </c>
       <c r="C308" s="59"/>
@@ -8072,7 +8948,7 @@
       <c r="H308" s="62"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="143" t="n">
+      <c r="B309" s="157" t="n">
         <v>16</v>
       </c>
       <c r="C309" s="59"/>
@@ -8083,7 +8959,7 @@
       <c r="H309" s="62"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="143" t="n">
+      <c r="B310" s="157" t="n">
         <v>17</v>
       </c>
       <c r="C310" s="59"/>
@@ -8094,7 +8970,7 @@
       <c r="H310" s="62"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="143" t="n">
+      <c r="B311" s="157" t="n">
         <v>18</v>
       </c>
       <c r="C311" s="59"/>
@@ -8105,7 +8981,7 @@
       <c r="H311" s="62"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="143" t="n">
+      <c r="B312" s="157" t="n">
         <v>19</v>
       </c>
       <c r="C312" s="59"/>
@@ -8116,7 +8992,7 @@
       <c r="H312" s="62"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="143" t="n">
+      <c r="B313" s="157" t="n">
         <v>20</v>
       </c>
       <c r="C313" s="59"/>
@@ -8127,7 +9003,7 @@
       <c r="H313" s="62"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="143" t="n">
+      <c r="B314" s="157" t="n">
         <v>21</v>
       </c>
       <c r="C314" s="59"/>
@@ -8138,7 +9014,7 @@
       <c r="H314" s="62"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="143" t="n">
+      <c r="B315" s="157" t="n">
         <v>22</v>
       </c>
       <c r="C315" s="59"/>
@@ -8149,7 +9025,7 @@
       <c r="H315" s="62"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="143" t="n">
+      <c r="B316" s="157" t="n">
         <v>23</v>
       </c>
       <c r="C316" s="59"/>
@@ -8160,7 +9036,7 @@
       <c r="H316" s="62"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="144" t="n">
+      <c r="B317" s="158" t="n">
         <v>24</v>
       </c>
       <c r="C317" s="66"/>
@@ -9750,169 +10626,169 @@
       <c r="P491" s="13"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="162"/>
-      <c r="C492" s="163"/>
-      <c r="D492" s="163"/>
-      <c r="E492" s="163"/>
-      <c r="F492" s="163"/>
-      <c r="G492" s="163"/>
-      <c r="H492" s="163"/>
-      <c r="I492" s="163"/>
-      <c r="J492" s="163"/>
-      <c r="K492" s="163"/>
-      <c r="L492" s="163"/>
-      <c r="M492" s="163"/>
-      <c r="N492" s="163"/>
-      <c r="O492" s="163"/>
-      <c r="P492" s="163"/>
+      <c r="B492" s="165"/>
+      <c r="C492" s="166"/>
+      <c r="D492" s="166"/>
+      <c r="E492" s="166"/>
+      <c r="F492" s="166"/>
+      <c r="G492" s="166"/>
+      <c r="H492" s="166"/>
+      <c r="I492" s="166"/>
+      <c r="J492" s="166"/>
+      <c r="K492" s="166"/>
+      <c r="L492" s="166"/>
+      <c r="M492" s="166"/>
+      <c r="N492" s="166"/>
+      <c r="O492" s="166"/>
+      <c r="P492" s="166"/>
       <c r="Q492" s="146"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="163"/>
-      <c r="C493" s="163"/>
-      <c r="D493" s="163"/>
-      <c r="E493" s="163"/>
-      <c r="F493" s="163"/>
-      <c r="G493" s="163"/>
-      <c r="H493" s="163"/>
-      <c r="I493" s="163"/>
-      <c r="J493" s="163"/>
-      <c r="K493" s="163"/>
-      <c r="L493" s="163"/>
-      <c r="M493" s="163"/>
-      <c r="N493" s="163"/>
-      <c r="O493" s="163"/>
-      <c r="P493" s="163"/>
+      <c r="B493" s="166"/>
+      <c r="C493" s="166"/>
+      <c r="D493" s="166"/>
+      <c r="E493" s="166"/>
+      <c r="F493" s="166"/>
+      <c r="G493" s="166"/>
+      <c r="H493" s="166"/>
+      <c r="I493" s="166"/>
+      <c r="J493" s="166"/>
+      <c r="K493" s="166"/>
+      <c r="L493" s="166"/>
+      <c r="M493" s="166"/>
+      <c r="N493" s="166"/>
+      <c r="O493" s="166"/>
+      <c r="P493" s="166"/>
       <c r="Q493" s="146"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="163"/>
-      <c r="C494" s="163"/>
-      <c r="D494" s="163"/>
-      <c r="E494" s="163"/>
-      <c r="F494" s="163"/>
-      <c r="G494" s="163"/>
-      <c r="H494" s="163"/>
-      <c r="I494" s="163"/>
-      <c r="J494" s="163"/>
-      <c r="K494" s="163"/>
-      <c r="L494" s="163"/>
-      <c r="M494" s="163"/>
-      <c r="N494" s="163"/>
-      <c r="O494" s="163"/>
-      <c r="P494" s="163"/>
+      <c r="B494" s="166"/>
+      <c r="C494" s="166"/>
+      <c r="D494" s="166"/>
+      <c r="E494" s="166"/>
+      <c r="F494" s="166"/>
+      <c r="G494" s="166"/>
+      <c r="H494" s="166"/>
+      <c r="I494" s="166"/>
+      <c r="J494" s="166"/>
+      <c r="K494" s="166"/>
+      <c r="L494" s="166"/>
+      <c r="M494" s="166"/>
+      <c r="N494" s="166"/>
+      <c r="O494" s="166"/>
+      <c r="P494" s="166"/>
       <c r="Q494" s="146"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="162"/>
-      <c r="C495" s="163"/>
-      <c r="D495" s="163"/>
-      <c r="E495" s="163"/>
-      <c r="F495" s="163"/>
-      <c r="G495" s="163"/>
-      <c r="H495" s="163"/>
-      <c r="I495" s="163"/>
-      <c r="J495" s="163"/>
-      <c r="K495" s="163"/>
-      <c r="L495" s="163"/>
-      <c r="M495" s="163"/>
-      <c r="N495" s="163"/>
-      <c r="O495" s="163"/>
-      <c r="P495" s="163"/>
+      <c r="B495" s="165"/>
+      <c r="C495" s="166"/>
+      <c r="D495" s="166"/>
+      <c r="E495" s="166"/>
+      <c r="F495" s="166"/>
+      <c r="G495" s="166"/>
+      <c r="H495" s="166"/>
+      <c r="I495" s="166"/>
+      <c r="J495" s="166"/>
+      <c r="K495" s="166"/>
+      <c r="L495" s="166"/>
+      <c r="M495" s="166"/>
+      <c r="N495" s="166"/>
+      <c r="O495" s="166"/>
+      <c r="P495" s="166"/>
       <c r="Q495" s="146"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="163"/>
-      <c r="C496" s="163"/>
-      <c r="D496" s="163"/>
-      <c r="E496" s="163"/>
-      <c r="F496" s="163"/>
-      <c r="G496" s="163"/>
-      <c r="H496" s="163"/>
-      <c r="I496" s="163"/>
+      <c r="B496" s="166"/>
+      <c r="C496" s="166"/>
+      <c r="D496" s="166"/>
+      <c r="E496" s="166"/>
+      <c r="F496" s="166"/>
+      <c r="G496" s="166"/>
+      <c r="H496" s="166"/>
+      <c r="I496" s="166"/>
       <c r="J496" s="146"/>
-      <c r="K496" s="164"/>
+      <c r="K496" s="167"/>
       <c r="L496" s="146"/>
-      <c r="M496" s="163"/>
-      <c r="N496" s="163"/>
-      <c r="O496" s="163"/>
-      <c r="P496" s="163"/>
+      <c r="M496" s="166"/>
+      <c r="N496" s="166"/>
+      <c r="O496" s="166"/>
+      <c r="P496" s="166"/>
       <c r="Q496" s="146"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="163"/>
-      <c r="C497" s="163"/>
-      <c r="D497" s="163"/>
-      <c r="E497" s="163"/>
-      <c r="F497" s="163"/>
-      <c r="G497" s="163"/>
-      <c r="H497" s="163"/>
+      <c r="B497" s="166"/>
+      <c r="C497" s="166"/>
+      <c r="D497" s="166"/>
+      <c r="E497" s="166"/>
+      <c r="F497" s="166"/>
+      <c r="G497" s="166"/>
+      <c r="H497" s="166"/>
       <c r="I497" s="146"/>
-      <c r="J497" s="163"/>
-      <c r="K497" s="165"/>
+      <c r="J497" s="166"/>
+      <c r="K497" s="168"/>
       <c r="L497" s="146"/>
-      <c r="M497" s="163"/>
-      <c r="N497" s="163"/>
-      <c r="O497" s="163"/>
-      <c r="P497" s="163"/>
+      <c r="M497" s="166"/>
+      <c r="N497" s="166"/>
+      <c r="O497" s="166"/>
+      <c r="P497" s="166"/>
       <c r="Q497" s="146"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="162"/>
-      <c r="C498" s="166"/>
-      <c r="D498" s="162"/>
-      <c r="E498" s="162"/>
-      <c r="F498" s="162"/>
-      <c r="G498" s="162"/>
-      <c r="H498" s="162"/>
-      <c r="I498" s="163"/>
-      <c r="J498" s="163"/>
-      <c r="K498" s="162"/>
-      <c r="L498" s="162"/>
-      <c r="M498" s="162"/>
-      <c r="N498" s="162"/>
-      <c r="O498" s="162"/>
-      <c r="P498" s="162"/>
-      <c r="Q498" s="167"/>
+      <c r="B498" s="165"/>
+      <c r="C498" s="169"/>
+      <c r="D498" s="165"/>
+      <c r="E498" s="165"/>
+      <c r="F498" s="165"/>
+      <c r="G498" s="165"/>
+      <c r="H498" s="165"/>
+      <c r="I498" s="166"/>
+      <c r="J498" s="166"/>
+      <c r="K498" s="165"/>
+      <c r="L498" s="165"/>
+      <c r="M498" s="165"/>
+      <c r="N498" s="165"/>
+      <c r="O498" s="165"/>
+      <c r="P498" s="165"/>
+      <c r="Q498" s="170"/>
       <c r="R498" s="33"/>
-      <c r="S498" s="168"/>
-      <c r="T498" s="168"/>
+      <c r="S498" s="171"/>
+      <c r="T498" s="171"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="163"/>
-      <c r="C499" s="163"/>
-      <c r="D499" s="163"/>
-      <c r="E499" s="163"/>
-      <c r="F499" s="163"/>
-      <c r="G499" s="163"/>
-      <c r="H499" s="163"/>
-      <c r="I499" s="162"/>
-      <c r="J499" s="166"/>
-      <c r="K499" s="163"/>
-      <c r="L499" s="162"/>
-      <c r="M499" s="166"/>
-      <c r="N499" s="163"/>
-      <c r="O499" s="163"/>
-      <c r="P499" s="163"/>
+      <c r="B499" s="166"/>
+      <c r="C499" s="166"/>
+      <c r="D499" s="166"/>
+      <c r="E499" s="166"/>
+      <c r="F499" s="166"/>
+      <c r="G499" s="166"/>
+      <c r="H499" s="166"/>
+      <c r="I499" s="165"/>
+      <c r="J499" s="169"/>
+      <c r="K499" s="166"/>
+      <c r="L499" s="165"/>
+      <c r="M499" s="169"/>
+      <c r="N499" s="166"/>
+      <c r="O499" s="166"/>
+      <c r="P499" s="166"/>
       <c r="Q499" s="146"/>
       <c r="R499" s="1"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="163"/>
-      <c r="C500" s="169"/>
-      <c r="D500" s="169"/>
-      <c r="E500" s="169"/>
-      <c r="F500" s="169"/>
-      <c r="G500" s="169"/>
-      <c r="H500" s="169"/>
-      <c r="I500" s="163"/>
-      <c r="J500" s="169"/>
-      <c r="K500" s="169"/>
-      <c r="L500" s="163"/>
-      <c r="M500" s="169"/>
-      <c r="N500" s="163"/>
-      <c r="O500" s="163"/>
-      <c r="P500" s="163"/>
+      <c r="B500" s="166"/>
+      <c r="C500" s="172"/>
+      <c r="D500" s="172"/>
+      <c r="E500" s="172"/>
+      <c r="F500" s="172"/>
+      <c r="G500" s="172"/>
+      <c r="H500" s="172"/>
+      <c r="I500" s="166"/>
+      <c r="J500" s="172"/>
+      <c r="K500" s="172"/>
+      <c r="L500" s="166"/>
+      <c r="M500" s="172"/>
+      <c r="N500" s="166"/>
+      <c r="O500" s="166"/>
+      <c r="P500" s="166"/>
       <c r="Q500" s="146"/>
       <c r="S500" s="7"/>
       <c r="T500" s="7"/>
@@ -9920,21 +10796,21 @@
       <c r="V500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="163"/>
-      <c r="C501" s="170"/>
-      <c r="D501" s="169"/>
-      <c r="E501" s="169"/>
-      <c r="F501" s="169"/>
-      <c r="G501" s="169"/>
-      <c r="H501" s="169"/>
-      <c r="I501" s="163"/>
-      <c r="J501" s="171"/>
-      <c r="K501" s="169"/>
-      <c r="L501" s="163"/>
-      <c r="M501" s="171"/>
-      <c r="N501" s="163"/>
-      <c r="O501" s="163"/>
-      <c r="P501" s="163"/>
+      <c r="B501" s="166"/>
+      <c r="C501" s="173"/>
+      <c r="D501" s="172"/>
+      <c r="E501" s="172"/>
+      <c r="F501" s="172"/>
+      <c r="G501" s="172"/>
+      <c r="H501" s="172"/>
+      <c r="I501" s="166"/>
+      <c r="J501" s="174"/>
+      <c r="K501" s="172"/>
+      <c r="L501" s="166"/>
+      <c r="M501" s="174"/>
+      <c r="N501" s="166"/>
+      <c r="O501" s="166"/>
+      <c r="P501" s="166"/>
       <c r="Q501" s="146"/>
       <c r="R501" s="1"/>
       <c r="S501" s="7"/>
@@ -9943,21 +10819,21 @@
       <c r="V501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="163"/>
-      <c r="C502" s="170"/>
-      <c r="D502" s="169"/>
-      <c r="E502" s="169"/>
-      <c r="F502" s="169"/>
-      <c r="G502" s="169"/>
-      <c r="H502" s="169"/>
-      <c r="I502" s="163"/>
-      <c r="J502" s="170"/>
-      <c r="K502" s="169"/>
-      <c r="L502" s="169"/>
-      <c r="M502" s="169"/>
-      <c r="N502" s="163"/>
-      <c r="O502" s="163"/>
-      <c r="P502" s="163"/>
+      <c r="B502" s="166"/>
+      <c r="C502" s="173"/>
+      <c r="D502" s="172"/>
+      <c r="E502" s="172"/>
+      <c r="F502" s="172"/>
+      <c r="G502" s="172"/>
+      <c r="H502" s="172"/>
+      <c r="I502" s="166"/>
+      <c r="J502" s="173"/>
+      <c r="K502" s="172"/>
+      <c r="L502" s="172"/>
+      <c r="M502" s="172"/>
+      <c r="N502" s="166"/>
+      <c r="O502" s="166"/>
+      <c r="P502" s="166"/>
       <c r="Q502" s="146"/>
       <c r="R502" s="1"/>
       <c r="S502" s="7"/>
@@ -9966,21 +10842,21 @@
       <c r="V502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="163"/>
-      <c r="C503" s="170"/>
-      <c r="D503" s="169"/>
-      <c r="E503" s="169"/>
-      <c r="F503" s="169"/>
-      <c r="G503" s="169"/>
-      <c r="H503" s="169"/>
-      <c r="I503" s="163"/>
-      <c r="J503" s="170"/>
-      <c r="K503" s="169"/>
-      <c r="L503" s="169"/>
-      <c r="M503" s="169"/>
-      <c r="N503" s="163"/>
-      <c r="O503" s="163"/>
-      <c r="P503" s="163"/>
+      <c r="B503" s="166"/>
+      <c r="C503" s="173"/>
+      <c r="D503" s="172"/>
+      <c r="E503" s="172"/>
+      <c r="F503" s="172"/>
+      <c r="G503" s="172"/>
+      <c r="H503" s="172"/>
+      <c r="I503" s="166"/>
+      <c r="J503" s="173"/>
+      <c r="K503" s="172"/>
+      <c r="L503" s="172"/>
+      <c r="M503" s="172"/>
+      <c r="N503" s="166"/>
+      <c r="O503" s="166"/>
+      <c r="P503" s="166"/>
       <c r="Q503" s="146"/>
       <c r="R503" s="1"/>
       <c r="S503" s="7"/>
@@ -9989,21 +10865,21 @@
       <c r="V503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="163"/>
-      <c r="C504" s="170"/>
-      <c r="D504" s="169"/>
-      <c r="E504" s="169"/>
-      <c r="F504" s="169"/>
-      <c r="G504" s="169"/>
-      <c r="H504" s="169"/>
-      <c r="I504" s="163"/>
-      <c r="J504" s="170"/>
-      <c r="K504" s="169"/>
-      <c r="L504" s="169"/>
-      <c r="M504" s="169"/>
-      <c r="N504" s="163"/>
-      <c r="O504" s="163"/>
-      <c r="P504" s="163"/>
+      <c r="B504" s="166"/>
+      <c r="C504" s="173"/>
+      <c r="D504" s="172"/>
+      <c r="E504" s="172"/>
+      <c r="F504" s="172"/>
+      <c r="G504" s="172"/>
+      <c r="H504" s="172"/>
+      <c r="I504" s="166"/>
+      <c r="J504" s="173"/>
+      <c r="K504" s="172"/>
+      <c r="L504" s="172"/>
+      <c r="M504" s="172"/>
+      <c r="N504" s="166"/>
+      <c r="O504" s="166"/>
+      <c r="P504" s="166"/>
       <c r="Q504" s="146"/>
       <c r="R504" s="1"/>
       <c r="S504" s="7"/>
@@ -10012,21 +10888,21 @@
       <c r="V504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="163"/>
-      <c r="C505" s="170"/>
-      <c r="D505" s="169"/>
-      <c r="E505" s="169"/>
-      <c r="F505" s="169"/>
-      <c r="G505" s="169"/>
-      <c r="H505" s="169"/>
-      <c r="I505" s="163"/>
-      <c r="J505" s="170"/>
-      <c r="K505" s="169"/>
-      <c r="L505" s="169"/>
-      <c r="M505" s="169"/>
-      <c r="N505" s="163"/>
-      <c r="O505" s="163"/>
-      <c r="P505" s="163"/>
+      <c r="B505" s="166"/>
+      <c r="C505" s="173"/>
+      <c r="D505" s="172"/>
+      <c r="E505" s="172"/>
+      <c r="F505" s="172"/>
+      <c r="G505" s="172"/>
+      <c r="H505" s="172"/>
+      <c r="I505" s="166"/>
+      <c r="J505" s="173"/>
+      <c r="K505" s="172"/>
+      <c r="L505" s="172"/>
+      <c r="M505" s="172"/>
+      <c r="N505" s="166"/>
+      <c r="O505" s="166"/>
+      <c r="P505" s="166"/>
       <c r="Q505" s="146"/>
       <c r="R505" s="1"/>
       <c r="S505" s="7"/>
@@ -10035,21 +10911,21 @@
       <c r="V505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="163"/>
-      <c r="C506" s="170"/>
-      <c r="D506" s="169"/>
-      <c r="E506" s="169"/>
-      <c r="F506" s="169"/>
-      <c r="G506" s="169"/>
-      <c r="H506" s="169"/>
-      <c r="I506" s="163"/>
-      <c r="J506" s="170"/>
-      <c r="K506" s="169"/>
-      <c r="L506" s="169"/>
-      <c r="M506" s="169"/>
-      <c r="N506" s="163"/>
-      <c r="O506" s="163"/>
-      <c r="P506" s="163"/>
+      <c r="B506" s="166"/>
+      <c r="C506" s="173"/>
+      <c r="D506" s="172"/>
+      <c r="E506" s="172"/>
+      <c r="F506" s="172"/>
+      <c r="G506" s="172"/>
+      <c r="H506" s="172"/>
+      <c r="I506" s="166"/>
+      <c r="J506" s="173"/>
+      <c r="K506" s="172"/>
+      <c r="L506" s="172"/>
+      <c r="M506" s="172"/>
+      <c r="N506" s="166"/>
+      <c r="O506" s="166"/>
+      <c r="P506" s="166"/>
       <c r="Q506" s="146"/>
       <c r="R506" s="1"/>
       <c r="S506" s="7"/>
@@ -10058,21 +10934,21 @@
       <c r="V506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="163"/>
-      <c r="C507" s="170"/>
-      <c r="D507" s="169"/>
-      <c r="E507" s="169"/>
-      <c r="F507" s="169"/>
-      <c r="G507" s="169"/>
-      <c r="H507" s="169"/>
-      <c r="I507" s="163"/>
-      <c r="J507" s="170"/>
-      <c r="K507" s="169"/>
-      <c r="L507" s="169"/>
-      <c r="M507" s="169"/>
-      <c r="N507" s="163"/>
-      <c r="O507" s="163"/>
-      <c r="P507" s="163"/>
+      <c r="B507" s="166"/>
+      <c r="C507" s="173"/>
+      <c r="D507" s="172"/>
+      <c r="E507" s="172"/>
+      <c r="F507" s="172"/>
+      <c r="G507" s="172"/>
+      <c r="H507" s="172"/>
+      <c r="I507" s="166"/>
+      <c r="J507" s="173"/>
+      <c r="K507" s="172"/>
+      <c r="L507" s="172"/>
+      <c r="M507" s="172"/>
+      <c r="N507" s="166"/>
+      <c r="O507" s="166"/>
+      <c r="P507" s="166"/>
       <c r="Q507" s="146"/>
       <c r="R507" s="1"/>
       <c r="S507" s="7"/>
@@ -10081,21 +10957,21 @@
       <c r="V507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="163"/>
-      <c r="C508" s="169"/>
-      <c r="D508" s="169"/>
-      <c r="E508" s="169"/>
-      <c r="F508" s="169"/>
-      <c r="G508" s="169"/>
-      <c r="H508" s="169"/>
-      <c r="I508" s="163"/>
-      <c r="J508" s="169"/>
-      <c r="K508" s="169"/>
-      <c r="L508" s="169"/>
-      <c r="M508" s="169"/>
-      <c r="N508" s="163"/>
-      <c r="O508" s="163"/>
-      <c r="P508" s="163"/>
+      <c r="B508" s="166"/>
+      <c r="C508" s="172"/>
+      <c r="D508" s="172"/>
+      <c r="E508" s="172"/>
+      <c r="F508" s="172"/>
+      <c r="G508" s="172"/>
+      <c r="H508" s="172"/>
+      <c r="I508" s="166"/>
+      <c r="J508" s="172"/>
+      <c r="K508" s="172"/>
+      <c r="L508" s="172"/>
+      <c r="M508" s="172"/>
+      <c r="N508" s="166"/>
+      <c r="O508" s="166"/>
+      <c r="P508" s="166"/>
       <c r="Q508" s="146"/>
       <c r="R508" s="1"/>
       <c r="S508" s="7"/>
@@ -10104,21 +10980,21 @@
       <c r="V508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="163"/>
-      <c r="C509" s="169"/>
-      <c r="D509" s="169"/>
-      <c r="E509" s="169"/>
-      <c r="F509" s="169"/>
-      <c r="G509" s="169"/>
-      <c r="H509" s="169"/>
-      <c r="I509" s="163"/>
-      <c r="J509" s="169"/>
-      <c r="K509" s="169"/>
-      <c r="L509" s="169"/>
-      <c r="M509" s="169"/>
-      <c r="N509" s="163"/>
-      <c r="O509" s="163"/>
-      <c r="P509" s="163"/>
+      <c r="B509" s="166"/>
+      <c r="C509" s="172"/>
+      <c r="D509" s="172"/>
+      <c r="E509" s="172"/>
+      <c r="F509" s="172"/>
+      <c r="G509" s="172"/>
+      <c r="H509" s="172"/>
+      <c r="I509" s="166"/>
+      <c r="J509" s="172"/>
+      <c r="K509" s="172"/>
+      <c r="L509" s="172"/>
+      <c r="M509" s="172"/>
+      <c r="N509" s="166"/>
+      <c r="O509" s="166"/>
+      <c r="P509" s="166"/>
       <c r="Q509" s="146"/>
       <c r="R509" s="1"/>
       <c r="S509" s="7"/>
@@ -10127,43 +11003,43 @@
       <c r="V509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="163"/>
-      <c r="C510" s="169"/>
-      <c r="D510" s="169"/>
-      <c r="E510" s="169"/>
-      <c r="F510" s="169"/>
-      <c r="G510" s="169"/>
-      <c r="H510" s="169"/>
-      <c r="I510" s="163"/>
-      <c r="J510" s="169"/>
-      <c r="K510" s="169"/>
-      <c r="L510" s="169"/>
-      <c r="M510" s="169"/>
-      <c r="N510" s="169"/>
-      <c r="O510" s="163"/>
-      <c r="P510" s="163"/>
+      <c r="B510" s="166"/>
+      <c r="C510" s="172"/>
+      <c r="D510" s="172"/>
+      <c r="E510" s="172"/>
+      <c r="F510" s="172"/>
+      <c r="G510" s="172"/>
+      <c r="H510" s="172"/>
+      <c r="I510" s="166"/>
+      <c r="J510" s="172"/>
+      <c r="K510" s="172"/>
+      <c r="L510" s="172"/>
+      <c r="M510" s="172"/>
+      <c r="N510" s="172"/>
+      <c r="O510" s="166"/>
+      <c r="P510" s="166"/>
       <c r="Q510" s="146"/>
       <c r="S510" s="7"/>
       <c r="T510" s="7"/>
-      <c r="U510" s="172"/>
+      <c r="U510" s="175"/>
       <c r="V510" s="44"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="163"/>
-      <c r="C511" s="170"/>
-      <c r="D511" s="170"/>
-      <c r="E511" s="170"/>
-      <c r="F511" s="170"/>
-      <c r="G511" s="169"/>
-      <c r="H511" s="169"/>
-      <c r="I511" s="163"/>
-      <c r="J511" s="169"/>
-      <c r="K511" s="169"/>
-      <c r="L511" s="169"/>
-      <c r="M511" s="169"/>
-      <c r="N511" s="163"/>
-      <c r="O511" s="163"/>
-      <c r="P511" s="163"/>
+      <c r="B511" s="166"/>
+      <c r="C511" s="173"/>
+      <c r="D511" s="173"/>
+      <c r="E511" s="173"/>
+      <c r="F511" s="173"/>
+      <c r="G511" s="172"/>
+      <c r="H511" s="172"/>
+      <c r="I511" s="166"/>
+      <c r="J511" s="172"/>
+      <c r="K511" s="172"/>
+      <c r="L511" s="172"/>
+      <c r="M511" s="172"/>
+      <c r="N511" s="166"/>
+      <c r="O511" s="166"/>
+      <c r="P511" s="166"/>
       <c r="Q511" s="146"/>
       <c r="R511" s="1"/>
       <c r="S511" s="7"/>
@@ -10172,21 +11048,21 @@
       <c r="V511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="163"/>
-      <c r="C512" s="170"/>
-      <c r="D512" s="170"/>
-      <c r="E512" s="170"/>
-      <c r="F512" s="170"/>
-      <c r="G512" s="169"/>
-      <c r="H512" s="169"/>
-      <c r="I512" s="163"/>
-      <c r="J512" s="169"/>
-      <c r="K512" s="169"/>
-      <c r="L512" s="169"/>
-      <c r="M512" s="169"/>
-      <c r="N512" s="163"/>
-      <c r="O512" s="163"/>
-      <c r="P512" s="163"/>
+      <c r="B512" s="166"/>
+      <c r="C512" s="173"/>
+      <c r="D512" s="173"/>
+      <c r="E512" s="173"/>
+      <c r="F512" s="173"/>
+      <c r="G512" s="172"/>
+      <c r="H512" s="172"/>
+      <c r="I512" s="166"/>
+      <c r="J512" s="172"/>
+      <c r="K512" s="172"/>
+      <c r="L512" s="172"/>
+      <c r="M512" s="172"/>
+      <c r="N512" s="166"/>
+      <c r="O512" s="166"/>
+      <c r="P512" s="166"/>
       <c r="Q512" s="146"/>
       <c r="R512" s="1"/>
       <c r="S512" s="7"/>
@@ -10195,21 +11071,21 @@
       <c r="V512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="163"/>
-      <c r="C513" s="170"/>
-      <c r="D513" s="170"/>
-      <c r="E513" s="170"/>
-      <c r="F513" s="170"/>
-      <c r="G513" s="169"/>
-      <c r="H513" s="169"/>
-      <c r="I513" s="163"/>
-      <c r="J513" s="169"/>
-      <c r="K513" s="169"/>
-      <c r="L513" s="169"/>
-      <c r="M513" s="169"/>
-      <c r="N513" s="163"/>
-      <c r="O513" s="163"/>
-      <c r="P513" s="163"/>
+      <c r="B513" s="166"/>
+      <c r="C513" s="173"/>
+      <c r="D513" s="173"/>
+      <c r="E513" s="173"/>
+      <c r="F513" s="173"/>
+      <c r="G513" s="172"/>
+      <c r="H513" s="172"/>
+      <c r="I513" s="166"/>
+      <c r="J513" s="172"/>
+      <c r="K513" s="172"/>
+      <c r="L513" s="172"/>
+      <c r="M513" s="172"/>
+      <c r="N513" s="166"/>
+      <c r="O513" s="166"/>
+      <c r="P513" s="166"/>
       <c r="Q513" s="146"/>
       <c r="R513" s="1"/>
       <c r="S513" s="7"/>
@@ -10218,21 +11094,21 @@
       <c r="V513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="163"/>
-      <c r="C514" s="170"/>
-      <c r="D514" s="170"/>
-      <c r="E514" s="170"/>
-      <c r="F514" s="170"/>
-      <c r="G514" s="169"/>
-      <c r="H514" s="169"/>
-      <c r="I514" s="163"/>
-      <c r="J514" s="169"/>
-      <c r="K514" s="169"/>
-      <c r="L514" s="169"/>
-      <c r="M514" s="169"/>
-      <c r="N514" s="163"/>
-      <c r="O514" s="163"/>
-      <c r="P514" s="163"/>
+      <c r="B514" s="166"/>
+      <c r="C514" s="173"/>
+      <c r="D514" s="173"/>
+      <c r="E514" s="173"/>
+      <c r="F514" s="173"/>
+      <c r="G514" s="172"/>
+      <c r="H514" s="172"/>
+      <c r="I514" s="166"/>
+      <c r="J514" s="172"/>
+      <c r="K514" s="172"/>
+      <c r="L514" s="172"/>
+      <c r="M514" s="172"/>
+      <c r="N514" s="166"/>
+      <c r="O514" s="166"/>
+      <c r="P514" s="166"/>
       <c r="Q514" s="146"/>
       <c r="R514" s="1"/>
       <c r="S514" s="7"/>
@@ -10241,21 +11117,21 @@
       <c r="V514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="163"/>
-      <c r="C515" s="170"/>
-      <c r="D515" s="170"/>
-      <c r="E515" s="170"/>
-      <c r="F515" s="170"/>
-      <c r="G515" s="169"/>
-      <c r="H515" s="169"/>
-      <c r="I515" s="163"/>
-      <c r="J515" s="169"/>
-      <c r="K515" s="169"/>
-      <c r="L515" s="169"/>
-      <c r="M515" s="169"/>
-      <c r="N515" s="163"/>
-      <c r="O515" s="163"/>
-      <c r="P515" s="163"/>
+      <c r="B515" s="166"/>
+      <c r="C515" s="173"/>
+      <c r="D515" s="173"/>
+      <c r="E515" s="173"/>
+      <c r="F515" s="173"/>
+      <c r="G515" s="172"/>
+      <c r="H515" s="172"/>
+      <c r="I515" s="166"/>
+      <c r="J515" s="172"/>
+      <c r="K515" s="172"/>
+      <c r="L515" s="172"/>
+      <c r="M515" s="172"/>
+      <c r="N515" s="166"/>
+      <c r="O515" s="166"/>
+      <c r="P515" s="166"/>
       <c r="Q515" s="146"/>
       <c r="R515" s="1"/>
       <c r="S515" s="7"/>
@@ -10264,21 +11140,21 @@
       <c r="V515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="163"/>
-      <c r="C516" s="170"/>
-      <c r="D516" s="170"/>
-      <c r="E516" s="170"/>
-      <c r="F516" s="170"/>
-      <c r="G516" s="169"/>
-      <c r="H516" s="169"/>
-      <c r="I516" s="163"/>
-      <c r="J516" s="169"/>
-      <c r="K516" s="169"/>
-      <c r="L516" s="169"/>
-      <c r="M516" s="169"/>
-      <c r="N516" s="163"/>
-      <c r="O516" s="163"/>
-      <c r="P516" s="163"/>
+      <c r="B516" s="166"/>
+      <c r="C516" s="173"/>
+      <c r="D516" s="173"/>
+      <c r="E516" s="173"/>
+      <c r="F516" s="173"/>
+      <c r="G516" s="172"/>
+      <c r="H516" s="172"/>
+      <c r="I516" s="166"/>
+      <c r="J516" s="172"/>
+      <c r="K516" s="172"/>
+      <c r="L516" s="172"/>
+      <c r="M516" s="172"/>
+      <c r="N516" s="166"/>
+      <c r="O516" s="166"/>
+      <c r="P516" s="166"/>
       <c r="Q516" s="146"/>
       <c r="R516" s="1"/>
       <c r="S516" s="7"/>
@@ -10287,21 +11163,21 @@
       <c r="V516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="163"/>
-      <c r="C517" s="170"/>
-      <c r="D517" s="170"/>
-      <c r="E517" s="170"/>
-      <c r="F517" s="170"/>
-      <c r="G517" s="169"/>
-      <c r="H517" s="169"/>
-      <c r="I517" s="163"/>
-      <c r="J517" s="169"/>
-      <c r="K517" s="169"/>
-      <c r="L517" s="169"/>
-      <c r="M517" s="169"/>
-      <c r="N517" s="163"/>
-      <c r="O517" s="163"/>
-      <c r="P517" s="163"/>
+      <c r="B517" s="166"/>
+      <c r="C517" s="173"/>
+      <c r="D517" s="173"/>
+      <c r="E517" s="173"/>
+      <c r="F517" s="173"/>
+      <c r="G517" s="172"/>
+      <c r="H517" s="172"/>
+      <c r="I517" s="166"/>
+      <c r="J517" s="172"/>
+      <c r="K517" s="172"/>
+      <c r="L517" s="172"/>
+      <c r="M517" s="172"/>
+      <c r="N517" s="166"/>
+      <c r="O517" s="166"/>
+      <c r="P517" s="166"/>
       <c r="Q517" s="146"/>
       <c r="R517" s="1"/>
       <c r="S517" s="7"/>
@@ -10310,21 +11186,21 @@
       <c r="V517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="163"/>
-      <c r="C518" s="169"/>
-      <c r="D518" s="169"/>
-      <c r="E518" s="169"/>
-      <c r="F518" s="169"/>
-      <c r="G518" s="169"/>
-      <c r="H518" s="169"/>
-      <c r="I518" s="163"/>
-      <c r="J518" s="169"/>
-      <c r="K518" s="169"/>
-      <c r="L518" s="169"/>
-      <c r="M518" s="169"/>
-      <c r="N518" s="163"/>
-      <c r="O518" s="163"/>
-      <c r="P518" s="163"/>
+      <c r="B518" s="166"/>
+      <c r="C518" s="172"/>
+      <c r="D518" s="172"/>
+      <c r="E518" s="172"/>
+      <c r="F518" s="172"/>
+      <c r="G518" s="172"/>
+      <c r="H518" s="172"/>
+      <c r="I518" s="166"/>
+      <c r="J518" s="172"/>
+      <c r="K518" s="172"/>
+      <c r="L518" s="172"/>
+      <c r="M518" s="172"/>
+      <c r="N518" s="166"/>
+      <c r="O518" s="166"/>
+      <c r="P518" s="166"/>
       <c r="Q518" s="146"/>
       <c r="S518" s="7"/>
       <c r="T518" s="7"/>
@@ -10332,21 +11208,21 @@
       <c r="V518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="163"/>
-      <c r="C519" s="169"/>
-      <c r="D519" s="169"/>
-      <c r="E519" s="169"/>
-      <c r="F519" s="169"/>
-      <c r="G519" s="169"/>
-      <c r="H519" s="169"/>
-      <c r="I519" s="163"/>
-      <c r="J519" s="169"/>
-      <c r="K519" s="169"/>
-      <c r="L519" s="169"/>
-      <c r="M519" s="169"/>
-      <c r="N519" s="163"/>
-      <c r="O519" s="163"/>
-      <c r="P519" s="163"/>
+      <c r="B519" s="166"/>
+      <c r="C519" s="172"/>
+      <c r="D519" s="172"/>
+      <c r="E519" s="172"/>
+      <c r="F519" s="172"/>
+      <c r="G519" s="172"/>
+      <c r="H519" s="172"/>
+      <c r="I519" s="166"/>
+      <c r="J519" s="172"/>
+      <c r="K519" s="172"/>
+      <c r="L519" s="172"/>
+      <c r="M519" s="172"/>
+      <c r="N519" s="166"/>
+      <c r="O519" s="166"/>
+      <c r="P519" s="166"/>
       <c r="Q519" s="146"/>
       <c r="R519" s="1"/>
       <c r="S519" s="7"/>
@@ -10355,213 +11231,213 @@
       <c r="V519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="163"/>
-      <c r="C520" s="169"/>
-      <c r="D520" s="169"/>
-      <c r="E520" s="169"/>
-      <c r="F520" s="169"/>
-      <c r="G520" s="169"/>
-      <c r="H520" s="169"/>
-      <c r="I520" s="163"/>
-      <c r="J520" s="169"/>
-      <c r="K520" s="169"/>
-      <c r="L520" s="169"/>
-      <c r="M520" s="169"/>
-      <c r="N520" s="169"/>
-      <c r="O520" s="163"/>
-      <c r="P520" s="163"/>
+      <c r="B520" s="166"/>
+      <c r="C520" s="172"/>
+      <c r="D520" s="172"/>
+      <c r="E520" s="172"/>
+      <c r="F520" s="172"/>
+      <c r="G520" s="172"/>
+      <c r="H520" s="172"/>
+      <c r="I520" s="166"/>
+      <c r="J520" s="172"/>
+      <c r="K520" s="172"/>
+      <c r="L520" s="172"/>
+      <c r="M520" s="172"/>
+      <c r="N520" s="172"/>
+      <c r="O520" s="166"/>
+      <c r="P520" s="166"/>
       <c r="Q520" s="146"/>
       <c r="S520" s="7"/>
       <c r="T520" s="7"/>
-      <c r="U520" s="172"/>
+      <c r="U520" s="175"/>
       <c r="V520" s="44"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="163"/>
-      <c r="C521" s="170"/>
-      <c r="D521" s="170"/>
-      <c r="E521" s="170"/>
-      <c r="F521" s="170"/>
-      <c r="G521" s="163"/>
-      <c r="H521" s="163"/>
-      <c r="I521" s="163"/>
-      <c r="J521" s="163"/>
-      <c r="K521" s="163"/>
-      <c r="L521" s="163"/>
-      <c r="M521" s="163"/>
-      <c r="N521" s="163"/>
-      <c r="O521" s="163"/>
-      <c r="P521" s="163"/>
+      <c r="B521" s="166"/>
+      <c r="C521" s="173"/>
+      <c r="D521" s="173"/>
+      <c r="E521" s="173"/>
+      <c r="F521" s="173"/>
+      <c r="G521" s="166"/>
+      <c r="H521" s="166"/>
+      <c r="I521" s="166"/>
+      <c r="J521" s="166"/>
+      <c r="K521" s="166"/>
+      <c r="L521" s="166"/>
+      <c r="M521" s="166"/>
+      <c r="N521" s="166"/>
+      <c r="O521" s="166"/>
+      <c r="P521" s="166"/>
       <c r="Q521" s="146"/>
       <c r="R521" s="1"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="163"/>
-      <c r="C522" s="170"/>
-      <c r="D522" s="170"/>
-      <c r="E522" s="170"/>
-      <c r="F522" s="170"/>
-      <c r="G522" s="163"/>
-      <c r="H522" s="163"/>
-      <c r="I522" s="163"/>
-      <c r="J522" s="163"/>
-      <c r="K522" s="163"/>
-      <c r="L522" s="163"/>
-      <c r="M522" s="163"/>
-      <c r="N522" s="163"/>
-      <c r="O522" s="163"/>
-      <c r="P522" s="163"/>
+      <c r="B522" s="166"/>
+      <c r="C522" s="173"/>
+      <c r="D522" s="173"/>
+      <c r="E522" s="173"/>
+      <c r="F522" s="173"/>
+      <c r="G522" s="166"/>
+      <c r="H522" s="166"/>
+      <c r="I522" s="166"/>
+      <c r="J522" s="166"/>
+      <c r="K522" s="166"/>
+      <c r="L522" s="166"/>
+      <c r="M522" s="166"/>
+      <c r="N522" s="166"/>
+      <c r="O522" s="166"/>
+      <c r="P522" s="166"/>
       <c r="Q522" s="146"/>
       <c r="R522" s="1"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="163"/>
-      <c r="C523" s="170"/>
-      <c r="D523" s="170"/>
-      <c r="E523" s="170"/>
-      <c r="F523" s="170"/>
-      <c r="G523" s="163"/>
-      <c r="H523" s="163"/>
-      <c r="I523" s="163"/>
-      <c r="J523" s="163"/>
-      <c r="K523" s="163"/>
-      <c r="L523" s="163"/>
-      <c r="M523" s="163"/>
-      <c r="N523" s="163"/>
-      <c r="O523" s="163"/>
-      <c r="P523" s="163"/>
+      <c r="B523" s="166"/>
+      <c r="C523" s="173"/>
+      <c r="D523" s="173"/>
+      <c r="E523" s="173"/>
+      <c r="F523" s="173"/>
+      <c r="G523" s="166"/>
+      <c r="H523" s="166"/>
+      <c r="I523" s="166"/>
+      <c r="J523" s="166"/>
+      <c r="K523" s="166"/>
+      <c r="L523" s="166"/>
+      <c r="M523" s="166"/>
+      <c r="N523" s="166"/>
+      <c r="O523" s="166"/>
+      <c r="P523" s="166"/>
       <c r="Q523" s="146"/>
       <c r="R523" s="1"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="163"/>
-      <c r="C524" s="170"/>
-      <c r="D524" s="170"/>
-      <c r="E524" s="170"/>
-      <c r="F524" s="170"/>
-      <c r="G524" s="163"/>
-      <c r="H524" s="163"/>
-      <c r="I524" s="163"/>
-      <c r="J524" s="163"/>
-      <c r="K524" s="163"/>
-      <c r="L524" s="163"/>
-      <c r="M524" s="163"/>
-      <c r="N524" s="163"/>
-      <c r="O524" s="163"/>
-      <c r="P524" s="163"/>
+      <c r="B524" s="166"/>
+      <c r="C524" s="173"/>
+      <c r="D524" s="173"/>
+      <c r="E524" s="173"/>
+      <c r="F524" s="173"/>
+      <c r="G524" s="166"/>
+      <c r="H524" s="166"/>
+      <c r="I524" s="166"/>
+      <c r="J524" s="166"/>
+      <c r="K524" s="166"/>
+      <c r="L524" s="166"/>
+      <c r="M524" s="166"/>
+      <c r="N524" s="166"/>
+      <c r="O524" s="166"/>
+      <c r="P524" s="166"/>
       <c r="Q524" s="146"/>
       <c r="R524" s="1"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="163"/>
-      <c r="C525" s="170"/>
-      <c r="D525" s="170"/>
-      <c r="E525" s="170"/>
-      <c r="F525" s="170"/>
-      <c r="G525" s="163"/>
-      <c r="H525" s="163"/>
-      <c r="I525" s="163"/>
-      <c r="J525" s="163"/>
-      <c r="K525" s="163"/>
-      <c r="L525" s="163"/>
-      <c r="M525" s="163"/>
-      <c r="N525" s="163"/>
-      <c r="O525" s="163"/>
-      <c r="P525" s="163"/>
+      <c r="B525" s="166"/>
+      <c r="C525" s="173"/>
+      <c r="D525" s="173"/>
+      <c r="E525" s="173"/>
+      <c r="F525" s="173"/>
+      <c r="G525" s="166"/>
+      <c r="H525" s="166"/>
+      <c r="I525" s="166"/>
+      <c r="J525" s="166"/>
+      <c r="K525" s="166"/>
+      <c r="L525" s="166"/>
+      <c r="M525" s="166"/>
+      <c r="N525" s="166"/>
+      <c r="O525" s="166"/>
+      <c r="P525" s="166"/>
       <c r="Q525" s="146"/>
       <c r="R525" s="1"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="163"/>
-      <c r="C526" s="170"/>
-      <c r="D526" s="170"/>
-      <c r="E526" s="170"/>
-      <c r="F526" s="170"/>
-      <c r="G526" s="163"/>
-      <c r="H526" s="163"/>
-      <c r="I526" s="163"/>
-      <c r="J526" s="163"/>
-      <c r="K526" s="163"/>
-      <c r="L526" s="163"/>
-      <c r="M526" s="163"/>
-      <c r="N526" s="163"/>
-      <c r="O526" s="163"/>
-      <c r="P526" s="163"/>
+      <c r="B526" s="166"/>
+      <c r="C526" s="173"/>
+      <c r="D526" s="173"/>
+      <c r="E526" s="173"/>
+      <c r="F526" s="173"/>
+      <c r="G526" s="166"/>
+      <c r="H526" s="166"/>
+      <c r="I526" s="166"/>
+      <c r="J526" s="166"/>
+      <c r="K526" s="166"/>
+      <c r="L526" s="166"/>
+      <c r="M526" s="166"/>
+      <c r="N526" s="166"/>
+      <c r="O526" s="166"/>
+      <c r="P526" s="166"/>
       <c r="Q526" s="146"/>
       <c r="R526" s="1"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="163"/>
-      <c r="C527" s="170"/>
-      <c r="D527" s="170"/>
-      <c r="E527" s="170"/>
-      <c r="F527" s="170"/>
-      <c r="G527" s="163"/>
-      <c r="H527" s="163"/>
-      <c r="I527" s="163"/>
-      <c r="J527" s="163"/>
-      <c r="K527" s="163"/>
-      <c r="L527" s="163"/>
-      <c r="M527" s="163"/>
-      <c r="N527" s="163"/>
-      <c r="O527" s="163"/>
-      <c r="P527" s="163"/>
+      <c r="B527" s="166"/>
+      <c r="C527" s="173"/>
+      <c r="D527" s="173"/>
+      <c r="E527" s="173"/>
+      <c r="F527" s="173"/>
+      <c r="G527" s="166"/>
+      <c r="H527" s="166"/>
+      <c r="I527" s="166"/>
+      <c r="J527" s="166"/>
+      <c r="K527" s="166"/>
+      <c r="L527" s="166"/>
+      <c r="M527" s="166"/>
+      <c r="N527" s="166"/>
+      <c r="O527" s="166"/>
+      <c r="P527" s="166"/>
       <c r="Q527" s="146"/>
       <c r="R527" s="1"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="163"/>
-      <c r="C528" s="163"/>
-      <c r="D528" s="163"/>
-      <c r="E528" s="163"/>
-      <c r="F528" s="163"/>
-      <c r="G528" s="163"/>
-      <c r="H528" s="163"/>
-      <c r="I528" s="163"/>
-      <c r="J528" s="163"/>
-      <c r="K528" s="163"/>
-      <c r="L528" s="163"/>
-      <c r="M528" s="163"/>
-      <c r="N528" s="163"/>
-      <c r="O528" s="163"/>
-      <c r="P528" s="163"/>
+      <c r="B528" s="166"/>
+      <c r="C528" s="166"/>
+      <c r="D528" s="166"/>
+      <c r="E528" s="166"/>
+      <c r="F528" s="166"/>
+      <c r="G528" s="166"/>
+      <c r="H528" s="166"/>
+      <c r="I528" s="166"/>
+      <c r="J528" s="166"/>
+      <c r="K528" s="166"/>
+      <c r="L528" s="166"/>
+      <c r="M528" s="166"/>
+      <c r="N528" s="166"/>
+      <c r="O528" s="166"/>
+      <c r="P528" s="166"/>
       <c r="Q528" s="146"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="163"/>
-      <c r="C529" s="163"/>
-      <c r="D529" s="163"/>
-      <c r="E529" s="163"/>
-      <c r="F529" s="163"/>
-      <c r="G529" s="163"/>
-      <c r="H529" s="163"/>
-      <c r="I529" s="162"/>
-      <c r="J529" s="166"/>
-      <c r="K529" s="163"/>
-      <c r="L529" s="162"/>
-      <c r="M529" s="166"/>
-      <c r="N529" s="163"/>
-      <c r="O529" s="163"/>
-      <c r="P529" s="163"/>
+      <c r="B529" s="166"/>
+      <c r="C529" s="166"/>
+      <c r="D529" s="166"/>
+      <c r="E529" s="166"/>
+      <c r="F529" s="166"/>
+      <c r="G529" s="166"/>
+      <c r="H529" s="166"/>
+      <c r="I529" s="165"/>
+      <c r="J529" s="169"/>
+      <c r="K529" s="166"/>
+      <c r="L529" s="165"/>
+      <c r="M529" s="169"/>
+      <c r="N529" s="166"/>
+      <c r="O529" s="166"/>
+      <c r="P529" s="166"/>
       <c r="Q529" s="146"/>
       <c r="R529" s="1"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="163"/>
-      <c r="C530" s="169"/>
-      <c r="D530" s="169"/>
-      <c r="E530" s="169"/>
-      <c r="F530" s="169"/>
-      <c r="G530" s="169"/>
-      <c r="H530" s="169"/>
-      <c r="I530" s="163"/>
-      <c r="J530" s="169"/>
-      <c r="K530" s="169"/>
-      <c r="L530" s="163"/>
-      <c r="M530" s="169"/>
-      <c r="N530" s="163"/>
-      <c r="O530" s="163"/>
-      <c r="P530" s="163"/>
+      <c r="B530" s="166"/>
+      <c r="C530" s="172"/>
+      <c r="D530" s="172"/>
+      <c r="E530" s="172"/>
+      <c r="F530" s="172"/>
+      <c r="G530" s="172"/>
+      <c r="H530" s="172"/>
+      <c r="I530" s="166"/>
+      <c r="J530" s="172"/>
+      <c r="K530" s="172"/>
+      <c r="L530" s="166"/>
+      <c r="M530" s="172"/>
+      <c r="N530" s="166"/>
+      <c r="O530" s="166"/>
+      <c r="P530" s="166"/>
       <c r="Q530" s="146"/>
       <c r="S530" s="7"/>
       <c r="T530" s="7"/>
@@ -10569,21 +11445,21 @@
       <c r="V530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="163"/>
-      <c r="C531" s="170"/>
-      <c r="D531" s="169"/>
-      <c r="E531" s="169"/>
-      <c r="F531" s="169"/>
-      <c r="G531" s="169"/>
-      <c r="H531" s="169"/>
-      <c r="I531" s="163"/>
-      <c r="J531" s="170"/>
-      <c r="K531" s="169"/>
-      <c r="L531" s="163"/>
-      <c r="M531" s="171"/>
-      <c r="N531" s="163"/>
-      <c r="O531" s="163"/>
-      <c r="P531" s="163"/>
+      <c r="B531" s="166"/>
+      <c r="C531" s="173"/>
+      <c r="D531" s="172"/>
+      <c r="E531" s="172"/>
+      <c r="F531" s="172"/>
+      <c r="G531" s="172"/>
+      <c r="H531" s="172"/>
+      <c r="I531" s="166"/>
+      <c r="J531" s="173"/>
+      <c r="K531" s="172"/>
+      <c r="L531" s="166"/>
+      <c r="M531" s="174"/>
+      <c r="N531" s="166"/>
+      <c r="O531" s="166"/>
+      <c r="P531" s="166"/>
       <c r="Q531" s="146"/>
       <c r="R531" s="1"/>
       <c r="S531" s="7"/>
@@ -10592,21 +11468,21 @@
       <c r="V531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="163"/>
-      <c r="C532" s="170"/>
-      <c r="D532" s="169"/>
-      <c r="E532" s="169"/>
-      <c r="F532" s="169"/>
-      <c r="G532" s="169"/>
-      <c r="H532" s="169"/>
-      <c r="I532" s="163"/>
-      <c r="J532" s="170"/>
-      <c r="K532" s="169"/>
-      <c r="L532" s="169"/>
-      <c r="M532" s="169"/>
-      <c r="N532" s="163"/>
-      <c r="O532" s="163"/>
-      <c r="P532" s="163"/>
+      <c r="B532" s="166"/>
+      <c r="C532" s="173"/>
+      <c r="D532" s="172"/>
+      <c r="E532" s="172"/>
+      <c r="F532" s="172"/>
+      <c r="G532" s="172"/>
+      <c r="H532" s="172"/>
+      <c r="I532" s="166"/>
+      <c r="J532" s="173"/>
+      <c r="K532" s="172"/>
+      <c r="L532" s="172"/>
+      <c r="M532" s="172"/>
+      <c r="N532" s="166"/>
+      <c r="O532" s="166"/>
+      <c r="P532" s="166"/>
       <c r="Q532" s="146"/>
       <c r="R532" s="1"/>
       <c r="S532" s="7"/>
@@ -10615,21 +11491,21 @@
       <c r="V532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="163"/>
-      <c r="C533" s="170"/>
-      <c r="D533" s="169"/>
-      <c r="E533" s="169"/>
-      <c r="F533" s="169"/>
-      <c r="G533" s="169"/>
-      <c r="H533" s="169"/>
-      <c r="I533" s="163"/>
-      <c r="J533" s="170"/>
-      <c r="K533" s="169"/>
-      <c r="L533" s="169"/>
-      <c r="M533" s="169"/>
-      <c r="N533" s="163"/>
-      <c r="O533" s="163"/>
-      <c r="P533" s="163"/>
+      <c r="B533" s="166"/>
+      <c r="C533" s="173"/>
+      <c r="D533" s="172"/>
+      <c r="E533" s="172"/>
+      <c r="F533" s="172"/>
+      <c r="G533" s="172"/>
+      <c r="H533" s="172"/>
+      <c r="I533" s="166"/>
+      <c r="J533" s="173"/>
+      <c r="K533" s="172"/>
+      <c r="L533" s="172"/>
+      <c r="M533" s="172"/>
+      <c r="N533" s="166"/>
+      <c r="O533" s="166"/>
+      <c r="P533" s="166"/>
       <c r="Q533" s="146"/>
       <c r="R533" s="1"/>
       <c r="S533" s="7"/>
@@ -10638,21 +11514,21 @@
       <c r="V533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="163"/>
-      <c r="C534" s="170"/>
-      <c r="D534" s="169"/>
-      <c r="E534" s="169"/>
-      <c r="F534" s="169"/>
-      <c r="G534" s="169"/>
-      <c r="H534" s="169"/>
-      <c r="I534" s="163"/>
-      <c r="J534" s="170"/>
-      <c r="K534" s="169"/>
-      <c r="L534" s="169"/>
-      <c r="M534" s="169"/>
-      <c r="N534" s="163"/>
-      <c r="O534" s="163"/>
-      <c r="P534" s="163"/>
+      <c r="B534" s="166"/>
+      <c r="C534" s="173"/>
+      <c r="D534" s="172"/>
+      <c r="E534" s="172"/>
+      <c r="F534" s="172"/>
+      <c r="G534" s="172"/>
+      <c r="H534" s="172"/>
+      <c r="I534" s="166"/>
+      <c r="J534" s="173"/>
+      <c r="K534" s="172"/>
+      <c r="L534" s="172"/>
+      <c r="M534" s="172"/>
+      <c r="N534" s="166"/>
+      <c r="O534" s="166"/>
+      <c r="P534" s="166"/>
       <c r="Q534" s="146"/>
       <c r="R534" s="1"/>
       <c r="S534" s="7"/>
@@ -10661,21 +11537,21 @@
       <c r="V534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="163"/>
-      <c r="C535" s="170"/>
-      <c r="D535" s="169"/>
-      <c r="E535" s="169"/>
-      <c r="F535" s="169"/>
-      <c r="G535" s="169"/>
-      <c r="H535" s="169"/>
-      <c r="I535" s="163"/>
-      <c r="J535" s="170"/>
-      <c r="K535" s="169"/>
-      <c r="L535" s="169"/>
-      <c r="M535" s="169"/>
-      <c r="N535" s="163"/>
-      <c r="O535" s="163"/>
-      <c r="P535" s="163"/>
+      <c r="B535" s="166"/>
+      <c r="C535" s="173"/>
+      <c r="D535" s="172"/>
+      <c r="E535" s="172"/>
+      <c r="F535" s="172"/>
+      <c r="G535" s="172"/>
+      <c r="H535" s="172"/>
+      <c r="I535" s="166"/>
+      <c r="J535" s="173"/>
+      <c r="K535" s="172"/>
+      <c r="L535" s="172"/>
+      <c r="M535" s="172"/>
+      <c r="N535" s="166"/>
+      <c r="O535" s="166"/>
+      <c r="P535" s="166"/>
       <c r="Q535" s="146"/>
       <c r="R535" s="1"/>
       <c r="S535" s="7"/>
@@ -10684,21 +11560,21 @@
       <c r="V535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="163"/>
-      <c r="C536" s="170"/>
-      <c r="D536" s="169"/>
-      <c r="E536" s="169"/>
-      <c r="F536" s="169"/>
-      <c r="G536" s="169"/>
-      <c r="H536" s="169"/>
-      <c r="I536" s="163"/>
-      <c r="J536" s="170"/>
-      <c r="K536" s="169"/>
-      <c r="L536" s="169"/>
-      <c r="M536" s="169"/>
-      <c r="N536" s="163"/>
-      <c r="O536" s="163"/>
-      <c r="P536" s="163"/>
+      <c r="B536" s="166"/>
+      <c r="C536" s="173"/>
+      <c r="D536" s="172"/>
+      <c r="E536" s="172"/>
+      <c r="F536" s="172"/>
+      <c r="G536" s="172"/>
+      <c r="H536" s="172"/>
+      <c r="I536" s="166"/>
+      <c r="J536" s="173"/>
+      <c r="K536" s="172"/>
+      <c r="L536" s="172"/>
+      <c r="M536" s="172"/>
+      <c r="N536" s="166"/>
+      <c r="O536" s="166"/>
+      <c r="P536" s="166"/>
       <c r="Q536" s="146"/>
       <c r="R536" s="1"/>
       <c r="S536" s="7"/>
@@ -10707,21 +11583,21 @@
       <c r="V536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="163"/>
-      <c r="C537" s="170"/>
-      <c r="D537" s="169"/>
-      <c r="E537" s="169"/>
-      <c r="F537" s="169"/>
-      <c r="G537" s="169"/>
-      <c r="H537" s="169"/>
-      <c r="I537" s="163"/>
-      <c r="J537" s="170"/>
-      <c r="K537" s="169"/>
-      <c r="L537" s="169"/>
-      <c r="M537" s="169"/>
-      <c r="N537" s="163"/>
-      <c r="O537" s="163"/>
-      <c r="P537" s="163"/>
+      <c r="B537" s="166"/>
+      <c r="C537" s="173"/>
+      <c r="D537" s="172"/>
+      <c r="E537" s="172"/>
+      <c r="F537" s="172"/>
+      <c r="G537" s="172"/>
+      <c r="H537" s="172"/>
+      <c r="I537" s="166"/>
+      <c r="J537" s="173"/>
+      <c r="K537" s="172"/>
+      <c r="L537" s="172"/>
+      <c r="M537" s="172"/>
+      <c r="N537" s="166"/>
+      <c r="O537" s="166"/>
+      <c r="P537" s="166"/>
       <c r="Q537" s="146"/>
       <c r="R537" s="1"/>
       <c r="S537" s="7"/>
@@ -10730,21 +11606,21 @@
       <c r="V537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="163"/>
-      <c r="C538" s="169"/>
-      <c r="D538" s="169"/>
-      <c r="E538" s="169"/>
-      <c r="F538" s="169"/>
-      <c r="G538" s="169"/>
-      <c r="H538" s="169"/>
-      <c r="I538" s="163"/>
-      <c r="J538" s="169"/>
-      <c r="K538" s="169"/>
-      <c r="L538" s="169"/>
-      <c r="M538" s="169"/>
-      <c r="N538" s="163"/>
-      <c r="O538" s="163"/>
-      <c r="P538" s="163"/>
+      <c r="B538" s="166"/>
+      <c r="C538" s="172"/>
+      <c r="D538" s="172"/>
+      <c r="E538" s="172"/>
+      <c r="F538" s="172"/>
+      <c r="G538" s="172"/>
+      <c r="H538" s="172"/>
+      <c r="I538" s="166"/>
+      <c r="J538" s="172"/>
+      <c r="K538" s="172"/>
+      <c r="L538" s="172"/>
+      <c r="M538" s="172"/>
+      <c r="N538" s="166"/>
+      <c r="O538" s="166"/>
+      <c r="P538" s="166"/>
       <c r="Q538" s="146"/>
       <c r="R538" s="1"/>
       <c r="S538" s="7"/>
@@ -10753,21 +11629,21 @@
       <c r="V538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="163"/>
-      <c r="C539" s="169"/>
-      <c r="D539" s="169"/>
-      <c r="E539" s="169"/>
-      <c r="F539" s="169"/>
-      <c r="G539" s="169"/>
-      <c r="H539" s="169"/>
-      <c r="I539" s="163"/>
-      <c r="J539" s="169"/>
-      <c r="K539" s="169"/>
-      <c r="L539" s="169"/>
-      <c r="M539" s="169"/>
-      <c r="N539" s="163"/>
-      <c r="O539" s="163"/>
-      <c r="P539" s="163"/>
+      <c r="B539" s="166"/>
+      <c r="C539" s="172"/>
+      <c r="D539" s="172"/>
+      <c r="E539" s="172"/>
+      <c r="F539" s="172"/>
+      <c r="G539" s="172"/>
+      <c r="H539" s="172"/>
+      <c r="I539" s="166"/>
+      <c r="J539" s="172"/>
+      <c r="K539" s="172"/>
+      <c r="L539" s="172"/>
+      <c r="M539" s="172"/>
+      <c r="N539" s="166"/>
+      <c r="O539" s="166"/>
+      <c r="P539" s="166"/>
       <c r="Q539" s="146"/>
       <c r="R539" s="1"/>
       <c r="S539" s="7"/>
@@ -10776,43 +11652,43 @@
       <c r="V539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="163"/>
-      <c r="C540" s="169"/>
-      <c r="D540" s="169"/>
-      <c r="E540" s="169"/>
-      <c r="F540" s="169"/>
-      <c r="G540" s="169"/>
-      <c r="H540" s="169"/>
-      <c r="I540" s="163"/>
-      <c r="J540" s="169"/>
-      <c r="K540" s="169"/>
-      <c r="L540" s="169"/>
-      <c r="M540" s="169"/>
-      <c r="N540" s="169"/>
-      <c r="O540" s="163"/>
-      <c r="P540" s="163"/>
+      <c r="B540" s="166"/>
+      <c r="C540" s="172"/>
+      <c r="D540" s="172"/>
+      <c r="E540" s="172"/>
+      <c r="F540" s="172"/>
+      <c r="G540" s="172"/>
+      <c r="H540" s="172"/>
+      <c r="I540" s="166"/>
+      <c r="J540" s="172"/>
+      <c r="K540" s="172"/>
+      <c r="L540" s="172"/>
+      <c r="M540" s="172"/>
+      <c r="N540" s="172"/>
+      <c r="O540" s="166"/>
+      <c r="P540" s="166"/>
       <c r="Q540" s="146"/>
       <c r="S540" s="7"/>
       <c r="T540" s="7"/>
-      <c r="U540" s="172"/>
+      <c r="U540" s="175"/>
       <c r="V540" s="44"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="163"/>
-      <c r="C541" s="170"/>
-      <c r="D541" s="170"/>
-      <c r="E541" s="170"/>
-      <c r="F541" s="170"/>
-      <c r="G541" s="169"/>
-      <c r="H541" s="169"/>
-      <c r="I541" s="163"/>
-      <c r="J541" s="169"/>
-      <c r="K541" s="169"/>
-      <c r="L541" s="169"/>
-      <c r="M541" s="169"/>
-      <c r="N541" s="163"/>
-      <c r="O541" s="163"/>
-      <c r="P541" s="163"/>
+      <c r="B541" s="166"/>
+      <c r="C541" s="173"/>
+      <c r="D541" s="173"/>
+      <c r="E541" s="173"/>
+      <c r="F541" s="173"/>
+      <c r="G541" s="172"/>
+      <c r="H541" s="172"/>
+      <c r="I541" s="166"/>
+      <c r="J541" s="172"/>
+      <c r="K541" s="172"/>
+      <c r="L541" s="172"/>
+      <c r="M541" s="172"/>
+      <c r="N541" s="166"/>
+      <c r="O541" s="166"/>
+      <c r="P541" s="166"/>
       <c r="Q541" s="146"/>
       <c r="R541" s="1"/>
       <c r="S541" s="7"/>
@@ -10821,21 +11697,21 @@
       <c r="V541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="163"/>
-      <c r="C542" s="170"/>
-      <c r="D542" s="170"/>
-      <c r="E542" s="170"/>
-      <c r="F542" s="170"/>
-      <c r="G542" s="169"/>
-      <c r="H542" s="169"/>
-      <c r="I542" s="163"/>
-      <c r="J542" s="169"/>
-      <c r="K542" s="169"/>
-      <c r="L542" s="169"/>
-      <c r="M542" s="169"/>
-      <c r="N542" s="163"/>
-      <c r="O542" s="163"/>
-      <c r="P542" s="163"/>
+      <c r="B542" s="166"/>
+      <c r="C542" s="173"/>
+      <c r="D542" s="173"/>
+      <c r="E542" s="173"/>
+      <c r="F542" s="173"/>
+      <c r="G542" s="172"/>
+      <c r="H542" s="172"/>
+      <c r="I542" s="166"/>
+      <c r="J542" s="172"/>
+      <c r="K542" s="172"/>
+      <c r="L542" s="172"/>
+      <c r="M542" s="172"/>
+      <c r="N542" s="166"/>
+      <c r="O542" s="166"/>
+      <c r="P542" s="166"/>
       <c r="Q542" s="146"/>
       <c r="R542" s="1"/>
       <c r="S542" s="7"/>
@@ -10844,21 +11720,21 @@
       <c r="V542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="163"/>
-      <c r="C543" s="170"/>
-      <c r="D543" s="170"/>
-      <c r="E543" s="170"/>
-      <c r="F543" s="170"/>
-      <c r="G543" s="169"/>
-      <c r="H543" s="169"/>
-      <c r="I543" s="163"/>
-      <c r="J543" s="169"/>
-      <c r="K543" s="169"/>
-      <c r="L543" s="169"/>
-      <c r="M543" s="169"/>
-      <c r="N543" s="163"/>
-      <c r="O543" s="163"/>
-      <c r="P543" s="163"/>
+      <c r="B543" s="166"/>
+      <c r="C543" s="173"/>
+      <c r="D543" s="173"/>
+      <c r="E543" s="173"/>
+      <c r="F543" s="173"/>
+      <c r="G543" s="172"/>
+      <c r="H543" s="172"/>
+      <c r="I543" s="166"/>
+      <c r="J543" s="172"/>
+      <c r="K543" s="172"/>
+      <c r="L543" s="172"/>
+      <c r="M543" s="172"/>
+      <c r="N543" s="166"/>
+      <c r="O543" s="166"/>
+      <c r="P543" s="166"/>
       <c r="Q543" s="146"/>
       <c r="R543" s="1"/>
       <c r="S543" s="7"/>
@@ -10867,21 +11743,21 @@
       <c r="V543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="163"/>
-      <c r="C544" s="170"/>
-      <c r="D544" s="170"/>
-      <c r="E544" s="170"/>
-      <c r="F544" s="170"/>
-      <c r="G544" s="169"/>
-      <c r="H544" s="169"/>
-      <c r="I544" s="163"/>
-      <c r="J544" s="169"/>
-      <c r="K544" s="169"/>
-      <c r="L544" s="169"/>
-      <c r="M544" s="169"/>
-      <c r="N544" s="163"/>
-      <c r="O544" s="163"/>
-      <c r="P544" s="163"/>
+      <c r="B544" s="166"/>
+      <c r="C544" s="173"/>
+      <c r="D544" s="173"/>
+      <c r="E544" s="173"/>
+      <c r="F544" s="173"/>
+      <c r="G544" s="172"/>
+      <c r="H544" s="172"/>
+      <c r="I544" s="166"/>
+      <c r="J544" s="172"/>
+      <c r="K544" s="172"/>
+      <c r="L544" s="172"/>
+      <c r="M544" s="172"/>
+      <c r="N544" s="166"/>
+      <c r="O544" s="166"/>
+      <c r="P544" s="166"/>
       <c r="Q544" s="146"/>
       <c r="R544" s="1"/>
       <c r="S544" s="7"/>
@@ -10890,21 +11766,21 @@
       <c r="V544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="163"/>
-      <c r="C545" s="170"/>
-      <c r="D545" s="170"/>
-      <c r="E545" s="170"/>
-      <c r="F545" s="170"/>
-      <c r="G545" s="169"/>
-      <c r="H545" s="169"/>
-      <c r="I545" s="163"/>
-      <c r="J545" s="169"/>
-      <c r="K545" s="169"/>
-      <c r="L545" s="169"/>
-      <c r="M545" s="169"/>
-      <c r="N545" s="163"/>
-      <c r="O545" s="163"/>
-      <c r="P545" s="163"/>
+      <c r="B545" s="166"/>
+      <c r="C545" s="173"/>
+      <c r="D545" s="173"/>
+      <c r="E545" s="173"/>
+      <c r="F545" s="173"/>
+      <c r="G545" s="172"/>
+      <c r="H545" s="172"/>
+      <c r="I545" s="166"/>
+      <c r="J545" s="172"/>
+      <c r="K545" s="172"/>
+      <c r="L545" s="172"/>
+      <c r="M545" s="172"/>
+      <c r="N545" s="166"/>
+      <c r="O545" s="166"/>
+      <c r="P545" s="166"/>
       <c r="Q545" s="146"/>
       <c r="R545" s="1"/>
       <c r="S545" s="7"/>
@@ -10913,21 +11789,21 @@
       <c r="V545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="163"/>
-      <c r="C546" s="170"/>
-      <c r="D546" s="170"/>
-      <c r="E546" s="170"/>
-      <c r="F546" s="170"/>
-      <c r="G546" s="169"/>
-      <c r="H546" s="169"/>
-      <c r="I546" s="163"/>
-      <c r="J546" s="169"/>
-      <c r="K546" s="169"/>
-      <c r="L546" s="169"/>
-      <c r="M546" s="169"/>
-      <c r="N546" s="163"/>
-      <c r="O546" s="163"/>
-      <c r="P546" s="163"/>
+      <c r="B546" s="166"/>
+      <c r="C546" s="173"/>
+      <c r="D546" s="173"/>
+      <c r="E546" s="173"/>
+      <c r="F546" s="173"/>
+      <c r="G546" s="172"/>
+      <c r="H546" s="172"/>
+      <c r="I546" s="166"/>
+      <c r="J546" s="172"/>
+      <c r="K546" s="172"/>
+      <c r="L546" s="172"/>
+      <c r="M546" s="172"/>
+      <c r="N546" s="166"/>
+      <c r="O546" s="166"/>
+      <c r="P546" s="166"/>
       <c r="Q546" s="146"/>
       <c r="R546" s="1"/>
       <c r="S546" s="7"/>
@@ -10936,21 +11812,21 @@
       <c r="V546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="163"/>
-      <c r="C547" s="170"/>
-      <c r="D547" s="170"/>
-      <c r="E547" s="170"/>
-      <c r="F547" s="170"/>
-      <c r="G547" s="169"/>
-      <c r="H547" s="169"/>
-      <c r="I547" s="163"/>
-      <c r="J547" s="169"/>
-      <c r="K547" s="169"/>
-      <c r="L547" s="169"/>
-      <c r="M547" s="169"/>
-      <c r="N547" s="163"/>
-      <c r="O547" s="163"/>
-      <c r="P547" s="163"/>
+      <c r="B547" s="166"/>
+      <c r="C547" s="173"/>
+      <c r="D547" s="173"/>
+      <c r="E547" s="173"/>
+      <c r="F547" s="173"/>
+      <c r="G547" s="172"/>
+      <c r="H547" s="172"/>
+      <c r="I547" s="166"/>
+      <c r="J547" s="172"/>
+      <c r="K547" s="172"/>
+      <c r="L547" s="172"/>
+      <c r="M547" s="172"/>
+      <c r="N547" s="166"/>
+      <c r="O547" s="166"/>
+      <c r="P547" s="166"/>
       <c r="Q547" s="146"/>
       <c r="R547" s="1"/>
       <c r="S547" s="7"/>
@@ -10959,21 +11835,21 @@
       <c r="V547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="163"/>
-      <c r="C548" s="169"/>
-      <c r="D548" s="169"/>
-      <c r="E548" s="169"/>
-      <c r="F548" s="169"/>
-      <c r="G548" s="169"/>
-      <c r="H548" s="169"/>
-      <c r="I548" s="163"/>
-      <c r="J548" s="169"/>
-      <c r="K548" s="169"/>
-      <c r="L548" s="169"/>
-      <c r="M548" s="169"/>
-      <c r="N548" s="163"/>
-      <c r="O548" s="163"/>
-      <c r="P548" s="163"/>
+      <c r="B548" s="166"/>
+      <c r="C548" s="172"/>
+      <c r="D548" s="172"/>
+      <c r="E548" s="172"/>
+      <c r="F548" s="172"/>
+      <c r="G548" s="172"/>
+      <c r="H548" s="172"/>
+      <c r="I548" s="166"/>
+      <c r="J548" s="172"/>
+      <c r="K548" s="172"/>
+      <c r="L548" s="172"/>
+      <c r="M548" s="172"/>
+      <c r="N548" s="166"/>
+      <c r="O548" s="166"/>
+      <c r="P548" s="166"/>
       <c r="Q548" s="146"/>
       <c r="S548" s="7"/>
       <c r="T548" s="7"/>
@@ -10981,21 +11857,21 @@
       <c r="V548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="163"/>
-      <c r="C549" s="169"/>
-      <c r="D549" s="169"/>
-      <c r="E549" s="169"/>
-      <c r="F549" s="169"/>
-      <c r="G549" s="169"/>
-      <c r="H549" s="169"/>
-      <c r="I549" s="163"/>
-      <c r="J549" s="169"/>
-      <c r="K549" s="169"/>
-      <c r="L549" s="169"/>
-      <c r="M549" s="169"/>
-      <c r="N549" s="163"/>
-      <c r="O549" s="163"/>
-      <c r="P549" s="163"/>
+      <c r="B549" s="166"/>
+      <c r="C549" s="172"/>
+      <c r="D549" s="172"/>
+      <c r="E549" s="172"/>
+      <c r="F549" s="172"/>
+      <c r="G549" s="172"/>
+      <c r="H549" s="172"/>
+      <c r="I549" s="166"/>
+      <c r="J549" s="172"/>
+      <c r="K549" s="172"/>
+      <c r="L549" s="172"/>
+      <c r="M549" s="172"/>
+      <c r="N549" s="166"/>
+      <c r="O549" s="166"/>
+      <c r="P549" s="166"/>
       <c r="Q549" s="146"/>
       <c r="R549" s="1"/>
       <c r="S549" s="7"/>
@@ -11004,285 +11880,285 @@
       <c r="V549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="163"/>
-      <c r="C550" s="169"/>
-      <c r="D550" s="169"/>
-      <c r="E550" s="169"/>
-      <c r="F550" s="169"/>
-      <c r="G550" s="169"/>
-      <c r="H550" s="169"/>
-      <c r="I550" s="163"/>
-      <c r="J550" s="169"/>
-      <c r="K550" s="169"/>
-      <c r="L550" s="169"/>
-      <c r="M550" s="169"/>
-      <c r="N550" s="169"/>
-      <c r="O550" s="163"/>
-      <c r="P550" s="163"/>
+      <c r="B550" s="166"/>
+      <c r="C550" s="172"/>
+      <c r="D550" s="172"/>
+      <c r="E550" s="172"/>
+      <c r="F550" s="172"/>
+      <c r="G550" s="172"/>
+      <c r="H550" s="172"/>
+      <c r="I550" s="166"/>
+      <c r="J550" s="172"/>
+      <c r="K550" s="172"/>
+      <c r="L550" s="172"/>
+      <c r="M550" s="172"/>
+      <c r="N550" s="172"/>
+      <c r="O550" s="166"/>
+      <c r="P550" s="166"/>
       <c r="Q550" s="146"/>
       <c r="S550" s="7"/>
       <c r="T550" s="7"/>
-      <c r="U550" s="172"/>
+      <c r="U550" s="175"/>
       <c r="V550" s="44"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="163"/>
-      <c r="C551" s="170"/>
-      <c r="D551" s="170"/>
-      <c r="E551" s="170"/>
-      <c r="F551" s="170"/>
-      <c r="G551" s="163"/>
-      <c r="H551" s="163"/>
-      <c r="I551" s="163"/>
-      <c r="J551" s="163"/>
-      <c r="K551" s="163"/>
-      <c r="L551" s="163"/>
-      <c r="M551" s="163"/>
-      <c r="N551" s="163"/>
-      <c r="O551" s="163"/>
-      <c r="P551" s="163"/>
+      <c r="B551" s="166"/>
+      <c r="C551" s="173"/>
+      <c r="D551" s="173"/>
+      <c r="E551" s="173"/>
+      <c r="F551" s="173"/>
+      <c r="G551" s="166"/>
+      <c r="H551" s="166"/>
+      <c r="I551" s="166"/>
+      <c r="J551" s="166"/>
+      <c r="K551" s="166"/>
+      <c r="L551" s="166"/>
+      <c r="M551" s="166"/>
+      <c r="N551" s="166"/>
+      <c r="O551" s="166"/>
+      <c r="P551" s="166"/>
       <c r="Q551" s="146"/>
       <c r="R551" s="1"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="163"/>
-      <c r="C552" s="170"/>
-      <c r="D552" s="170"/>
-      <c r="E552" s="170"/>
-      <c r="F552" s="170"/>
-      <c r="G552" s="163"/>
-      <c r="H552" s="163"/>
-      <c r="I552" s="163"/>
-      <c r="J552" s="163"/>
-      <c r="K552" s="163"/>
-      <c r="L552" s="163"/>
-      <c r="M552" s="163"/>
-      <c r="N552" s="163"/>
-      <c r="O552" s="163"/>
-      <c r="P552" s="163"/>
+      <c r="B552" s="166"/>
+      <c r="C552" s="173"/>
+      <c r="D552" s="173"/>
+      <c r="E552" s="173"/>
+      <c r="F552" s="173"/>
+      <c r="G552" s="166"/>
+      <c r="H552" s="166"/>
+      <c r="I552" s="166"/>
+      <c r="J552" s="166"/>
+      <c r="K552" s="166"/>
+      <c r="L552" s="166"/>
+      <c r="M552" s="166"/>
+      <c r="N552" s="166"/>
+      <c r="O552" s="166"/>
+      <c r="P552" s="166"/>
       <c r="Q552" s="146"/>
       <c r="R552" s="1"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="163"/>
-      <c r="C553" s="170"/>
-      <c r="D553" s="170"/>
-      <c r="E553" s="170"/>
-      <c r="F553" s="170"/>
-      <c r="G553" s="163"/>
-      <c r="H553" s="163"/>
-      <c r="I553" s="163"/>
-      <c r="J553" s="163"/>
-      <c r="K553" s="163"/>
-      <c r="L553" s="163"/>
-      <c r="M553" s="163"/>
-      <c r="N553" s="163"/>
-      <c r="O553" s="163"/>
-      <c r="P553" s="163"/>
+      <c r="B553" s="166"/>
+      <c r="C553" s="173"/>
+      <c r="D553" s="173"/>
+      <c r="E553" s="173"/>
+      <c r="F553" s="173"/>
+      <c r="G553" s="166"/>
+      <c r="H553" s="166"/>
+      <c r="I553" s="166"/>
+      <c r="J553" s="166"/>
+      <c r="K553" s="166"/>
+      <c r="L553" s="166"/>
+      <c r="M553" s="166"/>
+      <c r="N553" s="166"/>
+      <c r="O553" s="166"/>
+      <c r="P553" s="166"/>
       <c r="Q553" s="146"/>
       <c r="R553" s="1"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="163"/>
-      <c r="C554" s="170"/>
-      <c r="D554" s="170"/>
-      <c r="E554" s="170"/>
-      <c r="F554" s="170"/>
-      <c r="G554" s="163"/>
-      <c r="H554" s="163"/>
-      <c r="I554" s="163"/>
-      <c r="J554" s="163"/>
-      <c r="K554" s="163"/>
-      <c r="L554" s="163"/>
-      <c r="M554" s="163"/>
-      <c r="N554" s="163"/>
-      <c r="O554" s="163"/>
-      <c r="P554" s="163"/>
+      <c r="B554" s="166"/>
+      <c r="C554" s="173"/>
+      <c r="D554" s="173"/>
+      <c r="E554" s="173"/>
+      <c r="F554" s="173"/>
+      <c r="G554" s="166"/>
+      <c r="H554" s="166"/>
+      <c r="I554" s="166"/>
+      <c r="J554" s="166"/>
+      <c r="K554" s="166"/>
+      <c r="L554" s="166"/>
+      <c r="M554" s="166"/>
+      <c r="N554" s="166"/>
+      <c r="O554" s="166"/>
+      <c r="P554" s="166"/>
       <c r="Q554" s="146"/>
       <c r="R554" s="1"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="163"/>
-      <c r="C555" s="170"/>
-      <c r="D555" s="170"/>
-      <c r="E555" s="170"/>
-      <c r="F555" s="170"/>
-      <c r="G555" s="163"/>
-      <c r="H555" s="163"/>
-      <c r="I555" s="163"/>
-      <c r="J555" s="163"/>
-      <c r="K555" s="163"/>
-      <c r="L555" s="163"/>
-      <c r="M555" s="163"/>
-      <c r="N555" s="163"/>
-      <c r="O555" s="163"/>
-      <c r="P555" s="163"/>
+      <c r="B555" s="166"/>
+      <c r="C555" s="173"/>
+      <c r="D555" s="173"/>
+      <c r="E555" s="173"/>
+      <c r="F555" s="173"/>
+      <c r="G555" s="166"/>
+      <c r="H555" s="166"/>
+      <c r="I555" s="166"/>
+      <c r="J555" s="166"/>
+      <c r="K555" s="166"/>
+      <c r="L555" s="166"/>
+      <c r="M555" s="166"/>
+      <c r="N555" s="166"/>
+      <c r="O555" s="166"/>
+      <c r="P555" s="166"/>
       <c r="Q555" s="146"/>
       <c r="R555" s="1"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="163"/>
-      <c r="C556" s="170"/>
-      <c r="D556" s="170"/>
-      <c r="E556" s="170"/>
-      <c r="F556" s="170"/>
-      <c r="G556" s="163"/>
-      <c r="H556" s="163"/>
-      <c r="I556" s="163"/>
-      <c r="J556" s="163"/>
-      <c r="K556" s="163"/>
-      <c r="L556" s="163"/>
-      <c r="M556" s="163"/>
-      <c r="N556" s="163"/>
-      <c r="O556" s="163"/>
-      <c r="P556" s="163"/>
+      <c r="B556" s="166"/>
+      <c r="C556" s="173"/>
+      <c r="D556" s="173"/>
+      <c r="E556" s="173"/>
+      <c r="F556" s="173"/>
+      <c r="G556" s="166"/>
+      <c r="H556" s="166"/>
+      <c r="I556" s="166"/>
+      <c r="J556" s="166"/>
+      <c r="K556" s="166"/>
+      <c r="L556" s="166"/>
+      <c r="M556" s="166"/>
+      <c r="N556" s="166"/>
+      <c r="O556" s="166"/>
+      <c r="P556" s="166"/>
       <c r="Q556" s="146"/>
       <c r="R556" s="1"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="163"/>
-      <c r="C557" s="170"/>
-      <c r="D557" s="170"/>
-      <c r="E557" s="170"/>
-      <c r="F557" s="170"/>
-      <c r="G557" s="163"/>
-      <c r="H557" s="163"/>
-      <c r="I557" s="163"/>
-      <c r="J557" s="163"/>
-      <c r="K557" s="163"/>
-      <c r="L557" s="163"/>
-      <c r="M557" s="163"/>
-      <c r="N557" s="163"/>
-      <c r="O557" s="163"/>
-      <c r="P557" s="163"/>
+      <c r="B557" s="166"/>
+      <c r="C557" s="173"/>
+      <c r="D557" s="173"/>
+      <c r="E557" s="173"/>
+      <c r="F557" s="173"/>
+      <c r="G557" s="166"/>
+      <c r="H557" s="166"/>
+      <c r="I557" s="166"/>
+      <c r="J557" s="166"/>
+      <c r="K557" s="166"/>
+      <c r="L557" s="166"/>
+      <c r="M557" s="166"/>
+      <c r="N557" s="166"/>
+      <c r="O557" s="166"/>
+      <c r="P557" s="166"/>
       <c r="Q557" s="146"/>
       <c r="R557" s="1"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="163"/>
-      <c r="C558" s="163"/>
-      <c r="D558" s="163"/>
-      <c r="E558" s="163"/>
-      <c r="F558" s="163"/>
-      <c r="G558" s="163"/>
-      <c r="H558" s="163"/>
-      <c r="I558" s="163"/>
-      <c r="J558" s="163"/>
-      <c r="K558" s="163"/>
-      <c r="L558" s="163"/>
-      <c r="M558" s="163"/>
-      <c r="N558" s="163"/>
-      <c r="O558" s="163"/>
-      <c r="P558" s="163"/>
+      <c r="B558" s="166"/>
+      <c r="C558" s="166"/>
+      <c r="D558" s="166"/>
+      <c r="E558" s="166"/>
+      <c r="F558" s="166"/>
+      <c r="G558" s="166"/>
+      <c r="H558" s="166"/>
+      <c r="I558" s="166"/>
+      <c r="J558" s="166"/>
+      <c r="K558" s="166"/>
+      <c r="L558" s="166"/>
+      <c r="M558" s="166"/>
+      <c r="N558" s="166"/>
+      <c r="O558" s="166"/>
+      <c r="P558" s="166"/>
       <c r="Q558" s="146"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="163"/>
-      <c r="C559" s="163"/>
-      <c r="D559" s="163"/>
-      <c r="E559" s="163"/>
-      <c r="F559" s="163"/>
-      <c r="G559" s="163"/>
-      <c r="H559" s="163"/>
-      <c r="I559" s="163"/>
-      <c r="J559" s="163"/>
-      <c r="K559" s="163"/>
-      <c r="L559" s="163"/>
-      <c r="M559" s="163"/>
-      <c r="N559" s="163"/>
-      <c r="O559" s="163"/>
-      <c r="P559" s="163"/>
+      <c r="B559" s="166"/>
+      <c r="C559" s="166"/>
+      <c r="D559" s="166"/>
+      <c r="E559" s="166"/>
+      <c r="F559" s="166"/>
+      <c r="G559" s="166"/>
+      <c r="H559" s="166"/>
+      <c r="I559" s="166"/>
+      <c r="J559" s="166"/>
+      <c r="K559" s="166"/>
+      <c r="L559" s="166"/>
+      <c r="M559" s="166"/>
+      <c r="N559" s="166"/>
+      <c r="O559" s="166"/>
+      <c r="P559" s="166"/>
       <c r="Q559" s="146"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="173"/>
-      <c r="J562" s="173"/>
-      <c r="K562" s="173"/>
-      <c r="L562" s="173"/>
-      <c r="M562" s="173"/>
-      <c r="N562" s="173"/>
-      <c r="O562" s="173"/>
-      <c r="P562" s="173"/>
-      <c r="Q562" s="173"/>
-      <c r="R562" s="173"/>
-      <c r="S562" s="173"/>
-      <c r="T562" s="173"/>
-      <c r="U562" s="173"/>
-      <c r="V562" s="173"/>
-      <c r="W562" s="173"/>
-      <c r="X562" s="173"/>
-      <c r="Y562" s="173"/>
-      <c r="Z562" s="173"/>
+      <c r="I562" s="176"/>
+      <c r="J562" s="176"/>
+      <c r="K562" s="176"/>
+      <c r="L562" s="176"/>
+      <c r="M562" s="176"/>
+      <c r="N562" s="176"/>
+      <c r="O562" s="176"/>
+      <c r="P562" s="176"/>
+      <c r="Q562" s="176"/>
+      <c r="R562" s="176"/>
+      <c r="S562" s="176"/>
+      <c r="T562" s="176"/>
+      <c r="U562" s="176"/>
+      <c r="V562" s="176"/>
+      <c r="W562" s="176"/>
+      <c r="X562" s="176"/>
+      <c r="Y562" s="176"/>
+      <c r="Z562" s="176"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="173"/>
-      <c r="J563" s="173"/>
-      <c r="K563" s="173"/>
-      <c r="L563" s="173"/>
-      <c r="M563" s="173"/>
-      <c r="N563" s="173"/>
-      <c r="O563" s="173"/>
-      <c r="P563" s="173"/>
-      <c r="Q563" s="173"/>
-      <c r="R563" s="173"/>
-      <c r="S563" s="173"/>
-      <c r="T563" s="173"/>
-      <c r="U563" s="173"/>
-      <c r="V563" s="173"/>
-      <c r="W563" s="173"/>
-      <c r="X563" s="173"/>
-      <c r="Y563" s="173"/>
-      <c r="Z563" s="173"/>
+      <c r="I563" s="176"/>
+      <c r="J563" s="176"/>
+      <c r="K563" s="176"/>
+      <c r="L563" s="176"/>
+      <c r="M563" s="176"/>
+      <c r="N563" s="176"/>
+      <c r="O563" s="176"/>
+      <c r="P563" s="176"/>
+      <c r="Q563" s="176"/>
+      <c r="R563" s="176"/>
+      <c r="S563" s="176"/>
+      <c r="T563" s="176"/>
+      <c r="U563" s="176"/>
+      <c r="V563" s="176"/>
+      <c r="W563" s="176"/>
+      <c r="X563" s="176"/>
+      <c r="Y563" s="176"/>
+      <c r="Z563" s="176"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q564" s="173"/>
-      <c r="R564" s="173"/>
-      <c r="S564" s="173"/>
-      <c r="T564" s="173"/>
-      <c r="U564" s="173"/>
+      <c r="Q564" s="176"/>
+      <c r="R564" s="176"/>
+      <c r="S564" s="176"/>
+      <c r="T564" s="176"/>
+      <c r="U564" s="176"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q565" s="173"/>
-      <c r="R565" s="173"/>
-      <c r="S565" s="173"/>
-      <c r="T565" s="173"/>
-      <c r="U565" s="173"/>
+      <c r="Q565" s="176"/>
+      <c r="R565" s="176"/>
+      <c r="S565" s="176"/>
+      <c r="T565" s="176"/>
+      <c r="U565" s="176"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q566" s="173"/>
-      <c r="R566" s="173"/>
-      <c r="S566" s="173"/>
-      <c r="T566" s="173"/>
-      <c r="U566" s="173"/>
+      <c r="Q566" s="176"/>
+      <c r="R566" s="176"/>
+      <c r="S566" s="176"/>
+      <c r="T566" s="176"/>
+      <c r="U566" s="176"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q567" s="173"/>
-      <c r="R567" s="173"/>
-      <c r="S567" s="173"/>
-      <c r="T567" s="173"/>
-      <c r="U567" s="173"/>
+      <c r="Q567" s="176"/>
+      <c r="R567" s="176"/>
+      <c r="S567" s="176"/>
+      <c r="T567" s="176"/>
+      <c r="U567" s="176"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q568" s="173"/>
-      <c r="R568" s="173"/>
-      <c r="S568" s="173"/>
-      <c r="T568" s="173"/>
-      <c r="U568" s="173"/>
+      <c r="Q568" s="176"/>
+      <c r="R568" s="176"/>
+      <c r="S568" s="176"/>
+      <c r="T568" s="176"/>
+      <c r="U568" s="176"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q569" s="173"/>
-      <c r="R569" s="173"/>
-      <c r="S569" s="173"/>
-      <c r="T569" s="173"/>
-      <c r="U569" s="173"/>
+      <c r="Q569" s="176"/>
+      <c r="R569" s="176"/>
+      <c r="S569" s="176"/>
+      <c r="T569" s="176"/>
+      <c r="U569" s="176"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="1"/>
-      <c r="Q570" s="173"/>
-      <c r="R570" s="173"/>
-      <c r="S570" s="173"/>
-      <c r="T570" s="173"/>
-      <c r="U570" s="173"/>
+      <c r="Q570" s="176"/>
+      <c r="R570" s="176"/>
+      <c r="S570" s="176"/>
+      <c r="T570" s="176"/>
+      <c r="U570" s="176"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="7"/>
@@ -11292,11 +12168,11 @@
       <c r="G571" s="7"/>
       <c r="H571" s="7"/>
       <c r="I571" s="7"/>
-      <c r="Q571" s="173"/>
-      <c r="R571" s="173"/>
-      <c r="S571" s="173"/>
-      <c r="T571" s="173"/>
-      <c r="U571" s="173"/>
+      <c r="Q571" s="176"/>
+      <c r="R571" s="176"/>
+      <c r="S571" s="176"/>
+      <c r="T571" s="176"/>
+      <c r="U571" s="176"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="7"/>
@@ -11306,11 +12182,11 @@
       <c r="G572" s="7"/>
       <c r="H572" s="7"/>
       <c r="I572" s="7"/>
-      <c r="Q572" s="173"/>
-      <c r="R572" s="173"/>
-      <c r="S572" s="173"/>
-      <c r="T572" s="173"/>
-      <c r="U572" s="173"/>
+      <c r="Q572" s="176"/>
+      <c r="R572" s="176"/>
+      <c r="S572" s="176"/>
+      <c r="T572" s="176"/>
+      <c r="U572" s="176"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="1"/>

--- a/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
+++ b/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
@@ -2344,11 +2344,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C231" activeCellId="0" sqref="C231"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A289" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B292" activeCellId="0" sqref="B292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -8783,268 +8783,556 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="153" t="n">
+      <c r="B294" s="142" t="n">
         <v>1</v>
       </c>
-      <c r="C294" s="59"/>
-      <c r="D294" s="61"/>
-      <c r="E294" s="56"/>
-      <c r="F294" s="56"/>
-      <c r="G294" s="57"/>
-      <c r="H294" s="62"/>
+      <c r="C294" s="59" t="n">
+        <v>13</v>
+      </c>
+      <c r="D294" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E294" s="56" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F294" s="56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G294" s="57" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H294" s="62" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="157" t="n">
+      <c r="B295" s="143" t="n">
         <v>2</v>
       </c>
-      <c r="C295" s="59"/>
-      <c r="D295" s="61"/>
-      <c r="E295" s="56"/>
-      <c r="F295" s="56"/>
-      <c r="G295" s="57"/>
-      <c r="H295" s="62"/>
+      <c r="C295" s="59" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D295" s="61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E295" s="56" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F295" s="56" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="G295" s="57" t="n">
+        <v>24</v>
+      </c>
+      <c r="H295" s="62" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="157" t="n">
+      <c r="B296" s="143" t="n">
         <v>3</v>
       </c>
-      <c r="C296" s="59"/>
-      <c r="D296" s="61"/>
-      <c r="E296" s="56"/>
-      <c r="F296" s="56"/>
-      <c r="G296" s="57"/>
-      <c r="H296" s="62"/>
+      <c r="C296" s="59" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D296" s="61" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E296" s="56" t="n">
+        <v>19</v>
+      </c>
+      <c r="F296" s="56" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="G296" s="57" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H296" s="62" t="n">
+        <v>24.9</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="157" t="n">
+      <c r="B297" s="143" t="n">
         <v>4</v>
       </c>
-      <c r="C297" s="59"/>
-      <c r="D297" s="61"/>
-      <c r="E297" s="56"/>
-      <c r="F297" s="56"/>
-      <c r="G297" s="57"/>
-      <c r="H297" s="62"/>
+      <c r="C297" s="59" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D297" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E297" s="56" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F297" s="56" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G297" s="57" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H297" s="62" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="157" t="n">
+      <c r="B298" s="143" t="n">
         <v>5</v>
       </c>
-      <c r="C298" s="59"/>
-      <c r="D298" s="61"/>
-      <c r="E298" s="56"/>
-      <c r="F298" s="56"/>
-      <c r="G298" s="57"/>
-      <c r="H298" s="62"/>
+      <c r="C298" s="59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D298" s="61" t="n">
+        <v>13</v>
+      </c>
+      <c r="E298" s="56" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F298" s="56" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="G298" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="H298" s="62" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="157" t="n">
+      <c r="B299" s="143" t="n">
         <v>6</v>
       </c>
-      <c r="C299" s="59"/>
-      <c r="D299" s="61"/>
-      <c r="E299" s="56"/>
-      <c r="F299" s="56"/>
-      <c r="G299" s="57"/>
-      <c r="H299" s="62"/>
+      <c r="C299" s="59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D299" s="61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E299" s="56" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F299" s="56" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="G299" s="57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H299" s="62" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="157" t="n">
+      <c r="B300" s="143" t="n">
         <v>7</v>
       </c>
-      <c r="C300" s="59"/>
-      <c r="D300" s="61"/>
-      <c r="E300" s="56"/>
-      <c r="F300" s="56"/>
-      <c r="G300" s="57"/>
-      <c r="H300" s="62"/>
+      <c r="C300" s="59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D300" s="61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E300" s="56" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F300" s="56" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G300" s="57" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H300" s="62" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="157" t="n">
+      <c r="B301" s="143" t="n">
         <v>8</v>
       </c>
-      <c r="C301" s="59"/>
-      <c r="D301" s="61"/>
-      <c r="E301" s="56"/>
-      <c r="F301" s="56"/>
-      <c r="G301" s="57"/>
-      <c r="H301" s="62"/>
+      <c r="C301" s="59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D301" s="61" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E301" s="56" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="F301" s="56" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="G301" s="57" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="H301" s="62" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="157" t="n">
+      <c r="B302" s="143" t="n">
         <v>9</v>
       </c>
-      <c r="C302" s="59"/>
-      <c r="D302" s="61"/>
-      <c r="E302" s="56"/>
-      <c r="F302" s="56"/>
-      <c r="G302" s="57"/>
-      <c r="H302" s="62"/>
+      <c r="C302" s="59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D302" s="61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E302" s="56" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F302" s="56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G302" s="57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H302" s="62" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="157" t="n">
+      <c r="B303" s="143" t="n">
         <v>10</v>
       </c>
-      <c r="C303" s="59"/>
-      <c r="D303" s="61"/>
-      <c r="E303" s="56"/>
-      <c r="F303" s="56"/>
-      <c r="G303" s="57"/>
-      <c r="H303" s="62"/>
+      <c r="C303" s="59" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D303" s="61" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E303" s="56" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F303" s="56" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G303" s="57" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H303" s="62" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="157" t="n">
+      <c r="B304" s="143" t="n">
         <v>11</v>
       </c>
-      <c r="C304" s="59"/>
-      <c r="D304" s="61"/>
-      <c r="E304" s="56"/>
-      <c r="F304" s="56"/>
-      <c r="G304" s="57"/>
-      <c r="H304" s="62"/>
+      <c r="C304" s="59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D304" s="61" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E304" s="56" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F304" s="56" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G304" s="57" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H304" s="62" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="157" t="n">
+      <c r="B305" s="143" t="n">
         <v>12</v>
       </c>
-      <c r="C305" s="59"/>
-      <c r="D305" s="61"/>
-      <c r="E305" s="56"/>
-      <c r="F305" s="56"/>
-      <c r="G305" s="57"/>
-      <c r="H305" s="62"/>
+      <c r="C305" s="59" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D305" s="61" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E305" s="56" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F305" s="56" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G305" s="57" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H305" s="62" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="157" t="n">
+      <c r="B306" s="143" t="n">
         <v>13</v>
       </c>
-      <c r="C306" s="59"/>
-      <c r="D306" s="61"/>
-      <c r="E306" s="56"/>
-      <c r="F306" s="56"/>
-      <c r="G306" s="57"/>
-      <c r="H306" s="62"/>
+      <c r="C306" s="59" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D306" s="61" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E306" s="56" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F306" s="56" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="G306" s="57" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="H306" s="62" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="157" t="n">
+      <c r="B307" s="143" t="n">
         <v>14</v>
       </c>
-      <c r="C307" s="59"/>
-      <c r="D307" s="61"/>
-      <c r="E307" s="56"/>
-      <c r="F307" s="56"/>
-      <c r="G307" s="57"/>
-      <c r="H307" s="62"/>
+      <c r="C307" s="59" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D307" s="61" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E307" s="56" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="F307" s="56" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G307" s="57" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="H307" s="62" t="n">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="157" t="n">
+      <c r="B308" s="143" t="n">
         <v>15</v>
       </c>
-      <c r="C308" s="59"/>
-      <c r="D308" s="61"/>
-      <c r="E308" s="56"/>
-      <c r="F308" s="56"/>
-      <c r="G308" s="57"/>
-      <c r="H308" s="62"/>
+      <c r="C308" s="59" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D308" s="61" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E308" s="56" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F308" s="56" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="G308" s="57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="H308" s="62" t="n">
+        <v>33.8</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="157" t="n">
+      <c r="B309" s="143" t="n">
         <v>16</v>
       </c>
-      <c r="C309" s="59"/>
-      <c r="D309" s="61"/>
-      <c r="E309" s="56"/>
-      <c r="F309" s="56"/>
-      <c r="G309" s="57"/>
-      <c r="H309" s="62"/>
+      <c r="C309" s="59" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D309" s="61" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E309" s="56" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="F309" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="G309" s="57" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="H309" s="62" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="157" t="n">
+      <c r="B310" s="143" t="n">
         <v>17</v>
       </c>
-      <c r="C310" s="59"/>
-      <c r="D310" s="61"/>
-      <c r="E310" s="56"/>
-      <c r="F310" s="56"/>
-      <c r="G310" s="57"/>
-      <c r="H310" s="62"/>
+      <c r="C310" s="59" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D310" s="61" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E310" s="56" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F310" s="56" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="G310" s="57" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="H310" s="62" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="157" t="n">
+      <c r="B311" s="143" t="n">
         <v>18</v>
       </c>
-      <c r="C311" s="59"/>
-      <c r="D311" s="61"/>
-      <c r="E311" s="56"/>
-      <c r="F311" s="56"/>
-      <c r="G311" s="57"/>
-      <c r="H311" s="62"/>
+      <c r="C311" s="59" t="n">
+        <v>44</v>
+      </c>
+      <c r="D311" s="61" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E311" s="56" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F311" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="G311" s="57" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="H311" s="62" t="n">
+        <v>32.9</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="157" t="n">
+      <c r="B312" s="143" t="n">
         <v>19</v>
       </c>
-      <c r="C312" s="59"/>
-      <c r="D312" s="61"/>
-      <c r="E312" s="56"/>
-      <c r="F312" s="56"/>
-      <c r="G312" s="57"/>
-      <c r="H312" s="62"/>
+      <c r="C312" s="59" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D312" s="61" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E312" s="56" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F312" s="56" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="G312" s="57" t="n">
+        <v>53</v>
+      </c>
+      <c r="H312" s="62" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="157" t="n">
+      <c r="B313" s="143" t="n">
         <v>20</v>
       </c>
-      <c r="C313" s="59"/>
-      <c r="D313" s="61"/>
-      <c r="E313" s="56"/>
-      <c r="F313" s="56"/>
-      <c r="G313" s="57"/>
-      <c r="H313" s="62"/>
+      <c r="C313" s="59" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D313" s="61" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E313" s="56" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F313" s="56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="G313" s="57" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H313" s="62" t="n">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="157" t="n">
+      <c r="B314" s="143" t="n">
         <v>21</v>
       </c>
-      <c r="C314" s="59"/>
-      <c r="D314" s="61"/>
-      <c r="E314" s="56"/>
-      <c r="F314" s="56"/>
-      <c r="G314" s="57"/>
-      <c r="H314" s="62"/>
+      <c r="C314" s="59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D314" s="61" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E314" s="56" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F314" s="56" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G314" s="57" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="H314" s="62" t="n">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="157" t="n">
+      <c r="B315" s="143" t="n">
         <v>22</v>
       </c>
-      <c r="C315" s="59"/>
-      <c r="D315" s="61"/>
-      <c r="E315" s="56"/>
-      <c r="F315" s="56"/>
-      <c r="G315" s="57"/>
-      <c r="H315" s="62"/>
+      <c r="C315" s="59" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D315" s="61" t="n">
+        <v>20</v>
+      </c>
+      <c r="E315" s="56" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F315" s="56" t="n">
+        <v>27</v>
+      </c>
+      <c r="G315" s="57" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="H315" s="62" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="157" t="n">
+      <c r="B316" s="143" t="n">
         <v>23</v>
       </c>
-      <c r="C316" s="59"/>
-      <c r="D316" s="61"/>
-      <c r="E316" s="56"/>
-      <c r="F316" s="56"/>
-      <c r="G316" s="57"/>
-      <c r="H316" s="62"/>
+      <c r="C316" s="59" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D316" s="61" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E316" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="F316" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="G316" s="57" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="H316" s="62" t="n">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="158" t="n">
+      <c r="B317" s="144" t="n">
         <v>24</v>
       </c>
-      <c r="C317" s="66"/>
-      <c r="D317" s="69"/>
-      <c r="E317" s="68"/>
-      <c r="F317" s="68"/>
-      <c r="G317" s="86"/>
-      <c r="H317" s="70"/>
+      <c r="C317" s="66" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D317" s="69" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E317" s="68" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F317" s="68" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G317" s="86" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H317" s="70" t="n">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="145"/>

--- a/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
+++ b/input/BSIMAC/9.9.0.7.4/RESULTS5-2A.xlsx
@@ -1555,7 +1555,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="174">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2168,10 +2168,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2183,14 +2179,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2344,11 +2332,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A289" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B292" activeCellId="0" sqref="B292"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C262" activeCellId="0" sqref="C262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -7907,33 +7895,79 @@
       <c r="AO261" s="44"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="153" t="n">
+      <c r="B262" s="142" t="n">
         <v>1</v>
       </c>
-      <c r="C262" s="59"/>
-      <c r="D262" s="154"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
-      <c r="G262" s="56"/>
-      <c r="H262" s="56"/>
-      <c r="I262" s="56"/>
-      <c r="J262" s="56"/>
-      <c r="K262" s="154"/>
+      <c r="C262" s="59" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="D262" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" s="56" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="F262" s="56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G262" s="56" t="n">
+        <v>1.186</v>
+      </c>
+      <c r="H262" s="56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I262" s="56" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="J262" s="56" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="K262" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L262" s="56"/>
-      <c r="M262" s="56"/>
-      <c r="N262" s="61"/>
-      <c r="O262" s="56"/>
-      <c r="P262" s="56"/>
-      <c r="Q262" s="56"/>
-      <c r="R262" s="56"/>
-      <c r="S262" s="56"/>
-      <c r="T262" s="56"/>
-      <c r="U262" s="56"/>
-      <c r="V262" s="56"/>
-      <c r="W262" s="56"/>
-      <c r="X262" s="62"/>
-      <c r="Y262" s="155"/>
-      <c r="Z262" s="156"/>
+      <c r="M262" s="56" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="N262" s="61" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="O262" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" s="56" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="S262" s="56" t="n">
+        <v>-0.449</v>
+      </c>
+      <c r="T262" s="56" t="n">
+        <v>-0.422</v>
+      </c>
+      <c r="U262" s="56" t="n">
+        <v>-0.223</v>
+      </c>
+      <c r="V262" s="56" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="W262" s="56" t="n">
+        <v>-0.821</v>
+      </c>
+      <c r="X262" s="62" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="Y262" s="154" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Z262" s="155" t="n">
+        <v>18.1</v>
+      </c>
       <c r="AB262" s="146"/>
       <c r="AC262" s="146"/>
       <c r="AD262" s="125"/>
@@ -7950,715 +7984,1793 @@
       <c r="AO262" s="125"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="157" t="n">
+      <c r="B263" s="143" t="n">
         <v>2</v>
       </c>
-      <c r="C263" s="59"/>
-      <c r="D263" s="154"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="56"/>
-      <c r="G263" s="56"/>
-      <c r="H263" s="56"/>
-      <c r="I263" s="56"/>
-      <c r="J263" s="56"/>
-      <c r="K263" s="154"/>
+      <c r="C263" s="59" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="D263" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="56" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="F263" s="56" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="G263" s="56" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="H263" s="56" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="I263" s="56" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="J263" s="56" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="K263" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L263" s="56"/>
-      <c r="M263" s="56"/>
-      <c r="N263" s="61"/>
-      <c r="O263" s="56"/>
-      <c r="P263" s="56"/>
-      <c r="Q263" s="56"/>
-      <c r="R263" s="56"/>
-      <c r="S263" s="56"/>
-      <c r="T263" s="56"/>
-      <c r="U263" s="56"/>
-      <c r="V263" s="56"/>
-      <c r="W263" s="56"/>
-      <c r="X263" s="62"/>
-      <c r="Y263" s="155"/>
-      <c r="Z263" s="156"/>
+      <c r="M263" s="56" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="N263" s="61" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="O263" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" s="56" t="n">
+        <v>-0.286</v>
+      </c>
+      <c r="T263" s="56" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="U263" s="56" t="n">
+        <v>-0.069</v>
+      </c>
+      <c r="V263" s="56" t="n">
+        <v>-0.119</v>
+      </c>
+      <c r="W263" s="56" t="n">
+        <v>-0.701</v>
+      </c>
+      <c r="X263" s="62" t="n">
+        <v>-0.642</v>
+      </c>
+      <c r="Y263" s="154" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Z263" s="155" t="n">
+        <v>17.7</v>
+      </c>
       <c r="AB263" s="146"/>
       <c r="AC263" s="146"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="157" t="n">
+      <c r="B264" s="143" t="n">
         <v>3</v>
       </c>
-      <c r="C264" s="59"/>
-      <c r="D264" s="154"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="56"/>
-      <c r="G264" s="56"/>
-      <c r="H264" s="56"/>
-      <c r="I264" s="56"/>
-      <c r="J264" s="56"/>
-      <c r="K264" s="154"/>
+      <c r="C264" s="59" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="D264" s="153" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="E264" s="56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F264" s="56" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="G264" s="56" t="n">
+        <v>1.341</v>
+      </c>
+      <c r="H264" s="56" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="I264" s="56" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="J264" s="56" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="K264" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L264" s="56"/>
-      <c r="M264" s="56"/>
-      <c r="N264" s="61"/>
-      <c r="O264" s="56"/>
-      <c r="P264" s="56"/>
-      <c r="Q264" s="56"/>
-      <c r="R264" s="56"/>
-      <c r="S264" s="56"/>
-      <c r="T264" s="56"/>
-      <c r="U264" s="56"/>
-      <c r="V264" s="56"/>
-      <c r="W264" s="56"/>
-      <c r="X264" s="62"/>
-      <c r="Y264" s="155"/>
-      <c r="Z264" s="156"/>
+      <c r="M264" s="56" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="N264" s="61" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="O264" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" s="56" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="T264" s="56" t="n">
+        <v>-0.209</v>
+      </c>
+      <c r="U264" s="56" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="V264" s="56" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="W264" s="56" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="X264" s="62" t="n">
+        <v>-0.541</v>
+      </c>
+      <c r="Y264" s="154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z264" s="155" t="n">
+        <v>17.2</v>
+      </c>
       <c r="AB264" s="146"/>
       <c r="AC264" s="146"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="157" t="n">
+      <c r="B265" s="143" t="n">
         <v>4</v>
       </c>
-      <c r="C265" s="59"/>
-      <c r="D265" s="154"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="56"/>
-      <c r="G265" s="56"/>
-      <c r="H265" s="56"/>
-      <c r="I265" s="56"/>
-      <c r="J265" s="56"/>
-      <c r="K265" s="154"/>
+      <c r="C265" s="59" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="D265" s="153" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="E265" s="56" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F265" s="56" t="n">
+        <v>2.973</v>
+      </c>
+      <c r="G265" s="56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H265" s="56" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="I265" s="56" t="n">
+        <v>1.453</v>
+      </c>
+      <c r="J265" s="56" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="K265" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L265" s="56"/>
-      <c r="M265" s="56"/>
-      <c r="N265" s="61"/>
-      <c r="O265" s="56"/>
-      <c r="P265" s="56"/>
-      <c r="Q265" s="56"/>
-      <c r="R265" s="56"/>
-      <c r="S265" s="56"/>
-      <c r="T265" s="56"/>
-      <c r="U265" s="56"/>
-      <c r="V265" s="56"/>
-      <c r="W265" s="56"/>
-      <c r="X265" s="62"/>
-      <c r="Y265" s="155"/>
-      <c r="Z265" s="156"/>
+      <c r="M265" s="56" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="N265" s="61" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="O265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S265" s="56" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="T265" s="56" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="U265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W265" s="56" t="n">
+        <v>-0.483</v>
+      </c>
+      <c r="X265" s="62" t="n">
+        <v>-0.434</v>
+      </c>
+      <c r="Y265" s="154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z265" s="155" t="n">
+        <v>16.7</v>
+      </c>
       <c r="AB265" s="146"/>
       <c r="AC265" s="146"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="157" t="n">
+      <c r="B266" s="143" t="n">
         <v>5</v>
       </c>
-      <c r="C266" s="59"/>
-      <c r="D266" s="154"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="56"/>
-      <c r="G266" s="56"/>
-      <c r="H266" s="56"/>
-      <c r="I266" s="56"/>
-      <c r="J266" s="56"/>
-      <c r="K266" s="154"/>
+      <c r="C266" s="59" t="n">
+        <v>2.307</v>
+      </c>
+      <c r="D266" s="153" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="E266" s="56" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="F266" s="56" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="G266" s="56" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="H266" s="56" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="I266" s="56" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J266" s="56" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="K266" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L266" s="56"/>
-      <c r="M266" s="56"/>
-      <c r="N266" s="61"/>
-      <c r="O266" s="56"/>
-      <c r="P266" s="56"/>
-      <c r="Q266" s="56"/>
-      <c r="R266" s="56"/>
-      <c r="S266" s="56"/>
-      <c r="T266" s="56"/>
-      <c r="U266" s="56"/>
-      <c r="V266" s="56"/>
-      <c r="W266" s="56"/>
-      <c r="X266" s="62"/>
-      <c r="Y266" s="155"/>
-      <c r="Z266" s="156"/>
+      <c r="M266" s="56" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="N266" s="61" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="O266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" s="56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T266" s="56" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="U266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W266" s="56" t="n">
+        <v>-0.4127</v>
+      </c>
+      <c r="X266" s="62" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="Y266" s="154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z266" s="155" t="n">
+        <v>16.3</v>
+      </c>
       <c r="AB266" s="146"/>
       <c r="AC266" s="146"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="157" t="n">
+      <c r="B267" s="143" t="n">
         <v>6</v>
       </c>
-      <c r="C267" s="59"/>
-      <c r="D267" s="154"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="56"/>
-      <c r="J267" s="56"/>
-      <c r="K267" s="154"/>
-      <c r="L267" s="56"/>
-      <c r="M267" s="56"/>
-      <c r="N267" s="61"/>
-      <c r="O267" s="56"/>
-      <c r="P267" s="56"/>
-      <c r="Q267" s="56"/>
-      <c r="R267" s="56"/>
-      <c r="S267" s="56"/>
-      <c r="T267" s="56"/>
-      <c r="U267" s="56"/>
-      <c r="V267" s="56"/>
-      <c r="W267" s="56"/>
-      <c r="X267" s="62"/>
-      <c r="Y267" s="155"/>
-      <c r="Z267" s="156"/>
+      <c r="C267" s="59" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="D267" s="153" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="E267" s="56" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="F267" s="56" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="G267" s="56" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="H267" s="56" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="I267" s="56" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="J267" s="56" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="K267" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" s="56" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="M267" s="56" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="N267" s="61" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="O267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S267" s="56" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="T267" s="56" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W267" s="56" t="n">
+        <v>-0.4064</v>
+      </c>
+      <c r="X267" s="62" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="Y267" s="154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z267" s="155" t="n">
+        <v>15.8</v>
+      </c>
       <c r="AB267" s="146"/>
       <c r="AC267" s="146"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="157" t="n">
+      <c r="B268" s="143" t="n">
         <v>7</v>
       </c>
-      <c r="C268" s="59"/>
-      <c r="D268" s="154"/>
-      <c r="E268" s="56"/>
-      <c r="F268" s="56"/>
-      <c r="G268" s="56"/>
-      <c r="H268" s="56"/>
-      <c r="I268" s="56"/>
-      <c r="J268" s="56"/>
-      <c r="K268" s="154"/>
-      <c r="L268" s="56"/>
-      <c r="M268" s="56"/>
-      <c r="N268" s="61"/>
-      <c r="O268" s="56"/>
-      <c r="P268" s="56"/>
-      <c r="Q268" s="56"/>
-      <c r="R268" s="56"/>
-      <c r="S268" s="56"/>
-      <c r="T268" s="56"/>
-      <c r="U268" s="56"/>
-      <c r="V268" s="56"/>
-      <c r="W268" s="56"/>
-      <c r="X268" s="62"/>
-      <c r="Y268" s="155"/>
-      <c r="Z268" s="156"/>
+      <c r="C268" s="59" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="D268" s="153" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="E268" s="56" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="F268" s="56" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="G268" s="56" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="H268" s="56" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="I268" s="56" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="J268" s="56" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K268" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" s="56" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="M268" s="56" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="N268" s="61" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="O268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" s="56" t="n">
+        <v>-0.274</v>
+      </c>
+      <c r="T268" s="56" t="n">
+        <v>-0.242</v>
+      </c>
+      <c r="U268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W268" s="56" t="n">
+        <v>-0.5304</v>
+      </c>
+      <c r="X268" s="62" t="n">
+        <v>-0.462</v>
+      </c>
+      <c r="Y268" s="154" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z268" s="155" t="n">
+        <v>15.4</v>
+      </c>
       <c r="AB268" s="146"/>
       <c r="AC268" s="146"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="157" t="n">
+      <c r="B269" s="143" t="n">
         <v>8</v>
       </c>
-      <c r="C269" s="59"/>
-      <c r="D269" s="154"/>
-      <c r="E269" s="56"/>
-      <c r="F269" s="56"/>
-      <c r="G269" s="56"/>
-      <c r="H269" s="56"/>
-      <c r="I269" s="56"/>
-      <c r="J269" s="56"/>
-      <c r="K269" s="154"/>
-      <c r="L269" s="56"/>
-      <c r="M269" s="56"/>
-      <c r="N269" s="61"/>
-      <c r="O269" s="56"/>
-      <c r="P269" s="56"/>
-      <c r="Q269" s="56"/>
-      <c r="R269" s="56"/>
-      <c r="S269" s="56"/>
-      <c r="T269" s="56"/>
-      <c r="U269" s="56"/>
-      <c r="V269" s="56"/>
-      <c r="W269" s="56"/>
-      <c r="X269" s="62"/>
-      <c r="Y269" s="155"/>
-      <c r="Z269" s="156"/>
+      <c r="C269" s="59" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="D269" s="153" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="E269" s="56" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F269" s="56" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="G269" s="56" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="H269" s="56" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="I269" s="56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J269" s="56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K269" s="153" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="L269" s="56" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M269" s="56" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="N269" s="61" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="O269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S269" s="56" t="n">
+        <v>-0.664</v>
+      </c>
+      <c r="T269" s="56" t="n">
+        <v>-0.499</v>
+      </c>
+      <c r="U269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V269" s="56" t="n">
+        <v>-0.071</v>
+      </c>
+      <c r="W269" s="56" t="n">
+        <v>-0.7226</v>
+      </c>
+      <c r="X269" s="62" t="n">
+        <v>-0.626</v>
+      </c>
+      <c r="Y269" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z269" s="155" t="n">
+        <v>17.6</v>
+      </c>
       <c r="AB269" s="146"/>
       <c r="AC269" s="146"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="157" t="n">
+      <c r="B270" s="143" t="n">
         <v>9</v>
       </c>
-      <c r="C270" s="59"/>
-      <c r="D270" s="154"/>
-      <c r="E270" s="56"/>
-      <c r="F270" s="56"/>
-      <c r="G270" s="56"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="56"/>
-      <c r="J270" s="56"/>
-      <c r="K270" s="154"/>
+      <c r="C270" s="59" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="D270" s="153" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E270" s="56" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="F270" s="56" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="G270" s="56" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="H270" s="56" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="I270" s="56" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="J270" s="56" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="K270" s="153" t="n">
+        <v>1.669</v>
+      </c>
       <c r="L270" s="56"/>
-      <c r="M270" s="56"/>
-      <c r="N270" s="61"/>
-      <c r="O270" s="56"/>
-      <c r="P270" s="56"/>
-      <c r="Q270" s="56"/>
-      <c r="R270" s="56"/>
-      <c r="S270" s="56"/>
-      <c r="T270" s="56"/>
-      <c r="U270" s="56"/>
-      <c r="V270" s="56"/>
-      <c r="W270" s="56"/>
-      <c r="X270" s="62"/>
-      <c r="Y270" s="155"/>
-      <c r="Z270" s="156"/>
+      <c r="M270" s="56" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="N270" s="61" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O270" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" s="56" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="T270" s="56" t="n">
+        <v>-0.773</v>
+      </c>
+      <c r="U270" s="56" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="V270" s="56" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="W270" s="56" t="n">
+        <v>-0.9494</v>
+      </c>
+      <c r="X270" s="62" t="n">
+        <v>-0.811</v>
+      </c>
+      <c r="Y270" s="154" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z270" s="155" t="n">
+        <v>20</v>
+      </c>
       <c r="AB270" s="146"/>
       <c r="AC270" s="146"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="157" t="n">
+      <c r="B271" s="143" t="n">
         <v>10</v>
       </c>
-      <c r="C271" s="59"/>
-      <c r="D271" s="154"/>
-      <c r="E271" s="56"/>
-      <c r="F271" s="56"/>
-      <c r="G271" s="56"/>
-      <c r="H271" s="56"/>
-      <c r="I271" s="56"/>
-      <c r="J271" s="56"/>
-      <c r="K271" s="154"/>
+      <c r="C271" s="59" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="D271" s="153" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E271" s="56" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F271" s="56" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="G271" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="56" t="n">
+        <v>-0.479</v>
+      </c>
+      <c r="I271" s="56" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="J271" s="56" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="K271" s="153" t="n">
+        <v>0.62</v>
+      </c>
       <c r="L271" s="56"/>
-      <c r="M271" s="56"/>
-      <c r="N271" s="61"/>
-      <c r="O271" s="56"/>
-      <c r="P271" s="56"/>
-      <c r="Q271" s="56"/>
-      <c r="R271" s="56"/>
-      <c r="S271" s="56"/>
-      <c r="T271" s="56"/>
-      <c r="U271" s="56"/>
-      <c r="V271" s="56"/>
-      <c r="W271" s="56"/>
-      <c r="X271" s="62"/>
-      <c r="Y271" s="155"/>
-      <c r="Z271" s="156"/>
+      <c r="M271" s="56" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="N271" s="61" t="n">
+        <v>-0.675</v>
+      </c>
+      <c r="O271" s="56" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="P271" s="56" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="Q271" s="56" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="R271" s="56" t="n">
+        <v>-0.291</v>
+      </c>
+      <c r="S271" s="56" t="n">
+        <v>-1.499</v>
+      </c>
+      <c r="T271" s="56" t="n">
+        <v>-1.133</v>
+      </c>
+      <c r="U271" s="56" t="n">
+        <v>-0.453</v>
+      </c>
+      <c r="V271" s="56" t="n">
+        <v>-0.487</v>
+      </c>
+      <c r="W271" s="56" t="n">
+        <v>-1.26325</v>
+      </c>
+      <c r="X271" s="62" t="n">
+        <v>-1.077</v>
+      </c>
+      <c r="Y271" s="154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z271" s="155" t="n">
+        <v>20</v>
+      </c>
       <c r="AB271" s="146"/>
       <c r="AC271" s="146"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="157" t="n">
+      <c r="B272" s="143" t="n">
         <v>11</v>
       </c>
-      <c r="C272" s="59"/>
-      <c r="D272" s="154"/>
-      <c r="E272" s="56"/>
-      <c r="F272" s="56"/>
-      <c r="G272" s="56"/>
-      <c r="H272" s="56"/>
-      <c r="I272" s="56"/>
-      <c r="J272" s="56"/>
-      <c r="K272" s="154"/>
+      <c r="C272" s="59" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="D272" s="153" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="E272" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="56" t="n">
+        <v>-0.759</v>
+      </c>
+      <c r="H272" s="56" t="n">
+        <v>-1.956</v>
+      </c>
+      <c r="I272" s="56" t="n">
+        <v>-2.496</v>
+      </c>
+      <c r="J272" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="153" t="n">
+        <v>0.047</v>
+      </c>
       <c r="L272" s="56"/>
-      <c r="M272" s="56"/>
-      <c r="N272" s="61"/>
-      <c r="O272" s="56"/>
-      <c r="P272" s="56"/>
-      <c r="Q272" s="56"/>
-      <c r="R272" s="56"/>
-      <c r="S272" s="56"/>
-      <c r="T272" s="56"/>
-      <c r="U272" s="56"/>
-      <c r="V272" s="56"/>
-      <c r="W272" s="56"/>
-      <c r="X272" s="62"/>
-      <c r="Y272" s="155"/>
-      <c r="Z272" s="156"/>
+      <c r="M272" s="56" t="n">
+        <v>-0.822</v>
+      </c>
+      <c r="N272" s="61" t="n">
+        <v>-1.617</v>
+      </c>
+      <c r="O272" s="56" t="n">
+        <v>-1.246</v>
+      </c>
+      <c r="P272" s="56" t="n">
+        <v>-0.797</v>
+      </c>
+      <c r="Q272" s="56" t="n">
+        <v>-1.402</v>
+      </c>
+      <c r="R272" s="56" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="S272" s="56" t="n">
+        <v>-2.125</v>
+      </c>
+      <c r="T272" s="56" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="U272" s="56" t="n">
+        <v>-0.771</v>
+      </c>
+      <c r="V272" s="56" t="n">
+        <v>-0.832</v>
+      </c>
+      <c r="W272" s="56" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="X272" s="62" t="n">
+        <v>-1.447</v>
+      </c>
+      <c r="Y272" s="154" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Z272" s="155" t="n">
+        <v>20.7</v>
+      </c>
       <c r="AB272" s="146"/>
       <c r="AC272" s="146"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="157" t="n">
+      <c r="B273" s="143" t="n">
         <v>12</v>
       </c>
-      <c r="C273" s="59"/>
-      <c r="D273" s="154"/>
-      <c r="E273" s="56"/>
-      <c r="F273" s="56"/>
-      <c r="G273" s="56"/>
-      <c r="H273" s="56"/>
-      <c r="I273" s="56"/>
-      <c r="J273" s="56"/>
-      <c r="K273" s="154"/>
-      <c r="L273" s="56"/>
-      <c r="M273" s="56"/>
-      <c r="N273" s="61"/>
-      <c r="O273" s="56"/>
-      <c r="P273" s="56"/>
-      <c r="Q273" s="56"/>
-      <c r="R273" s="56"/>
-      <c r="S273" s="56"/>
-      <c r="T273" s="56"/>
-      <c r="U273" s="56"/>
-      <c r="V273" s="56"/>
-      <c r="W273" s="56"/>
-      <c r="X273" s="62"/>
-      <c r="Y273" s="155"/>
-      <c r="Z273" s="156"/>
+      <c r="C273" s="59" t="n">
+        <v>-1.616</v>
+      </c>
+      <c r="D273" s="153" t="n">
+        <v>-1.581</v>
+      </c>
+      <c r="E273" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" s="56" t="n">
+        <v>-1.564</v>
+      </c>
+      <c r="G273" s="56" t="n">
+        <v>-2.604</v>
+      </c>
+      <c r="H273" s="56" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="I273" s="56" t="n">
+        <v>-3.726</v>
+      </c>
+      <c r="J273" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" s="56" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="M273" s="56" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="N273" s="61" t="n">
+        <v>-2.518</v>
+      </c>
+      <c r="O273" s="56" t="n">
+        <v>-2.078</v>
+      </c>
+      <c r="P273" s="56" t="n">
+        <v>-1.474</v>
+      </c>
+      <c r="Q273" s="56" t="n">
+        <v>-2.485</v>
+      </c>
+      <c r="R273" s="56" t="n">
+        <v>-1.632</v>
+      </c>
+      <c r="S273" s="56" t="n">
+        <v>-2.709</v>
+      </c>
+      <c r="T273" s="56" t="n">
+        <v>-2.108</v>
+      </c>
+      <c r="U273" s="56" t="n">
+        <v>-1.234</v>
+      </c>
+      <c r="V273" s="56" t="n">
+        <v>-1.184</v>
+      </c>
+      <c r="W273" s="56" t="n">
+        <v>-2.024</v>
+      </c>
+      <c r="X273" s="62" t="n">
+        <v>-1.687</v>
+      </c>
+      <c r="Y273" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z273" s="155" t="n">
+        <v>22.2</v>
+      </c>
       <c r="AB273" s="146"/>
       <c r="AC273" s="146"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="157" t="n">
+      <c r="B274" s="143" t="n">
         <v>13</v>
       </c>
-      <c r="C274" s="59"/>
-      <c r="D274" s="154"/>
-      <c r="E274" s="56"/>
-      <c r="F274" s="56"/>
-      <c r="G274" s="56"/>
-      <c r="H274" s="56"/>
-      <c r="I274" s="56"/>
-      <c r="J274" s="56"/>
-      <c r="K274" s="154"/>
-      <c r="L274" s="56"/>
-      <c r="M274" s="56"/>
-      <c r="N274" s="61"/>
-      <c r="O274" s="56"/>
-      <c r="P274" s="56"/>
-      <c r="Q274" s="56"/>
-      <c r="R274" s="56"/>
-      <c r="S274" s="56"/>
-      <c r="T274" s="56"/>
-      <c r="U274" s="56"/>
-      <c r="V274" s="56"/>
-      <c r="W274" s="56"/>
-      <c r="X274" s="62"/>
-      <c r="Y274" s="155"/>
-      <c r="Z274" s="156"/>
+      <c r="C274" s="59" t="n">
+        <v>-3.561</v>
+      </c>
+      <c r="D274" s="153" t="n">
+        <v>-3.487</v>
+      </c>
+      <c r="E274" s="56" t="n">
+        <v>-0.545</v>
+      </c>
+      <c r="F274" s="56" t="n">
+        <v>-3.679</v>
+      </c>
+      <c r="G274" s="56" t="n">
+        <v>-4.128</v>
+      </c>
+      <c r="H274" s="56" t="n">
+        <v>-4.289</v>
+      </c>
+      <c r="I274" s="56" t="n">
+        <v>-4.673</v>
+      </c>
+      <c r="J274" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" s="56" t="n">
+        <v>-0.668</v>
+      </c>
+      <c r="M274" s="56" t="n">
+        <v>-2.381</v>
+      </c>
+      <c r="N274" s="61" t="n">
+        <v>-3.021</v>
+      </c>
+      <c r="O274" s="56" t="n">
+        <v>-2.457</v>
+      </c>
+      <c r="P274" s="56" t="n">
+        <v>-1.707</v>
+      </c>
+      <c r="Q274" s="56" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="R274" s="56" t="n">
+        <v>-2.018</v>
+      </c>
+      <c r="S274" s="56" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="T274" s="56" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="U274" s="56" t="n">
+        <v>-1.545</v>
+      </c>
+      <c r="V274" s="56" t="n">
+        <v>-1.422</v>
+      </c>
+      <c r="W274" s="56" t="n">
+        <v>-2.243</v>
+      </c>
+      <c r="X274" s="62" t="n">
+        <v>-1.884</v>
+      </c>
+      <c r="Y274" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z274" s="155" t="n">
+        <v>23.9</v>
+      </c>
       <c r="AB274" s="146"/>
       <c r="AC274" s="146"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="157" t="n">
+      <c r="B275" s="143" t="n">
         <v>14</v>
       </c>
-      <c r="C275" s="59"/>
-      <c r="D275" s="154"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
-      <c r="G275" s="56"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="56"/>
-      <c r="J275" s="56"/>
-      <c r="K275" s="154"/>
-      <c r="L275" s="56"/>
-      <c r="M275" s="56"/>
-      <c r="N275" s="61"/>
-      <c r="O275" s="56"/>
-      <c r="P275" s="56"/>
-      <c r="Q275" s="56"/>
-      <c r="R275" s="56"/>
-      <c r="S275" s="56"/>
-      <c r="T275" s="56"/>
-      <c r="U275" s="56"/>
-      <c r="V275" s="56"/>
-      <c r="W275" s="56"/>
-      <c r="X275" s="62"/>
-      <c r="Y275" s="155"/>
-      <c r="Z275" s="156"/>
+      <c r="C275" s="59" t="n">
+        <v>-4.028</v>
+      </c>
+      <c r="D275" s="153" t="n">
+        <v>-3.945</v>
+      </c>
+      <c r="E275" s="56" t="n">
+        <v>-1.376</v>
+      </c>
+      <c r="F275" s="56" t="n">
+        <v>-4.214</v>
+      </c>
+      <c r="G275" s="56" t="n">
+        <v>-4.575</v>
+      </c>
+      <c r="H275" s="56" t="n">
+        <v>-4.731</v>
+      </c>
+      <c r="I275" s="56" t="n">
+        <v>-5.066</v>
+      </c>
+      <c r="J275" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" s="56" t="n">
+        <v>-1.302</v>
+      </c>
+      <c r="M275" s="56" t="n">
+        <v>-2.566</v>
+      </c>
+      <c r="N275" s="61" t="n">
+        <v>-3.186</v>
+      </c>
+      <c r="O275" s="56" t="n">
+        <v>-2.618</v>
+      </c>
+      <c r="P275" s="56" t="n">
+        <v>-1.809</v>
+      </c>
+      <c r="Q275" s="56" t="n">
+        <v>-3.234</v>
+      </c>
+      <c r="R275" s="56" t="n">
+        <v>-2.189</v>
+      </c>
+      <c r="S275" s="56" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="T275" s="56" t="n">
+        <v>-2.649</v>
+      </c>
+      <c r="U275" s="56" t="n">
+        <v>-1.667</v>
+      </c>
+      <c r="V275" s="56" t="n">
+        <v>-1.553</v>
+      </c>
+      <c r="W275" s="56" t="n">
+        <v>-2.346</v>
+      </c>
+      <c r="X275" s="62" t="n">
+        <v>-1.984</v>
+      </c>
+      <c r="Y275" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z275" s="155" t="n">
+        <v>25.2</v>
+      </c>
       <c r="AB275" s="146"/>
       <c r="AC275" s="146"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="157" t="n">
+      <c r="B276" s="143" t="n">
         <v>15</v>
       </c>
-      <c r="C276" s="59"/>
-      <c r="D276" s="154"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="56"/>
-      <c r="G276" s="56"/>
-      <c r="H276" s="56"/>
-      <c r="I276" s="56"/>
-      <c r="J276" s="56"/>
-      <c r="K276" s="154"/>
-      <c r="L276" s="56"/>
-      <c r="M276" s="56"/>
-      <c r="N276" s="61"/>
-      <c r="O276" s="56"/>
-      <c r="P276" s="56"/>
-      <c r="Q276" s="56"/>
-      <c r="R276" s="56"/>
-      <c r="S276" s="56"/>
-      <c r="T276" s="56"/>
-      <c r="U276" s="56"/>
-      <c r="V276" s="56"/>
-      <c r="W276" s="56"/>
-      <c r="X276" s="62"/>
-      <c r="Y276" s="155"/>
-      <c r="Z276" s="156"/>
+      <c r="C276" s="59" t="n">
+        <v>-3.839</v>
+      </c>
+      <c r="D276" s="153" t="n">
+        <v>-3.759</v>
+      </c>
+      <c r="E276" s="56" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F276" s="56" t="n">
+        <v>-3.989</v>
+      </c>
+      <c r="G276" s="56" t="n">
+        <v>-4.445</v>
+      </c>
+      <c r="H276" s="56" t="n">
+        <v>-4.545</v>
+      </c>
+      <c r="I276" s="56" t="n">
+        <v>-4.931</v>
+      </c>
+      <c r="J276" s="56" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="K276" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" s="56" t="n">
+        <v>-1.555</v>
+      </c>
+      <c r="M276" s="56" t="n">
+        <v>-2.464</v>
+      </c>
+      <c r="N276" s="61" t="n">
+        <v>-3.042</v>
+      </c>
+      <c r="O276" s="56" t="n">
+        <v>-2.588</v>
+      </c>
+      <c r="P276" s="56" t="n">
+        <v>-1.824</v>
+      </c>
+      <c r="Q276" s="56" t="n">
+        <v>-3.202</v>
+      </c>
+      <c r="R276" s="56" t="n">
+        <v>-2.124</v>
+      </c>
+      <c r="S276" s="56" t="n">
+        <v>-3.208</v>
+      </c>
+      <c r="T276" s="56" t="n">
+        <v>-2.582</v>
+      </c>
+      <c r="U276" s="56" t="n">
+        <v>-1.652</v>
+      </c>
+      <c r="V276" s="56" t="n">
+        <v>-1.593</v>
+      </c>
+      <c r="W276" s="56" t="n">
+        <v>-2.342</v>
+      </c>
+      <c r="X276" s="62" t="n">
+        <v>-1.971</v>
+      </c>
+      <c r="Y276" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z276" s="155" t="n">
+        <v>25.9</v>
+      </c>
       <c r="AB276" s="146"/>
       <c r="AC276" s="146"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="157" t="n">
+      <c r="B277" s="143" t="n">
         <v>16</v>
       </c>
-      <c r="C277" s="59"/>
-      <c r="D277" s="154"/>
-      <c r="E277" s="56"/>
-      <c r="F277" s="56"/>
-      <c r="G277" s="56"/>
-      <c r="H277" s="56"/>
-      <c r="I277" s="56"/>
-      <c r="J277" s="56"/>
-      <c r="K277" s="154"/>
-      <c r="L277" s="56"/>
-      <c r="M277" s="56"/>
-      <c r="N277" s="61"/>
-      <c r="O277" s="56"/>
-      <c r="P277" s="56"/>
-      <c r="Q277" s="56"/>
-      <c r="R277" s="56"/>
-      <c r="S277" s="56"/>
-      <c r="T277" s="56"/>
-      <c r="U277" s="56"/>
-      <c r="V277" s="56"/>
-      <c r="W277" s="56"/>
-      <c r="X277" s="62"/>
-      <c r="Y277" s="155"/>
-      <c r="Z277" s="156"/>
+      <c r="C277" s="59" t="n">
+        <v>-3.244</v>
+      </c>
+      <c r="D277" s="153" t="n">
+        <v>-3.243</v>
+      </c>
+      <c r="E277" s="56" t="n">
+        <v>-1.192</v>
+      </c>
+      <c r="F277" s="56" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G277" s="56" t="n">
+        <v>-3.918</v>
+      </c>
+      <c r="H277" s="56" t="n">
+        <v>-3.952</v>
+      </c>
+      <c r="I277" s="56" t="n">
+        <v>-4.405</v>
+      </c>
+      <c r="J277" s="56" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="K277" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" s="56" t="n">
+        <v>-1.453</v>
+      </c>
+      <c r="M277" s="56" t="n">
+        <v>-2.206</v>
+      </c>
+      <c r="N277" s="61" t="n">
+        <v>-2.718</v>
+      </c>
+      <c r="O277" s="56" t="n">
+        <v>-2.388</v>
+      </c>
+      <c r="P277" s="56" t="n">
+        <v>-1.741</v>
+      </c>
+      <c r="Q277" s="56" t="n">
+        <v>-2.922</v>
+      </c>
+      <c r="R277" s="56" t="n">
+        <v>-1.896</v>
+      </c>
+      <c r="S277" s="56" t="n">
+        <v>-3.006</v>
+      </c>
+      <c r="T277" s="56" t="n">
+        <v>-2.354</v>
+      </c>
+      <c r="U277" s="56" t="n">
+        <v>-1.581</v>
+      </c>
+      <c r="V277" s="56" t="n">
+        <v>-1.517</v>
+      </c>
+      <c r="W277" s="56" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="X277" s="62" t="n">
+        <v>-1.872</v>
+      </c>
+      <c r="Y277" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z277" s="155" t="n">
+        <v>25.8</v>
+      </c>
       <c r="AB277" s="146"/>
       <c r="AC277" s="146"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="157" t="n">
+      <c r="B278" s="143" t="n">
         <v>17</v>
       </c>
-      <c r="C278" s="59"/>
-      <c r="D278" s="154"/>
-      <c r="E278" s="56"/>
-      <c r="F278" s="56"/>
-      <c r="G278" s="56"/>
-      <c r="H278" s="56"/>
-      <c r="I278" s="56"/>
-      <c r="J278" s="56"/>
-      <c r="K278" s="154"/>
-      <c r="L278" s="56"/>
-      <c r="M278" s="56"/>
-      <c r="N278" s="61"/>
-      <c r="O278" s="56"/>
-      <c r="P278" s="56"/>
-      <c r="Q278" s="56"/>
-      <c r="R278" s="56"/>
-      <c r="S278" s="56"/>
-      <c r="T278" s="56"/>
-      <c r="U278" s="56"/>
-      <c r="V278" s="56"/>
-      <c r="W278" s="56"/>
-      <c r="X278" s="62"/>
-      <c r="Y278" s="155"/>
-      <c r="Z278" s="156"/>
+      <c r="C278" s="59" t="n">
+        <v>-2.197</v>
+      </c>
+      <c r="D278" s="153" t="n">
+        <v>-2.215</v>
+      </c>
+      <c r="E278" s="56" t="n">
+        <v>-0.576</v>
+      </c>
+      <c r="F278" s="56" t="n">
+        <v>-2.176</v>
+      </c>
+      <c r="G278" s="56" t="n">
+        <v>-2.906</v>
+      </c>
+      <c r="H278" s="56" t="n">
+        <v>-2.904</v>
+      </c>
+      <c r="I278" s="56" t="n">
+        <v>-3.392</v>
+      </c>
+      <c r="J278" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" s="56" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="M278" s="56" t="n">
+        <v>-1.521</v>
+      </c>
+      <c r="N278" s="61" t="n">
+        <v>-2.122</v>
+      </c>
+      <c r="O278" s="56" t="n">
+        <v>-2.096</v>
+      </c>
+      <c r="P278" s="56" t="n">
+        <v>-1.567</v>
+      </c>
+      <c r="Q278" s="56" t="n">
+        <v>-2.521</v>
+      </c>
+      <c r="R278" s="56" t="n">
+        <v>-1.645</v>
+      </c>
+      <c r="S278" s="56" t="n">
+        <v>-2.716</v>
+      </c>
+      <c r="T278" s="56" t="n">
+        <v>-2.106</v>
+      </c>
+      <c r="U278" s="56" t="n">
+        <v>-1.472</v>
+      </c>
+      <c r="V278" s="56" t="n">
+        <v>-1.417</v>
+      </c>
+      <c r="W278" s="56" t="n">
+        <v>-2.131</v>
+      </c>
+      <c r="X278" s="62" t="n">
+        <v>-1.763</v>
+      </c>
+      <c r="Y278" s="154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z278" s="155" t="n">
+        <v>24.6</v>
+      </c>
       <c r="AB278" s="146"/>
       <c r="AC278" s="146"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="157" t="n">
+      <c r="B279" s="143" t="n">
         <v>18</v>
       </c>
-      <c r="C279" s="59"/>
-      <c r="D279" s="154"/>
-      <c r="E279" s="56"/>
-      <c r="F279" s="56"/>
-      <c r="G279" s="56"/>
-      <c r="H279" s="56"/>
-      <c r="I279" s="56"/>
-      <c r="J279" s="56"/>
-      <c r="K279" s="154"/>
-      <c r="L279" s="56"/>
-      <c r="M279" s="56"/>
-      <c r="N279" s="61"/>
-      <c r="O279" s="56"/>
-      <c r="P279" s="56"/>
-      <c r="Q279" s="56"/>
-      <c r="R279" s="56"/>
-      <c r="S279" s="56"/>
-      <c r="T279" s="56"/>
-      <c r="U279" s="56"/>
-      <c r="V279" s="56"/>
-      <c r="W279" s="56"/>
-      <c r="X279" s="62"/>
-      <c r="Y279" s="155"/>
-      <c r="Z279" s="156"/>
+      <c r="C279" s="59" t="n">
+        <v>-0.779</v>
+      </c>
+      <c r="D279" s="153" t="n">
+        <v>-0.786</v>
+      </c>
+      <c r="E279" s="56" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="F279" s="56" t="n">
+        <v>-0.736</v>
+      </c>
+      <c r="G279" s="56" t="n">
+        <v>-1.436</v>
+      </c>
+      <c r="H279" s="56" t="n">
+        <v>-1.365</v>
+      </c>
+      <c r="I279" s="56" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="J279" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" s="56" t="n">
+        <v>-0.092</v>
+      </c>
+      <c r="M279" s="56" t="n">
+        <v>-0.817</v>
+      </c>
+      <c r="N279" s="61" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="O279" s="56" t="n">
+        <v>-1.763</v>
+      </c>
+      <c r="P279" s="56" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="Q279" s="56" t="n">
+        <v>-2.084</v>
+      </c>
+      <c r="R279" s="56" t="n">
+        <v>-1.403</v>
+      </c>
+      <c r="S279" s="56" t="n">
+        <v>-2.389</v>
+      </c>
+      <c r="T279" s="56" t="n">
+        <v>-1.864</v>
+      </c>
+      <c r="U279" s="56" t="n">
+        <v>-1.343</v>
+      </c>
+      <c r="V279" s="56" t="n">
+        <v>-1.284</v>
+      </c>
+      <c r="W279" s="56" t="n">
+        <v>-1.988</v>
+      </c>
+      <c r="X279" s="62" t="n">
+        <v>-1.643</v>
+      </c>
+      <c r="Y279" s="154" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Z279" s="155" t="n">
+        <v>23.2</v>
+      </c>
       <c r="AB279" s="146"/>
       <c r="AC279" s="146"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="157" t="n">
+      <c r="B280" s="143" t="n">
         <v>19</v>
       </c>
-      <c r="C280" s="59"/>
-      <c r="D280" s="154"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="56"/>
-      <c r="G280" s="56"/>
-      <c r="H280" s="56"/>
-      <c r="I280" s="56"/>
-      <c r="J280" s="56"/>
-      <c r="K280" s="154"/>
+      <c r="C280" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" s="56" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="H280" s="56" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="I280" s="56" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="J280" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L280" s="56"/>
-      <c r="M280" s="56"/>
-      <c r="N280" s="61"/>
-      <c r="O280" s="56"/>
-      <c r="P280" s="56"/>
-      <c r="Q280" s="56"/>
-      <c r="R280" s="56"/>
-      <c r="S280" s="56"/>
-      <c r="T280" s="56"/>
-      <c r="U280" s="56"/>
-      <c r="V280" s="56"/>
-      <c r="W280" s="56"/>
-      <c r="X280" s="62"/>
-      <c r="Y280" s="155"/>
-      <c r="Z280" s="156"/>
+      <c r="M280" s="56" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="N280" s="61" t="n">
+        <v>-0.788</v>
+      </c>
+      <c r="O280" s="56" t="n">
+        <v>-1.404</v>
+      </c>
+      <c r="P280" s="56" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="Q280" s="56" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="R280" s="56" t="n">
+        <v>-1.131</v>
+      </c>
+      <c r="S280" s="56" t="n">
+        <v>-2.036</v>
+      </c>
+      <c r="T280" s="56" t="n">
+        <v>-1.593</v>
+      </c>
+      <c r="U280" s="56" t="n">
+        <v>-1.201</v>
+      </c>
+      <c r="V280" s="56" t="n">
+        <v>-1.121</v>
+      </c>
+      <c r="W280" s="56" t="n">
+        <v>-1.807</v>
+      </c>
+      <c r="X280" s="62" t="n">
+        <v>-1.479</v>
+      </c>
+      <c r="Y280" s="154" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="Z280" s="155" t="n">
+        <v>22.2</v>
+      </c>
       <c r="AB280" s="146"/>
       <c r="AC280" s="146"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="157" t="n">
+      <c r="B281" s="143" t="n">
         <v>20</v>
       </c>
-      <c r="C281" s="59"/>
-      <c r="D281" s="154"/>
-      <c r="E281" s="56"/>
-      <c r="F281" s="56"/>
-      <c r="G281" s="56"/>
-      <c r="H281" s="56"/>
-      <c r="I281" s="56"/>
-      <c r="J281" s="56"/>
-      <c r="K281" s="154"/>
+      <c r="C281" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="56" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F281" s="56" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="G281" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="56" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I281" s="56" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J281" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L281" s="56"/>
-      <c r="M281" s="56"/>
-      <c r="N281" s="61"/>
-      <c r="O281" s="56"/>
-      <c r="P281" s="56"/>
-      <c r="Q281" s="56"/>
-      <c r="R281" s="56"/>
-      <c r="S281" s="56"/>
-      <c r="T281" s="56"/>
-      <c r="U281" s="56"/>
-      <c r="V281" s="56"/>
-      <c r="W281" s="56"/>
-      <c r="X281" s="62"/>
-      <c r="Y281" s="155"/>
-      <c r="Z281" s="156"/>
+      <c r="M281" s="56" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="N281" s="61" t="n">
+        <v>-0.385</v>
+      </c>
+      <c r="O281" s="56" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="P281" s="56" t="n">
+        <v>-0.775</v>
+      </c>
+      <c r="Q281" s="56" t="n">
+        <v>-1.128</v>
+      </c>
+      <c r="R281" s="56" t="n">
+        <v>-0.832</v>
+      </c>
+      <c r="S281" s="56" t="n">
+        <v>-1.631</v>
+      </c>
+      <c r="T281" s="56" t="n">
+        <v>-1.295</v>
+      </c>
+      <c r="U281" s="56" t="n">
+        <v>-1.018</v>
+      </c>
+      <c r="V281" s="56" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="W281" s="56" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="X281" s="62" t="n">
+        <v>-1.294</v>
+      </c>
+      <c r="Y281" s="154" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Z281" s="155" t="n">
+        <v>21.4</v>
+      </c>
       <c r="AB281" s="146"/>
       <c r="AC281" s="146"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="157" t="n">
+      <c r="B282" s="143" t="n">
         <v>21</v>
       </c>
-      <c r="C282" s="59"/>
-      <c r="D282" s="154"/>
-      <c r="E282" s="56"/>
-      <c r="F282" s="56"/>
-      <c r="G282" s="56"/>
-      <c r="H282" s="56"/>
-      <c r="I282" s="56"/>
-      <c r="J282" s="56"/>
-      <c r="K282" s="154"/>
+      <c r="C282" s="59" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D282" s="153" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="E282" s="56" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F282" s="56" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="G282" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="56" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="I282" s="56" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="J282" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="153" t="n">
+        <v>0</v>
+      </c>
       <c r="L282" s="56"/>
-      <c r="M282" s="56"/>
-      <c r="N282" s="61"/>
-      <c r="O282" s="56"/>
-      <c r="P282" s="56"/>
-      <c r="Q282" s="56"/>
-      <c r="R282" s="56"/>
-      <c r="S282" s="56"/>
-      <c r="T282" s="56"/>
-      <c r="U282" s="56"/>
-      <c r="V282" s="56"/>
-      <c r="W282" s="56"/>
-      <c r="X282" s="62"/>
-      <c r="Y282" s="155"/>
-      <c r="Z282" s="156"/>
+      <c r="M282" s="56" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N282" s="61" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O282" s="56" t="n">
+        <v>-0.593</v>
+      </c>
+      <c r="P282" s="56" t="n">
+        <v>-0.461</v>
+      </c>
+      <c r="Q282" s="56" t="n">
+        <v>-0.642</v>
+      </c>
+      <c r="R282" s="56" t="n">
+        <v>-0.555</v>
+      </c>
+      <c r="S282" s="56" t="n">
+        <v>-1.237</v>
+      </c>
+      <c r="T282" s="56" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U282" s="56" t="n">
+        <v>-0.832</v>
+      </c>
+      <c r="V282" s="56" t="n">
+        <v>-0.788</v>
+      </c>
+      <c r="W282" s="56" t="n">
+        <v>-1.433</v>
+      </c>
+      <c r="X282" s="62" t="n">
+        <v>-1.135</v>
+      </c>
+      <c r="Y282" s="154" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z282" s="155" t="n">
+        <v>20.8</v>
+      </c>
       <c r="AB282" s="146"/>
       <c r="AC282" s="146"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="157" t="n">
+      <c r="B283" s="143" t="n">
         <v>22</v>
       </c>
-      <c r="C283" s="59"/>
-      <c r="D283" s="154"/>
-      <c r="E283" s="56"/>
-      <c r="F283" s="56"/>
-      <c r="G283" s="56"/>
-      <c r="H283" s="56"/>
-      <c r="I283" s="56"/>
-      <c r="J283" s="56"/>
-      <c r="K283" s="154"/>
+      <c r="C283" s="59" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="D283" s="153" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="E283" s="56" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="F283" s="56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G283" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="56" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="I283" s="56" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="J283" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="153" t="n">
+        <v>0.041</v>
+      </c>
       <c r="L283" s="56"/>
-      <c r="M283" s="56"/>
-      <c r="N283" s="61"/>
-      <c r="O283" s="56"/>
-      <c r="P283" s="56"/>
-      <c r="Q283" s="56"/>
-      <c r="R283" s="56"/>
-      <c r="S283" s="56"/>
-      <c r="T283" s="56"/>
-      <c r="U283" s="56"/>
-      <c r="V283" s="56"/>
-      <c r="W283" s="56"/>
-      <c r="X283" s="62"/>
-      <c r="Y283" s="155"/>
-      <c r="Z283" s="156"/>
+      <c r="M283" s="56" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="N283" s="61" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="O283" s="56" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="P283" s="56" t="n">
+        <v>-0.247</v>
+      </c>
+      <c r="Q283" s="56" t="n">
+        <v>-0.314</v>
+      </c>
+      <c r="R283" s="56" t="n">
+        <v>-0.363</v>
+      </c>
+      <c r="S283" s="56" t="n">
+        <v>-0.974</v>
+      </c>
+      <c r="T283" s="56" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="U283" s="56" t="n">
+        <v>-0.661</v>
+      </c>
+      <c r="V283" s="56" t="n">
+        <v>-0.638</v>
+      </c>
+      <c r="W283" s="56" t="n">
+        <v>-1.281</v>
+      </c>
+      <c r="X283" s="62" t="n">
+        <v>-1.041</v>
+      </c>
+      <c r="Y283" s="154" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z283" s="155" t="n">
+        <v>20.2</v>
+      </c>
       <c r="AB283" s="146"/>
       <c r="AC283" s="146"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="157" t="n">
+      <c r="B284" s="143" t="n">
         <v>23</v>
       </c>
-      <c r="C284" s="59"/>
-      <c r="D284" s="154"/>
-      <c r="E284" s="56"/>
-      <c r="F284" s="56"/>
-      <c r="G284" s="56"/>
-      <c r="H284" s="56"/>
-      <c r="I284" s="56"/>
-      <c r="J284" s="56"/>
-      <c r="K284" s="154"/>
+      <c r="C284" s="59" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D284" s="153" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E284" s="56" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="F284" s="56" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="G284" s="56" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H284" s="56" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="I284" s="56" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="J284" s="56" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K284" s="153" t="n">
+        <v>0.243</v>
+      </c>
       <c r="L284" s="56"/>
-      <c r="M284" s="56"/>
-      <c r="N284" s="61"/>
-      <c r="O284" s="56"/>
-      <c r="P284" s="56"/>
-      <c r="Q284" s="56"/>
-      <c r="R284" s="56"/>
-      <c r="S284" s="56"/>
-      <c r="T284" s="56"/>
-      <c r="U284" s="56"/>
-      <c r="V284" s="56"/>
-      <c r="W284" s="56"/>
-      <c r="X284" s="62"/>
-      <c r="Y284" s="155"/>
-      <c r="Z284" s="156"/>
+      <c r="M284" s="56" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N284" s="61" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O284" s="56" t="n">
+        <v>-0.138</v>
+      </c>
+      <c r="P284" s="56" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="Q284" s="56" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="R284" s="56" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="S284" s="56" t="n">
+        <v>-0.798</v>
+      </c>
+      <c r="T284" s="56" t="n">
+        <v>-0.691</v>
+      </c>
+      <c r="U284" s="56" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="V284" s="56" t="n">
+        <v>-0.512</v>
+      </c>
+      <c r="W284" s="56" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="X284" s="62" t="n">
+        <v>-0.967</v>
+      </c>
+      <c r="Y284" s="154" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z284" s="155" t="n">
+        <v>19.6</v>
+      </c>
       <c r="AB284" s="146"/>
       <c r="AC284" s="146"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="158" t="n">
+      <c r="B285" s="144" t="n">
         <v>24</v>
       </c>
-      <c r="C285" s="66"/>
-      <c r="D285" s="159"/>
-      <c r="E285" s="68"/>
-      <c r="F285" s="68"/>
-      <c r="G285" s="68"/>
-      <c r="H285" s="68"/>
-      <c r="I285" s="68"/>
-      <c r="J285" s="68"/>
-      <c r="K285" s="159"/>
+      <c r="C285" s="66" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="D285" s="156" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E285" s="68" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="F285" s="68" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="G285" s="68" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H285" s="68" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="I285" s="68" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="J285" s="68" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="K285" s="156" t="n">
+        <v>0.202</v>
+      </c>
       <c r="L285" s="68"/>
-      <c r="M285" s="68"/>
-      <c r="N285" s="69"/>
-      <c r="O285" s="68"/>
-      <c r="P285" s="68"/>
-      <c r="Q285" s="68"/>
-      <c r="R285" s="68"/>
-      <c r="S285" s="68"/>
-      <c r="T285" s="68"/>
-      <c r="U285" s="68"/>
-      <c r="V285" s="68"/>
-      <c r="W285" s="68"/>
-      <c r="X285" s="70"/>
-      <c r="Y285" s="160"/>
-      <c r="Z285" s="161"/>
+      <c r="M285" s="68" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="N285" s="69" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="O285" s="68" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="P285" s="68" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="Q285" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="68" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="S285" s="68" t="n">
+        <v>-0.634</v>
+      </c>
+      <c r="T285" s="68" t="n">
+        <v>-0.562</v>
+      </c>
+      <c r="U285" s="68" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="V285" s="68" t="n">
+        <v>-0.387</v>
+      </c>
+      <c r="W285" s="68" t="n">
+        <v>-1.009</v>
+      </c>
+      <c r="X285" s="70" t="n">
+        <v>-0.881</v>
+      </c>
+      <c r="Y285" s="157" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Z285" s="158" t="n">
+        <v>18.8</v>
+      </c>
       <c r="AB285" s="146"/>
       <c r="AC285" s="146"/>
     </row>
@@ -8718,7 +9830,7 @@
       <c r="D290" s="38"/>
       <c r="E290" s="38"/>
       <c r="F290" s="38"/>
-      <c r="G290" s="162"/>
+      <c r="G290" s="159"/>
       <c r="H290" s="36"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8743,7 +9855,7 @@
       <c r="C292" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D292" s="163" t="s">
+      <c r="D292" s="160" t="s">
         <v>127</v>
       </c>
       <c r="E292" s="7" t="s">
@@ -8766,7 +9878,7 @@
       <c r="C293" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D293" s="164" t="s">
+      <c r="D293" s="161" t="s">
         <v>125</v>
       </c>
       <c r="E293" s="51" t="s">
@@ -10914,169 +12026,169 @@
       <c r="P491" s="13"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="165"/>
-      <c r="C492" s="166"/>
-      <c r="D492" s="166"/>
-      <c r="E492" s="166"/>
-      <c r="F492" s="166"/>
-      <c r="G492" s="166"/>
-      <c r="H492" s="166"/>
-      <c r="I492" s="166"/>
-      <c r="J492" s="166"/>
-      <c r="K492" s="166"/>
-      <c r="L492" s="166"/>
-      <c r="M492" s="166"/>
-      <c r="N492" s="166"/>
-      <c r="O492" s="166"/>
-      <c r="P492" s="166"/>
+      <c r="B492" s="162"/>
+      <c r="C492" s="163"/>
+      <c r="D492" s="163"/>
+      <c r="E492" s="163"/>
+      <c r="F492" s="163"/>
+      <c r="G492" s="163"/>
+      <c r="H492" s="163"/>
+      <c r="I492" s="163"/>
+      <c r="J492" s="163"/>
+      <c r="K492" s="163"/>
+      <c r="L492" s="163"/>
+      <c r="M492" s="163"/>
+      <c r="N492" s="163"/>
+      <c r="O492" s="163"/>
+      <c r="P492" s="163"/>
       <c r="Q492" s="146"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="166"/>
-      <c r="C493" s="166"/>
-      <c r="D493" s="166"/>
-      <c r="E493" s="166"/>
-      <c r="F493" s="166"/>
-      <c r="G493" s="166"/>
-      <c r="H493" s="166"/>
-      <c r="I493" s="166"/>
-      <c r="J493" s="166"/>
-      <c r="K493" s="166"/>
-      <c r="L493" s="166"/>
-      <c r="M493" s="166"/>
-      <c r="N493" s="166"/>
-      <c r="O493" s="166"/>
-      <c r="P493" s="166"/>
+      <c r="B493" s="163"/>
+      <c r="C493" s="163"/>
+      <c r="D493" s="163"/>
+      <c r="E493" s="163"/>
+      <c r="F493" s="163"/>
+      <c r="G493" s="163"/>
+      <c r="H493" s="163"/>
+      <c r="I493" s="163"/>
+      <c r="J493" s="163"/>
+      <c r="K493" s="163"/>
+      <c r="L493" s="163"/>
+      <c r="M493" s="163"/>
+      <c r="N493" s="163"/>
+      <c r="O493" s="163"/>
+      <c r="P493" s="163"/>
       <c r="Q493" s="146"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="166"/>
-      <c r="C494" s="166"/>
-      <c r="D494" s="166"/>
-      <c r="E494" s="166"/>
-      <c r="F494" s="166"/>
-      <c r="G494" s="166"/>
-      <c r="H494" s="166"/>
-      <c r="I494" s="166"/>
-      <c r="J494" s="166"/>
-      <c r="K494" s="166"/>
-      <c r="L494" s="166"/>
-      <c r="M494" s="166"/>
-      <c r="N494" s="166"/>
-      <c r="O494" s="166"/>
-      <c r="P494" s="166"/>
+      <c r="B494" s="163"/>
+      <c r="C494" s="163"/>
+      <c r="D494" s="163"/>
+      <c r="E494" s="163"/>
+      <c r="F494" s="163"/>
+      <c r="G494" s="163"/>
+      <c r="H494" s="163"/>
+      <c r="I494" s="163"/>
+      <c r="J494" s="163"/>
+      <c r="K494" s="163"/>
+      <c r="L494" s="163"/>
+      <c r="M494" s="163"/>
+      <c r="N494" s="163"/>
+      <c r="O494" s="163"/>
+      <c r="P494" s="163"/>
       <c r="Q494" s="146"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="165"/>
-      <c r="C495" s="166"/>
-      <c r="D495" s="166"/>
-      <c r="E495" s="166"/>
-      <c r="F495" s="166"/>
-      <c r="G495" s="166"/>
-      <c r="H495" s="166"/>
-      <c r="I495" s="166"/>
-      <c r="J495" s="166"/>
-      <c r="K495" s="166"/>
-      <c r="L495" s="166"/>
-      <c r="M495" s="166"/>
-      <c r="N495" s="166"/>
-      <c r="O495" s="166"/>
-      <c r="P495" s="166"/>
+      <c r="B495" s="162"/>
+      <c r="C495" s="163"/>
+      <c r="D495" s="163"/>
+      <c r="E495" s="163"/>
+      <c r="F495" s="163"/>
+      <c r="G495" s="163"/>
+      <c r="H495" s="163"/>
+      <c r="I495" s="163"/>
+      <c r="J495" s="163"/>
+      <c r="K495" s="163"/>
+      <c r="L495" s="163"/>
+      <c r="M495" s="163"/>
+      <c r="N495" s="163"/>
+      <c r="O495" s="163"/>
+      <c r="P495" s="163"/>
       <c r="Q495" s="146"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="166"/>
-      <c r="C496" s="166"/>
-      <c r="D496" s="166"/>
-      <c r="E496" s="166"/>
-      <c r="F496" s="166"/>
-      <c r="G496" s="166"/>
-      <c r="H496" s="166"/>
-      <c r="I496" s="166"/>
+      <c r="B496" s="163"/>
+      <c r="C496" s="163"/>
+      <c r="D496" s="163"/>
+      <c r="E496" s="163"/>
+      <c r="F496" s="163"/>
+      <c r="G496" s="163"/>
+      <c r="H496" s="163"/>
+      <c r="I496" s="163"/>
       <c r="J496" s="146"/>
-      <c r="K496" s="167"/>
+      <c r="K496" s="164"/>
       <c r="L496" s="146"/>
-      <c r="M496" s="166"/>
-      <c r="N496" s="166"/>
-      <c r="O496" s="166"/>
-      <c r="P496" s="166"/>
+      <c r="M496" s="163"/>
+      <c r="N496" s="163"/>
+      <c r="O496" s="163"/>
+      <c r="P496" s="163"/>
       <c r="Q496" s="146"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="166"/>
-      <c r="C497" s="166"/>
-      <c r="D497" s="166"/>
-      <c r="E497" s="166"/>
-      <c r="F497" s="166"/>
-      <c r="G497" s="166"/>
-      <c r="H497" s="166"/>
+      <c r="B497" s="163"/>
+      <c r="C497" s="163"/>
+      <c r="D497" s="163"/>
+      <c r="E497" s="163"/>
+      <c r="F497" s="163"/>
+      <c r="G497" s="163"/>
+      <c r="H497" s="163"/>
       <c r="I497" s="146"/>
-      <c r="J497" s="166"/>
-      <c r="K497" s="168"/>
+      <c r="J497" s="163"/>
+      <c r="K497" s="165"/>
       <c r="L497" s="146"/>
-      <c r="M497" s="166"/>
-      <c r="N497" s="166"/>
-      <c r="O497" s="166"/>
-      <c r="P497" s="166"/>
+      <c r="M497" s="163"/>
+      <c r="N497" s="163"/>
+      <c r="O497" s="163"/>
+      <c r="P497" s="163"/>
       <c r="Q497" s="146"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="165"/>
-      <c r="C498" s="169"/>
-      <c r="D498" s="165"/>
-      <c r="E498" s="165"/>
-      <c r="F498" s="165"/>
-      <c r="G498" s="165"/>
-      <c r="H498" s="165"/>
-      <c r="I498" s="166"/>
-      <c r="J498" s="166"/>
-      <c r="K498" s="165"/>
-      <c r="L498" s="165"/>
-      <c r="M498" s="165"/>
-      <c r="N498" s="165"/>
-      <c r="O498" s="165"/>
-      <c r="P498" s="165"/>
-      <c r="Q498" s="170"/>
+      <c r="B498" s="162"/>
+      <c r="C498" s="166"/>
+      <c r="D498" s="162"/>
+      <c r="E498" s="162"/>
+      <c r="F498" s="162"/>
+      <c r="G498" s="162"/>
+      <c r="H498" s="162"/>
+      <c r="I498" s="163"/>
+      <c r="J498" s="163"/>
+      <c r="K498" s="162"/>
+      <c r="L498" s="162"/>
+      <c r="M498" s="162"/>
+      <c r="N498" s="162"/>
+      <c r="O498" s="162"/>
+      <c r="P498" s="162"/>
+      <c r="Q498" s="167"/>
       <c r="R498" s="33"/>
-      <c r="S498" s="171"/>
-      <c r="T498" s="171"/>
+      <c r="S498" s="168"/>
+      <c r="T498" s="168"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="166"/>
-      <c r="C499" s="166"/>
-      <c r="D499" s="166"/>
-      <c r="E499" s="166"/>
-      <c r="F499" s="166"/>
-      <c r="G499" s="166"/>
-      <c r="H499" s="166"/>
-      <c r="I499" s="165"/>
-      <c r="J499" s="169"/>
-      <c r="K499" s="166"/>
-      <c r="L499" s="165"/>
-      <c r="M499" s="169"/>
-      <c r="N499" s="166"/>
-      <c r="O499" s="166"/>
-      <c r="P499" s="166"/>
+      <c r="B499" s="163"/>
+      <c r="C499" s="163"/>
+      <c r="D499" s="163"/>
+      <c r="E499" s="163"/>
+      <c r="F499" s="163"/>
+      <c r="G499" s="163"/>
+      <c r="H499" s="163"/>
+      <c r="I499" s="162"/>
+      <c r="J499" s="166"/>
+      <c r="K499" s="163"/>
+      <c r="L499" s="162"/>
+      <c r="M499" s="166"/>
+      <c r="N499" s="163"/>
+      <c r="O499" s="163"/>
+      <c r="P499" s="163"/>
       <c r="Q499" s="146"/>
       <c r="R499" s="1"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="166"/>
-      <c r="C500" s="172"/>
-      <c r="D500" s="172"/>
-      <c r="E500" s="172"/>
-      <c r="F500" s="172"/>
-      <c r="G500" s="172"/>
-      <c r="H500" s="172"/>
-      <c r="I500" s="166"/>
-      <c r="J500" s="172"/>
-      <c r="K500" s="172"/>
-      <c r="L500" s="166"/>
-      <c r="M500" s="172"/>
-      <c r="N500" s="166"/>
-      <c r="O500" s="166"/>
-      <c r="P500" s="166"/>
+      <c r="B500" s="163"/>
+      <c r="C500" s="169"/>
+      <c r="D500" s="169"/>
+      <c r="E500" s="169"/>
+      <c r="F500" s="169"/>
+      <c r="G500" s="169"/>
+      <c r="H500" s="169"/>
+      <c r="I500" s="163"/>
+      <c r="J500" s="169"/>
+      <c r="K500" s="169"/>
+      <c r="L500" s="163"/>
+      <c r="M500" s="169"/>
+      <c r="N500" s="163"/>
+      <c r="O500" s="163"/>
+      <c r="P500" s="163"/>
       <c r="Q500" s="146"/>
       <c r="S500" s="7"/>
       <c r="T500" s="7"/>
@@ -11084,21 +12196,21 @@
       <c r="V500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="166"/>
-      <c r="C501" s="173"/>
-      <c r="D501" s="172"/>
-      <c r="E501" s="172"/>
-      <c r="F501" s="172"/>
-      <c r="G501" s="172"/>
-      <c r="H501" s="172"/>
-      <c r="I501" s="166"/>
-      <c r="J501" s="174"/>
-      <c r="K501" s="172"/>
-      <c r="L501" s="166"/>
-      <c r="M501" s="174"/>
-      <c r="N501" s="166"/>
-      <c r="O501" s="166"/>
-      <c r="P501" s="166"/>
+      <c r="B501" s="163"/>
+      <c r="C501" s="170"/>
+      <c r="D501" s="169"/>
+      <c r="E501" s="169"/>
+      <c r="F501" s="169"/>
+      <c r="G501" s="169"/>
+      <c r="H501" s="169"/>
+      <c r="I501" s="163"/>
+      <c r="J501" s="171"/>
+      <c r="K501" s="169"/>
+      <c r="L501" s="163"/>
+      <c r="M501" s="171"/>
+      <c r="N501" s="163"/>
+      <c r="O501" s="163"/>
+      <c r="P501" s="163"/>
       <c r="Q501" s="146"/>
       <c r="R501" s="1"/>
       <c r="S501" s="7"/>
@@ -11107,21 +12219,21 @@
       <c r="V501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="166"/>
-      <c r="C502" s="173"/>
-      <c r="D502" s="172"/>
-      <c r="E502" s="172"/>
-      <c r="F502" s="172"/>
-      <c r="G502" s="172"/>
-      <c r="H502" s="172"/>
-      <c r="I502" s="166"/>
-      <c r="J502" s="173"/>
-      <c r="K502" s="172"/>
-      <c r="L502" s="172"/>
-      <c r="M502" s="172"/>
-      <c r="N502" s="166"/>
-      <c r="O502" s="166"/>
-      <c r="P502" s="166"/>
+      <c r="B502" s="163"/>
+      <c r="C502" s="170"/>
+      <c r="D502" s="169"/>
+      <c r="E502" s="169"/>
+      <c r="F502" s="169"/>
+      <c r="G502" s="169"/>
+      <c r="H502" s="169"/>
+      <c r="I502" s="163"/>
+      <c r="J502" s="170"/>
+      <c r="K502" s="169"/>
+      <c r="L502" s="169"/>
+      <c r="M502" s="169"/>
+      <c r="N502" s="163"/>
+      <c r="O502" s="163"/>
+      <c r="P502" s="163"/>
       <c r="Q502" s="146"/>
       <c r="R502" s="1"/>
       <c r="S502" s="7"/>
@@ -11130,21 +12242,21 @@
       <c r="V502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="166"/>
-      <c r="C503" s="173"/>
-      <c r="D503" s="172"/>
-      <c r="E503" s="172"/>
-      <c r="F503" s="172"/>
-      <c r="G503" s="172"/>
-      <c r="H503" s="172"/>
-      <c r="I503" s="166"/>
-      <c r="J503" s="173"/>
-      <c r="K503" s="172"/>
-      <c r="L503" s="172"/>
-      <c r="M503" s="172"/>
-      <c r="N503" s="166"/>
-      <c r="O503" s="166"/>
-      <c r="P503" s="166"/>
+      <c r="B503" s="163"/>
+      <c r="C503" s="170"/>
+      <c r="D503" s="169"/>
+      <c r="E503" s="169"/>
+      <c r="F503" s="169"/>
+      <c r="G503" s="169"/>
+      <c r="H503" s="169"/>
+      <c r="I503" s="163"/>
+      <c r="J503" s="170"/>
+      <c r="K503" s="169"/>
+      <c r="L503" s="169"/>
+      <c r="M503" s="169"/>
+      <c r="N503" s="163"/>
+      <c r="O503" s="163"/>
+      <c r="P503" s="163"/>
       <c r="Q503" s="146"/>
       <c r="R503" s="1"/>
       <c r="S503" s="7"/>
@@ -11153,21 +12265,21 @@
       <c r="V503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="166"/>
-      <c r="C504" s="173"/>
-      <c r="D504" s="172"/>
-      <c r="E504" s="172"/>
-      <c r="F504" s="172"/>
-      <c r="G504" s="172"/>
-      <c r="H504" s="172"/>
-      <c r="I504" s="166"/>
-      <c r="J504" s="173"/>
-      <c r="K504" s="172"/>
-      <c r="L504" s="172"/>
-      <c r="M504" s="172"/>
-      <c r="N504" s="166"/>
-      <c r="O504" s="166"/>
-      <c r="P504" s="166"/>
+      <c r="B504" s="163"/>
+      <c r="C504" s="170"/>
+      <c r="D504" s="169"/>
+      <c r="E504" s="169"/>
+      <c r="F504" s="169"/>
+      <c r="G504" s="169"/>
+      <c r="H504" s="169"/>
+      <c r="I504" s="163"/>
+      <c r="J504" s="170"/>
+      <c r="K504" s="169"/>
+      <c r="L504" s="169"/>
+      <c r="M504" s="169"/>
+      <c r="N504" s="163"/>
+      <c r="O504" s="163"/>
+      <c r="P504" s="163"/>
       <c r="Q504" s="146"/>
       <c r="R504" s="1"/>
       <c r="S504" s="7"/>
@@ -11176,21 +12288,21 @@
       <c r="V504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="166"/>
-      <c r="C505" s="173"/>
-      <c r="D505" s="172"/>
-      <c r="E505" s="172"/>
-      <c r="F505" s="172"/>
-      <c r="G505" s="172"/>
-      <c r="H505" s="172"/>
-      <c r="I505" s="166"/>
-      <c r="J505" s="173"/>
-      <c r="K505" s="172"/>
-      <c r="L505" s="172"/>
-      <c r="M505" s="172"/>
-      <c r="N505" s="166"/>
-      <c r="O505" s="166"/>
-      <c r="P505" s="166"/>
+      <c r="B505" s="163"/>
+      <c r="C505" s="170"/>
+      <c r="D505" s="169"/>
+      <c r="E505" s="169"/>
+      <c r="F505" s="169"/>
+      <c r="G505" s="169"/>
+      <c r="H505" s="169"/>
+      <c r="I505" s="163"/>
+      <c r="J505" s="170"/>
+      <c r="K505" s="169"/>
+      <c r="L505" s="169"/>
+      <c r="M505" s="169"/>
+      <c r="N505" s="163"/>
+      <c r="O505" s="163"/>
+      <c r="P505" s="163"/>
       <c r="Q505" s="146"/>
       <c r="R505" s="1"/>
       <c r="S505" s="7"/>
@@ -11199,21 +12311,21 @@
       <c r="V505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="166"/>
-      <c r="C506" s="173"/>
-      <c r="D506" s="172"/>
-      <c r="E506" s="172"/>
-      <c r="F506" s="172"/>
-      <c r="G506" s="172"/>
-      <c r="H506" s="172"/>
-      <c r="I506" s="166"/>
-      <c r="J506" s="173"/>
-      <c r="K506" s="172"/>
-      <c r="L506" s="172"/>
-      <c r="M506" s="172"/>
-      <c r="N506" s="166"/>
-      <c r="O506" s="166"/>
-      <c r="P506" s="166"/>
+      <c r="B506" s="163"/>
+      <c r="C506" s="170"/>
+      <c r="D506" s="169"/>
+      <c r="E506" s="169"/>
+      <c r="F506" s="169"/>
+      <c r="G506" s="169"/>
+      <c r="H506" s="169"/>
+      <c r="I506" s="163"/>
+      <c r="J506" s="170"/>
+      <c r="K506" s="169"/>
+      <c r="L506" s="169"/>
+      <c r="M506" s="169"/>
+      <c r="N506" s="163"/>
+      <c r="O506" s="163"/>
+      <c r="P506" s="163"/>
       <c r="Q506" s="146"/>
       <c r="R506" s="1"/>
       <c r="S506" s="7"/>
@@ -11222,21 +12334,21 @@
       <c r="V506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="166"/>
-      <c r="C507" s="173"/>
-      <c r="D507" s="172"/>
-      <c r="E507" s="172"/>
-      <c r="F507" s="172"/>
-      <c r="G507" s="172"/>
-      <c r="H507" s="172"/>
-      <c r="I507" s="166"/>
-      <c r="J507" s="173"/>
-      <c r="K507" s="172"/>
-      <c r="L507" s="172"/>
-      <c r="M507" s="172"/>
-      <c r="N507" s="166"/>
-      <c r="O507" s="166"/>
-      <c r="P507" s="166"/>
+      <c r="B507" s="163"/>
+      <c r="C507" s="170"/>
+      <c r="D507" s="169"/>
+      <c r="E507" s="169"/>
+      <c r="F507" s="169"/>
+      <c r="G507" s="169"/>
+      <c r="H507" s="169"/>
+      <c r="I507" s="163"/>
+      <c r="J507" s="170"/>
+      <c r="K507" s="169"/>
+      <c r="L507" s="169"/>
+      <c r="M507" s="169"/>
+      <c r="N507" s="163"/>
+      <c r="O507" s="163"/>
+      <c r="P507" s="163"/>
       <c r="Q507" s="146"/>
       <c r="R507" s="1"/>
       <c r="S507" s="7"/>
@@ -11245,21 +12357,21 @@
       <c r="V507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="166"/>
-      <c r="C508" s="172"/>
-      <c r="D508" s="172"/>
-      <c r="E508" s="172"/>
-      <c r="F508" s="172"/>
-      <c r="G508" s="172"/>
-      <c r="H508" s="172"/>
-      <c r="I508" s="166"/>
-      <c r="J508" s="172"/>
-      <c r="K508" s="172"/>
-      <c r="L508" s="172"/>
-      <c r="M508" s="172"/>
-      <c r="N508" s="166"/>
-      <c r="O508" s="166"/>
-      <c r="P508" s="166"/>
+      <c r="B508" s="163"/>
+      <c r="C508" s="169"/>
+      <c r="D508" s="169"/>
+      <c r="E508" s="169"/>
+      <c r="F508" s="169"/>
+      <c r="G508" s="169"/>
+      <c r="H508" s="169"/>
+      <c r="I508" s="163"/>
+      <c r="J508" s="169"/>
+      <c r="K508" s="169"/>
+      <c r="L508" s="169"/>
+      <c r="M508" s="169"/>
+      <c r="N508" s="163"/>
+      <c r="O508" s="163"/>
+      <c r="P508" s="163"/>
       <c r="Q508" s="146"/>
       <c r="R508" s="1"/>
       <c r="S508" s="7"/>
@@ -11268,21 +12380,21 @@
       <c r="V508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="166"/>
-      <c r="C509" s="172"/>
-      <c r="D509" s="172"/>
-      <c r="E509" s="172"/>
-      <c r="F509" s="172"/>
-      <c r="G509" s="172"/>
-      <c r="H509" s="172"/>
-      <c r="I509" s="166"/>
-      <c r="J509" s="172"/>
-      <c r="K509" s="172"/>
-      <c r="L509" s="172"/>
-      <c r="M509" s="172"/>
-      <c r="N509" s="166"/>
-      <c r="O509" s="166"/>
-      <c r="P509" s="166"/>
+      <c r="B509" s="163"/>
+      <c r="C509" s="169"/>
+      <c r="D509" s="169"/>
+      <c r="E509" s="169"/>
+      <c r="F509" s="169"/>
+      <c r="G509" s="169"/>
+      <c r="H509" s="169"/>
+      <c r="I509" s="163"/>
+      <c r="J509" s="169"/>
+      <c r="K509" s="169"/>
+      <c r="L509" s="169"/>
+      <c r="M509" s="169"/>
+      <c r="N509" s="163"/>
+      <c r="O509" s="163"/>
+      <c r="P509" s="163"/>
       <c r="Q509" s="146"/>
       <c r="R509" s="1"/>
       <c r="S509" s="7"/>
@@ -11291,43 +12403,43 @@
       <c r="V509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="166"/>
-      <c r="C510" s="172"/>
-      <c r="D510" s="172"/>
-      <c r="E510" s="172"/>
-      <c r="F510" s="172"/>
-      <c r="G510" s="172"/>
-      <c r="H510" s="172"/>
-      <c r="I510" s="166"/>
-      <c r="J510" s="172"/>
-      <c r="K510" s="172"/>
-      <c r="L510" s="172"/>
-      <c r="M510" s="172"/>
-      <c r="N510" s="172"/>
-      <c r="O510" s="166"/>
-      <c r="P510" s="166"/>
+      <c r="B510" s="163"/>
+      <c r="C510" s="169"/>
+      <c r="D510" s="169"/>
+      <c r="E510" s="169"/>
+      <c r="F510" s="169"/>
+      <c r="G510" s="169"/>
+      <c r="H510" s="169"/>
+      <c r="I510" s="163"/>
+      <c r="J510" s="169"/>
+      <c r="K510" s="169"/>
+      <c r="L510" s="169"/>
+      <c r="M510" s="169"/>
+      <c r="N510" s="169"/>
+      <c r="O510" s="163"/>
+      <c r="P510" s="163"/>
       <c r="Q510" s="146"/>
       <c r="S510" s="7"/>
       <c r="T510" s="7"/>
-      <c r="U510" s="175"/>
+      <c r="U510" s="172"/>
       <c r="V510" s="44"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="166"/>
-      <c r="C511" s="173"/>
-      <c r="D511" s="173"/>
-      <c r="E511" s="173"/>
-      <c r="F511" s="173"/>
-      <c r="G511" s="172"/>
-      <c r="H511" s="172"/>
-      <c r="I511" s="166"/>
-      <c r="J511" s="172"/>
-      <c r="K511" s="172"/>
-      <c r="L511" s="172"/>
-      <c r="M511" s="172"/>
-      <c r="N511" s="166"/>
-      <c r="O511" s="166"/>
-      <c r="P511" s="166"/>
+      <c r="B511" s="163"/>
+      <c r="C511" s="170"/>
+      <c r="D511" s="170"/>
+      <c r="E511" s="170"/>
+      <c r="F511" s="170"/>
+      <c r="G511" s="169"/>
+      <c r="H511" s="169"/>
+      <c r="I511" s="163"/>
+      <c r="J511" s="169"/>
+      <c r="K511" s="169"/>
+      <c r="L511" s="169"/>
+      <c r="M511" s="169"/>
+      <c r="N511" s="163"/>
+      <c r="O511" s="163"/>
+      <c r="P511" s="163"/>
       <c r="Q511" s="146"/>
       <c r="R511" s="1"/>
       <c r="S511" s="7"/>
@@ -11336,21 +12448,21 @@
       <c r="V511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="166"/>
-      <c r="C512" s="173"/>
-      <c r="D512" s="173"/>
-      <c r="E512" s="173"/>
-      <c r="F512" s="173"/>
-      <c r="G512" s="172"/>
-      <c r="H512" s="172"/>
-      <c r="I512" s="166"/>
-      <c r="J512" s="172"/>
-      <c r="K512" s="172"/>
-      <c r="L512" s="172"/>
-      <c r="M512" s="172"/>
-      <c r="N512" s="166"/>
-      <c r="O512" s="166"/>
-      <c r="P512" s="166"/>
+      <c r="B512" s="163"/>
+      <c r="C512" s="170"/>
+      <c r="D512" s="170"/>
+      <c r="E512" s="170"/>
+      <c r="F512" s="170"/>
+      <c r="G512" s="169"/>
+      <c r="H512" s="169"/>
+      <c r="I512" s="163"/>
+      <c r="J512" s="169"/>
+      <c r="K512" s="169"/>
+      <c r="L512" s="169"/>
+      <c r="M512" s="169"/>
+      <c r="N512" s="163"/>
+      <c r="O512" s="163"/>
+      <c r="P512" s="163"/>
       <c r="Q512" s="146"/>
       <c r="R512" s="1"/>
       <c r="S512" s="7"/>
@@ -11359,21 +12471,21 @@
       <c r="V512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="166"/>
-      <c r="C513" s="173"/>
-      <c r="D513" s="173"/>
-      <c r="E513" s="173"/>
-      <c r="F513" s="173"/>
-      <c r="G513" s="172"/>
-      <c r="H513" s="172"/>
-      <c r="I513" s="166"/>
-      <c r="J513" s="172"/>
-      <c r="K513" s="172"/>
-      <c r="L513" s="172"/>
-      <c r="M513" s="172"/>
-      <c r="N513" s="166"/>
-      <c r="O513" s="166"/>
-      <c r="P513" s="166"/>
+      <c r="B513" s="163"/>
+      <c r="C513" s="170"/>
+      <c r="D513" s="170"/>
+      <c r="E513" s="170"/>
+      <c r="F513" s="170"/>
+      <c r="G513" s="169"/>
+      <c r="H513" s="169"/>
+      <c r="I513" s="163"/>
+      <c r="J513" s="169"/>
+      <c r="K513" s="169"/>
+      <c r="L513" s="169"/>
+      <c r="M513" s="169"/>
+      <c r="N513" s="163"/>
+      <c r="O513" s="163"/>
+      <c r="P513" s="163"/>
       <c r="Q513" s="146"/>
       <c r="R513" s="1"/>
       <c r="S513" s="7"/>
@@ -11382,21 +12494,21 @@
       <c r="V513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="166"/>
-      <c r="C514" s="173"/>
-      <c r="D514" s="173"/>
-      <c r="E514" s="173"/>
-      <c r="F514" s="173"/>
-      <c r="G514" s="172"/>
-      <c r="H514" s="172"/>
-      <c r="I514" s="166"/>
-      <c r="J514" s="172"/>
-      <c r="K514" s="172"/>
-      <c r="L514" s="172"/>
-      <c r="M514" s="172"/>
-      <c r="N514" s="166"/>
-      <c r="O514" s="166"/>
-      <c r="P514" s="166"/>
+      <c r="B514" s="163"/>
+      <c r="C514" s="170"/>
+      <c r="D514" s="170"/>
+      <c r="E514" s="170"/>
+      <c r="F514" s="170"/>
+      <c r="G514" s="169"/>
+      <c r="H514" s="169"/>
+      <c r="I514" s="163"/>
+      <c r="J514" s="169"/>
+      <c r="K514" s="169"/>
+      <c r="L514" s="169"/>
+      <c r="M514" s="169"/>
+      <c r="N514" s="163"/>
+      <c r="O514" s="163"/>
+      <c r="P514" s="163"/>
       <c r="Q514" s="146"/>
       <c r="R514" s="1"/>
       <c r="S514" s="7"/>
@@ -11405,21 +12517,21 @@
       <c r="V514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="166"/>
-      <c r="C515" s="173"/>
-      <c r="D515" s="173"/>
-      <c r="E515" s="173"/>
-      <c r="F515" s="173"/>
-      <c r="G515" s="172"/>
-      <c r="H515" s="172"/>
-      <c r="I515" s="166"/>
-      <c r="J515" s="172"/>
-      <c r="K515" s="172"/>
-      <c r="L515" s="172"/>
-      <c r="M515" s="172"/>
-      <c r="N515" s="166"/>
-      <c r="O515" s="166"/>
-      <c r="P515" s="166"/>
+      <c r="B515" s="163"/>
+      <c r="C515" s="170"/>
+      <c r="D515" s="170"/>
+      <c r="E515" s="170"/>
+      <c r="F515" s="170"/>
+      <c r="G515" s="169"/>
+      <c r="H515" s="169"/>
+      <c r="I515" s="163"/>
+      <c r="J515" s="169"/>
+      <c r="K515" s="169"/>
+      <c r="L515" s="169"/>
+      <c r="M515" s="169"/>
+      <c r="N515" s="163"/>
+      <c r="O515" s="163"/>
+      <c r="P515" s="163"/>
       <c r="Q515" s="146"/>
       <c r="R515" s="1"/>
       <c r="S515" s="7"/>
@@ -11428,21 +12540,21 @@
       <c r="V515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="166"/>
-      <c r="C516" s="173"/>
-      <c r="D516" s="173"/>
-      <c r="E516" s="173"/>
-      <c r="F516" s="173"/>
-      <c r="G516" s="172"/>
-      <c r="H516" s="172"/>
-      <c r="I516" s="166"/>
-      <c r="J516" s="172"/>
-      <c r="K516" s="172"/>
-      <c r="L516" s="172"/>
-      <c r="M516" s="172"/>
-      <c r="N516" s="166"/>
-      <c r="O516" s="166"/>
-      <c r="P516" s="166"/>
+      <c r="B516" s="163"/>
+      <c r="C516" s="170"/>
+      <c r="D516" s="170"/>
+      <c r="E516" s="170"/>
+      <c r="F516" s="170"/>
+      <c r="G516" s="169"/>
+      <c r="H516" s="169"/>
+      <c r="I516" s="163"/>
+      <c r="J516" s="169"/>
+      <c r="K516" s="169"/>
+      <c r="L516" s="169"/>
+      <c r="M516" s="169"/>
+      <c r="N516" s="163"/>
+      <c r="O516" s="163"/>
+      <c r="P516" s="163"/>
       <c r="Q516" s="146"/>
       <c r="R516" s="1"/>
       <c r="S516" s="7"/>
@@ -11451,21 +12563,21 @@
       <c r="V516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="166"/>
-      <c r="C517" s="173"/>
-      <c r="D517" s="173"/>
-      <c r="E517" s="173"/>
-      <c r="F517" s="173"/>
-      <c r="G517" s="172"/>
-      <c r="H517" s="172"/>
-      <c r="I517" s="166"/>
-      <c r="J517" s="172"/>
-      <c r="K517" s="172"/>
-      <c r="L517" s="172"/>
-      <c r="M517" s="172"/>
-      <c r="N517" s="166"/>
-      <c r="O517" s="166"/>
-      <c r="P517" s="166"/>
+      <c r="B517" s="163"/>
+      <c r="C517" s="170"/>
+      <c r="D517" s="170"/>
+      <c r="E517" s="170"/>
+      <c r="F517" s="170"/>
+      <c r="G517" s="169"/>
+      <c r="H517" s="169"/>
+      <c r="I517" s="163"/>
+      <c r="J517" s="169"/>
+      <c r="K517" s="169"/>
+      <c r="L517" s="169"/>
+      <c r="M517" s="169"/>
+      <c r="N517" s="163"/>
+      <c r="O517" s="163"/>
+      <c r="P517" s="163"/>
       <c r="Q517" s="146"/>
       <c r="R517" s="1"/>
       <c r="S517" s="7"/>
@@ -11474,21 +12586,21 @@
       <c r="V517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="166"/>
-      <c r="C518" s="172"/>
-      <c r="D518" s="172"/>
-      <c r="E518" s="172"/>
-      <c r="F518" s="172"/>
-      <c r="G518" s="172"/>
-      <c r="H518" s="172"/>
-      <c r="I518" s="166"/>
-      <c r="J518" s="172"/>
-      <c r="K518" s="172"/>
-      <c r="L518" s="172"/>
-      <c r="M518" s="172"/>
-      <c r="N518" s="166"/>
-      <c r="O518" s="166"/>
-      <c r="P518" s="166"/>
+      <c r="B518" s="163"/>
+      <c r="C518" s="169"/>
+      <c r="D518" s="169"/>
+      <c r="E518" s="169"/>
+      <c r="F518" s="169"/>
+      <c r="G518" s="169"/>
+      <c r="H518" s="169"/>
+      <c r="I518" s="163"/>
+      <c r="J518" s="169"/>
+      <c r="K518" s="169"/>
+      <c r="L518" s="169"/>
+      <c r="M518" s="169"/>
+      <c r="N518" s="163"/>
+      <c r="O518" s="163"/>
+      <c r="P518" s="163"/>
       <c r="Q518" s="146"/>
       <c r="S518" s="7"/>
       <c r="T518" s="7"/>
@@ -11496,21 +12608,21 @@
       <c r="V518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="166"/>
-      <c r="C519" s="172"/>
-      <c r="D519" s="172"/>
-      <c r="E519" s="172"/>
-      <c r="F519" s="172"/>
-      <c r="G519" s="172"/>
-      <c r="H519" s="172"/>
-      <c r="I519" s="166"/>
-      <c r="J519" s="172"/>
-      <c r="K519" s="172"/>
-      <c r="L519" s="172"/>
-      <c r="M519" s="172"/>
-      <c r="N519" s="166"/>
-      <c r="O519" s="166"/>
-      <c r="P519" s="166"/>
+      <c r="B519" s="163"/>
+      <c r="C519" s="169"/>
+      <c r="D519" s="169"/>
+      <c r="E519" s="169"/>
+      <c r="F519" s="169"/>
+      <c r="G519" s="169"/>
+      <c r="H519" s="169"/>
+      <c r="I519" s="163"/>
+      <c r="J519" s="169"/>
+      <c r="K519" s="169"/>
+      <c r="L519" s="169"/>
+      <c r="M519" s="169"/>
+      <c r="N519" s="163"/>
+      <c r="O519" s="163"/>
+      <c r="P519" s="163"/>
       <c r="Q519" s="146"/>
       <c r="R519" s="1"/>
       <c r="S519" s="7"/>
@@ -11519,213 +12631,213 @@
       <c r="V519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="166"/>
-      <c r="C520" s="172"/>
-      <c r="D520" s="172"/>
-      <c r="E520" s="172"/>
-      <c r="F520" s="172"/>
-      <c r="G520" s="172"/>
-      <c r="H520" s="172"/>
-      <c r="I520" s="166"/>
-      <c r="J520" s="172"/>
-      <c r="K520" s="172"/>
-      <c r="L520" s="172"/>
-      <c r="M520" s="172"/>
-      <c r="N520" s="172"/>
-      <c r="O520" s="166"/>
-      <c r="P520" s="166"/>
+      <c r="B520" s="163"/>
+      <c r="C520" s="169"/>
+      <c r="D520" s="169"/>
+      <c r="E520" s="169"/>
+      <c r="F520" s="169"/>
+      <c r="G520" s="169"/>
+      <c r="H520" s="169"/>
+      <c r="I520" s="163"/>
+      <c r="J520" s="169"/>
+      <c r="K520" s="169"/>
+      <c r="L520" s="169"/>
+      <c r="M520" s="169"/>
+      <c r="N520" s="169"/>
+      <c r="O520" s="163"/>
+      <c r="P520" s="163"/>
       <c r="Q520" s="146"/>
       <c r="S520" s="7"/>
       <c r="T520" s="7"/>
-      <c r="U520" s="175"/>
+      <c r="U520" s="172"/>
       <c r="V520" s="44"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="166"/>
-      <c r="C521" s="173"/>
-      <c r="D521" s="173"/>
-      <c r="E521" s="173"/>
-      <c r="F521" s="173"/>
-      <c r="G521" s="166"/>
-      <c r="H521" s="166"/>
-      <c r="I521" s="166"/>
-      <c r="J521" s="166"/>
-      <c r="K521" s="166"/>
-      <c r="L521" s="166"/>
-      <c r="M521" s="166"/>
-      <c r="N521" s="166"/>
-      <c r="O521" s="166"/>
-      <c r="P521" s="166"/>
+      <c r="B521" s="163"/>
+      <c r="C521" s="170"/>
+      <c r="D521" s="170"/>
+      <c r="E521" s="170"/>
+      <c r="F521" s="170"/>
+      <c r="G521" s="163"/>
+      <c r="H521" s="163"/>
+      <c r="I521" s="163"/>
+      <c r="J521" s="163"/>
+      <c r="K521" s="163"/>
+      <c r="L521" s="163"/>
+      <c r="M521" s="163"/>
+      <c r="N521" s="163"/>
+      <c r="O521" s="163"/>
+      <c r="P521" s="163"/>
       <c r="Q521" s="146"/>
       <c r="R521" s="1"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="166"/>
-      <c r="C522" s="173"/>
-      <c r="D522" s="173"/>
-      <c r="E522" s="173"/>
-      <c r="F522" s="173"/>
-      <c r="G522" s="166"/>
-      <c r="H522" s="166"/>
-      <c r="I522" s="166"/>
-      <c r="J522" s="166"/>
-      <c r="K522" s="166"/>
-      <c r="L522" s="166"/>
-      <c r="M522" s="166"/>
-      <c r="N522" s="166"/>
-      <c r="O522" s="166"/>
-      <c r="P522" s="166"/>
+      <c r="B522" s="163"/>
+      <c r="C522" s="170"/>
+      <c r="D522" s="170"/>
+      <c r="E522" s="170"/>
+      <c r="F522" s="170"/>
+      <c r="G522" s="163"/>
+      <c r="H522" s="163"/>
+      <c r="I522" s="163"/>
+      <c r="J522" s="163"/>
+      <c r="K522" s="163"/>
+      <c r="L522" s="163"/>
+      <c r="M522" s="163"/>
+      <c r="N522" s="163"/>
+      <c r="O522" s="163"/>
+      <c r="P522" s="163"/>
       <c r="Q522" s="146"/>
       <c r="R522" s="1"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="166"/>
-      <c r="C523" s="173"/>
-      <c r="D523" s="173"/>
-      <c r="E523" s="173"/>
-      <c r="F523" s="173"/>
-      <c r="G523" s="166"/>
-      <c r="H523" s="166"/>
-      <c r="I523" s="166"/>
-      <c r="J523" s="166"/>
-      <c r="K523" s="166"/>
-      <c r="L523" s="166"/>
-      <c r="M523" s="166"/>
-      <c r="N523" s="166"/>
-      <c r="O523" s="166"/>
-      <c r="P523" s="166"/>
+      <c r="B523" s="163"/>
+      <c r="C523" s="170"/>
+      <c r="D523" s="170"/>
+      <c r="E523" s="170"/>
+      <c r="F523" s="170"/>
+      <c r="G523" s="163"/>
+      <c r="H523" s="163"/>
+      <c r="I523" s="163"/>
+      <c r="J523" s="163"/>
+      <c r="K523" s="163"/>
+      <c r="L523" s="163"/>
+      <c r="M523" s="163"/>
+      <c r="N523" s="163"/>
+      <c r="O523" s="163"/>
+      <c r="P523" s="163"/>
       <c r="Q523" s="146"/>
       <c r="R523" s="1"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="166"/>
-      <c r="C524" s="173"/>
-      <c r="D524" s="173"/>
-      <c r="E524" s="173"/>
-      <c r="F524" s="173"/>
-      <c r="G524" s="166"/>
-      <c r="H524" s="166"/>
-      <c r="I524" s="166"/>
-      <c r="J524" s="166"/>
-      <c r="K524" s="166"/>
-      <c r="L524" s="166"/>
-      <c r="M524" s="166"/>
-      <c r="N524" s="166"/>
-      <c r="O524" s="166"/>
-      <c r="P524" s="166"/>
+      <c r="B524" s="163"/>
+      <c r="C524" s="170"/>
+      <c r="D524" s="170"/>
+      <c r="E524" s="170"/>
+      <c r="F524" s="170"/>
+      <c r="G524" s="163"/>
+      <c r="H524" s="163"/>
+      <c r="I524" s="163"/>
+      <c r="J524" s="163"/>
+      <c r="K524" s="163"/>
+      <c r="L524" s="163"/>
+      <c r="M524" s="163"/>
+      <c r="N524" s="163"/>
+      <c r="O524" s="163"/>
+      <c r="P524" s="163"/>
       <c r="Q524" s="146"/>
       <c r="R524" s="1"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="166"/>
-      <c r="C525" s="173"/>
-      <c r="D525" s="173"/>
-      <c r="E525" s="173"/>
-      <c r="F525" s="173"/>
-      <c r="G525" s="166"/>
-      <c r="H525" s="166"/>
-      <c r="I525" s="166"/>
-      <c r="J525" s="166"/>
-      <c r="K525" s="166"/>
-      <c r="L525" s="166"/>
-      <c r="M525" s="166"/>
-      <c r="N525" s="166"/>
-      <c r="O525" s="166"/>
-      <c r="P525" s="166"/>
+      <c r="B525" s="163"/>
+      <c r="C525" s="170"/>
+      <c r="D525" s="170"/>
+      <c r="E525" s="170"/>
+      <c r="F525" s="170"/>
+      <c r="G525" s="163"/>
+      <c r="H525" s="163"/>
+      <c r="I525" s="163"/>
+      <c r="J525" s="163"/>
+      <c r="K525" s="163"/>
+      <c r="L525" s="163"/>
+      <c r="M525" s="163"/>
+      <c r="N525" s="163"/>
+      <c r="O525" s="163"/>
+      <c r="P525" s="163"/>
       <c r="Q525" s="146"/>
       <c r="R525" s="1"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="166"/>
-      <c r="C526" s="173"/>
-      <c r="D526" s="173"/>
-      <c r="E526" s="173"/>
-      <c r="F526" s="173"/>
-      <c r="G526" s="166"/>
-      <c r="H526" s="166"/>
-      <c r="I526" s="166"/>
-      <c r="J526" s="166"/>
-      <c r="K526" s="166"/>
-      <c r="L526" s="166"/>
-      <c r="M526" s="166"/>
-      <c r="N526" s="166"/>
-      <c r="O526" s="166"/>
-      <c r="P526" s="166"/>
+      <c r="B526" s="163"/>
+      <c r="C526" s="170"/>
+      <c r="D526" s="170"/>
+      <c r="E526" s="170"/>
+      <c r="F526" s="170"/>
+      <c r="G526" s="163"/>
+      <c r="H526" s="163"/>
+      <c r="I526" s="163"/>
+      <c r="J526" s="163"/>
+      <c r="K526" s="163"/>
+      <c r="L526" s="163"/>
+      <c r="M526" s="163"/>
+      <c r="N526" s="163"/>
+      <c r="O526" s="163"/>
+      <c r="P526" s="163"/>
       <c r="Q526" s="146"/>
       <c r="R526" s="1"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="166"/>
-      <c r="C527" s="173"/>
-      <c r="D527" s="173"/>
-      <c r="E527" s="173"/>
-      <c r="F527" s="173"/>
-      <c r="G527" s="166"/>
-      <c r="H527" s="166"/>
-      <c r="I527" s="166"/>
-      <c r="J527" s="166"/>
-      <c r="K527" s="166"/>
-      <c r="L527" s="166"/>
-      <c r="M527" s="166"/>
-      <c r="N527" s="166"/>
-      <c r="O527" s="166"/>
-      <c r="P527" s="166"/>
+      <c r="B527" s="163"/>
+      <c r="C527" s="170"/>
+      <c r="D527" s="170"/>
+      <c r="E527" s="170"/>
+      <c r="F527" s="170"/>
+      <c r="G527" s="163"/>
+      <c r="H527" s="163"/>
+      <c r="I527" s="163"/>
+      <c r="J527" s="163"/>
+      <c r="K527" s="163"/>
+      <c r="L527" s="163"/>
+      <c r="M527" s="163"/>
+      <c r="N527" s="163"/>
+      <c r="O527" s="163"/>
+      <c r="P527" s="163"/>
       <c r="Q527" s="146"/>
       <c r="R527" s="1"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="166"/>
-      <c r="C528" s="166"/>
-      <c r="D528" s="166"/>
-      <c r="E528" s="166"/>
-      <c r="F528" s="166"/>
-      <c r="G528" s="166"/>
-      <c r="H528" s="166"/>
-      <c r="I528" s="166"/>
-      <c r="J528" s="166"/>
-      <c r="K528" s="166"/>
-      <c r="L528" s="166"/>
-      <c r="M528" s="166"/>
-      <c r="N528" s="166"/>
-      <c r="O528" s="166"/>
-      <c r="P528" s="166"/>
+      <c r="B528" s="163"/>
+      <c r="C528" s="163"/>
+      <c r="D528" s="163"/>
+      <c r="E528" s="163"/>
+      <c r="F528" s="163"/>
+      <c r="G528" s="163"/>
+      <c r="H528" s="163"/>
+      <c r="I528" s="163"/>
+      <c r="J528" s="163"/>
+      <c r="K528" s="163"/>
+      <c r="L528" s="163"/>
+      <c r="M528" s="163"/>
+      <c r="N528" s="163"/>
+      <c r="O528" s="163"/>
+      <c r="P528" s="163"/>
       <c r="Q528" s="146"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="166"/>
-      <c r="C529" s="166"/>
-      <c r="D529" s="166"/>
-      <c r="E529" s="166"/>
-      <c r="F529" s="166"/>
-      <c r="G529" s="166"/>
-      <c r="H529" s="166"/>
-      <c r="I529" s="165"/>
-      <c r="J529" s="169"/>
-      <c r="K529" s="166"/>
-      <c r="L529" s="165"/>
-      <c r="M529" s="169"/>
-      <c r="N529" s="166"/>
-      <c r="O529" s="166"/>
-      <c r="P529" s="166"/>
+      <c r="B529" s="163"/>
+      <c r="C529" s="163"/>
+      <c r="D529" s="163"/>
+      <c r="E529" s="163"/>
+      <c r="F529" s="163"/>
+      <c r="G529" s="163"/>
+      <c r="H529" s="163"/>
+      <c r="I529" s="162"/>
+      <c r="J529" s="166"/>
+      <c r="K529" s="163"/>
+      <c r="L529" s="162"/>
+      <c r="M529" s="166"/>
+      <c r="N529" s="163"/>
+      <c r="O529" s="163"/>
+      <c r="P529" s="163"/>
       <c r="Q529" s="146"/>
       <c r="R529" s="1"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="166"/>
-      <c r="C530" s="172"/>
-      <c r="D530" s="172"/>
-      <c r="E530" s="172"/>
-      <c r="F530" s="172"/>
-      <c r="G530" s="172"/>
-      <c r="H530" s="172"/>
-      <c r="I530" s="166"/>
-      <c r="J530" s="172"/>
-      <c r="K530" s="172"/>
-      <c r="L530" s="166"/>
-      <c r="M530" s="172"/>
-      <c r="N530" s="166"/>
-      <c r="O530" s="166"/>
-      <c r="P530" s="166"/>
+      <c r="B530" s="163"/>
+      <c r="C530" s="169"/>
+      <c r="D530" s="169"/>
+      <c r="E530" s="169"/>
+      <c r="F530" s="169"/>
+      <c r="G530" s="169"/>
+      <c r="H530" s="169"/>
+      <c r="I530" s="163"/>
+      <c r="J530" s="169"/>
+      <c r="K530" s="169"/>
+      <c r="L530" s="163"/>
+      <c r="M530" s="169"/>
+      <c r="N530" s="163"/>
+      <c r="O530" s="163"/>
+      <c r="P530" s="163"/>
       <c r="Q530" s="146"/>
       <c r="S530" s="7"/>
       <c r="T530" s="7"/>
@@ -11733,21 +12845,21 @@
       <c r="V530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="166"/>
-      <c r="C531" s="173"/>
-      <c r="D531" s="172"/>
-      <c r="E531" s="172"/>
-      <c r="F531" s="172"/>
-      <c r="G531" s="172"/>
-      <c r="H531" s="172"/>
-      <c r="I531" s="166"/>
-      <c r="J531" s="173"/>
-      <c r="K531" s="172"/>
-      <c r="L531" s="166"/>
-      <c r="M531" s="174"/>
-      <c r="N531" s="166"/>
-      <c r="O531" s="166"/>
-      <c r="P531" s="166"/>
+      <c r="B531" s="163"/>
+      <c r="C531" s="170"/>
+      <c r="D531" s="169"/>
+      <c r="E531" s="169"/>
+      <c r="F531" s="169"/>
+      <c r="G531" s="169"/>
+      <c r="H531" s="169"/>
+      <c r="I531" s="163"/>
+      <c r="J531" s="170"/>
+      <c r="K531" s="169"/>
+      <c r="L531" s="163"/>
+      <c r="M531" s="171"/>
+      <c r="N531" s="163"/>
+      <c r="O531" s="163"/>
+      <c r="P531" s="163"/>
       <c r="Q531" s="146"/>
       <c r="R531" s="1"/>
       <c r="S531" s="7"/>
@@ -11756,21 +12868,21 @@
       <c r="V531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="166"/>
-      <c r="C532" s="173"/>
-      <c r="D532" s="172"/>
-      <c r="E532" s="172"/>
-      <c r="F532" s="172"/>
-      <c r="G532" s="172"/>
-      <c r="H532" s="172"/>
-      <c r="I532" s="166"/>
-      <c r="J532" s="173"/>
-      <c r="K532" s="172"/>
-      <c r="L532" s="172"/>
-      <c r="M532" s="172"/>
-      <c r="N532" s="166"/>
-      <c r="O532" s="166"/>
-      <c r="P532" s="166"/>
+      <c r="B532" s="163"/>
+      <c r="C532" s="170"/>
+      <c r="D532" s="169"/>
+      <c r="E532" s="169"/>
+      <c r="F532" s="169"/>
+      <c r="G532" s="169"/>
+      <c r="H532" s="169"/>
+      <c r="I532" s="163"/>
+      <c r="J532" s="170"/>
+      <c r="K532" s="169"/>
+      <c r="L532" s="169"/>
+      <c r="M532" s="169"/>
+      <c r="N532" s="163"/>
+      <c r="O532" s="163"/>
+      <c r="P532" s="163"/>
       <c r="Q532" s="146"/>
       <c r="R532" s="1"/>
       <c r="S532" s="7"/>
@@ -11779,21 +12891,21 @@
       <c r="V532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="166"/>
-      <c r="C533" s="173"/>
-      <c r="D533" s="172"/>
-      <c r="E533" s="172"/>
-      <c r="F533" s="172"/>
-      <c r="G533" s="172"/>
-      <c r="H533" s="172"/>
-      <c r="I533" s="166"/>
-      <c r="J533" s="173"/>
-      <c r="K533" s="172"/>
-      <c r="L533" s="172"/>
-      <c r="M533" s="172"/>
-      <c r="N533" s="166"/>
-      <c r="O533" s="166"/>
-      <c r="P533" s="166"/>
+      <c r="B533" s="163"/>
+      <c r="C533" s="170"/>
+      <c r="D533" s="169"/>
+      <c r="E533" s="169"/>
+      <c r="F533" s="169"/>
+      <c r="G533" s="169"/>
+      <c r="H533" s="169"/>
+      <c r="I533" s="163"/>
+      <c r="J533" s="170"/>
+      <c r="K533" s="169"/>
+      <c r="L533" s="169"/>
+      <c r="M533" s="169"/>
+      <c r="N533" s="163"/>
+      <c r="O533" s="163"/>
+      <c r="P533" s="163"/>
       <c r="Q533" s="146"/>
       <c r="R533" s="1"/>
       <c r="S533" s="7"/>
@@ -11802,21 +12914,21 @@
       <c r="V533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="166"/>
-      <c r="C534" s="173"/>
-      <c r="D534" s="172"/>
-      <c r="E534" s="172"/>
-      <c r="F534" s="172"/>
-      <c r="G534" s="172"/>
-      <c r="H534" s="172"/>
-      <c r="I534" s="166"/>
-      <c r="J534" s="173"/>
-      <c r="K534" s="172"/>
-      <c r="L534" s="172"/>
-      <c r="M534" s="172"/>
-      <c r="N534" s="166"/>
-      <c r="O534" s="166"/>
-      <c r="P534" s="166"/>
+      <c r="B534" s="163"/>
+      <c r="C534" s="170"/>
+      <c r="D534" s="169"/>
+      <c r="E534" s="169"/>
+      <c r="F534" s="169"/>
+      <c r="G534" s="169"/>
+      <c r="H534" s="169"/>
+      <c r="I534" s="163"/>
+      <c r="J534" s="170"/>
+      <c r="K534" s="169"/>
+      <c r="L534" s="169"/>
+      <c r="M534" s="169"/>
+      <c r="N534" s="163"/>
+      <c r="O534" s="163"/>
+      <c r="P534" s="163"/>
       <c r="Q534" s="146"/>
       <c r="R534" s="1"/>
       <c r="S534" s="7"/>
@@ -11825,21 +12937,21 @@
       <c r="V534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="166"/>
-      <c r="C535" s="173"/>
-      <c r="D535" s="172"/>
-      <c r="E535" s="172"/>
-      <c r="F535" s="172"/>
-      <c r="G535" s="172"/>
-      <c r="H535" s="172"/>
-      <c r="I535" s="166"/>
-      <c r="J535" s="173"/>
-      <c r="K535" s="172"/>
-      <c r="L535" s="172"/>
-      <c r="M535" s="172"/>
-      <c r="N535" s="166"/>
-      <c r="O535" s="166"/>
-      <c r="P535" s="166"/>
+      <c r="B535" s="163"/>
+      <c r="C535" s="170"/>
+      <c r="D535" s="169"/>
+      <c r="E535" s="169"/>
+      <c r="F535" s="169"/>
+      <c r="G535" s="169"/>
+      <c r="H535" s="169"/>
+      <c r="I535" s="163"/>
+      <c r="J535" s="170"/>
+      <c r="K535" s="169"/>
+      <c r="L535" s="169"/>
+      <c r="M535" s="169"/>
+      <c r="N535" s="163"/>
+      <c r="O535" s="163"/>
+      <c r="P535" s="163"/>
       <c r="Q535" s="146"/>
       <c r="R535" s="1"/>
       <c r="S535" s="7"/>
@@ -11848,21 +12960,21 @@
       <c r="V535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="166"/>
-      <c r="C536" s="173"/>
-      <c r="D536" s="172"/>
-      <c r="E536" s="172"/>
-      <c r="F536" s="172"/>
-      <c r="G536" s="172"/>
-      <c r="H536" s="172"/>
-      <c r="I536" s="166"/>
-      <c r="J536" s="173"/>
-      <c r="K536" s="172"/>
-      <c r="L536" s="172"/>
-      <c r="M536" s="172"/>
-      <c r="N536" s="166"/>
-      <c r="O536" s="166"/>
-      <c r="P536" s="166"/>
+      <c r="B536" s="163"/>
+      <c r="C536" s="170"/>
+      <c r="D536" s="169"/>
+      <c r="E536" s="169"/>
+      <c r="F536" s="169"/>
+      <c r="G536" s="169"/>
+      <c r="H536" s="169"/>
+      <c r="I536" s="163"/>
+      <c r="J536" s="170"/>
+      <c r="K536" s="169"/>
+      <c r="L536" s="169"/>
+      <c r="M536" s="169"/>
+      <c r="N536" s="163"/>
+      <c r="O536" s="163"/>
+      <c r="P536" s="163"/>
       <c r="Q536" s="146"/>
       <c r="R536" s="1"/>
       <c r="S536" s="7"/>
@@ -11871,21 +12983,21 @@
       <c r="V536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="166"/>
-      <c r="C537" s="173"/>
-      <c r="D537" s="172"/>
-      <c r="E537" s="172"/>
-      <c r="F537" s="172"/>
-      <c r="G537" s="172"/>
-      <c r="H537" s="172"/>
-      <c r="I537" s="166"/>
-      <c r="J537" s="173"/>
-      <c r="K537" s="172"/>
-      <c r="L537" s="172"/>
-      <c r="M537" s="172"/>
-      <c r="N537" s="166"/>
-      <c r="O537" s="166"/>
-      <c r="P537" s="166"/>
+      <c r="B537" s="163"/>
+      <c r="C537" s="170"/>
+      <c r="D537" s="169"/>
+      <c r="E537" s="169"/>
+      <c r="F537" s="169"/>
+      <c r="G537" s="169"/>
+      <c r="H537" s="169"/>
+      <c r="I537" s="163"/>
+      <c r="J537" s="170"/>
+      <c r="K537" s="169"/>
+      <c r="L537" s="169"/>
+      <c r="M537" s="169"/>
+      <c r="N537" s="163"/>
+      <c r="O537" s="163"/>
+      <c r="P537" s="163"/>
       <c r="Q537" s="146"/>
       <c r="R537" s="1"/>
       <c r="S537" s="7"/>
@@ -11894,21 +13006,21 @@
       <c r="V537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="166"/>
-      <c r="C538" s="172"/>
-      <c r="D538" s="172"/>
-      <c r="E538" s="172"/>
-      <c r="F538" s="172"/>
-      <c r="G538" s="172"/>
-      <c r="H538" s="172"/>
-      <c r="I538" s="166"/>
-      <c r="J538" s="172"/>
-      <c r="K538" s="172"/>
-      <c r="L538" s="172"/>
-      <c r="M538" s="172"/>
-      <c r="N538" s="166"/>
-      <c r="O538" s="166"/>
-      <c r="P538" s="166"/>
+      <c r="B538" s="163"/>
+      <c r="C538" s="169"/>
+      <c r="D538" s="169"/>
+      <c r="E538" s="169"/>
+      <c r="F538" s="169"/>
+      <c r="G538" s="169"/>
+      <c r="H538" s="169"/>
+      <c r="I538" s="163"/>
+      <c r="J538" s="169"/>
+      <c r="K538" s="169"/>
+      <c r="L538" s="169"/>
+      <c r="M538" s="169"/>
+      <c r="N538" s="163"/>
+      <c r="O538" s="163"/>
+      <c r="P538" s="163"/>
       <c r="Q538" s="146"/>
       <c r="R538" s="1"/>
       <c r="S538" s="7"/>
@@ -11917,21 +13029,21 @@
       <c r="V538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="166"/>
-      <c r="C539" s="172"/>
-      <c r="D539" s="172"/>
-      <c r="E539" s="172"/>
-      <c r="F539" s="172"/>
-      <c r="G539" s="172"/>
-      <c r="H539" s="172"/>
-      <c r="I539" s="166"/>
-      <c r="J539" s="172"/>
-      <c r="K539" s="172"/>
-      <c r="L539" s="172"/>
-      <c r="M539" s="172"/>
-      <c r="N539" s="166"/>
-      <c r="O539" s="166"/>
-      <c r="P539" s="166"/>
+      <c r="B539" s="163"/>
+      <c r="C539" s="169"/>
+      <c r="D539" s="169"/>
+      <c r="E539" s="169"/>
+      <c r="F539" s="169"/>
+      <c r="G539" s="169"/>
+      <c r="H539" s="169"/>
+      <c r="I539" s="163"/>
+      <c r="J539" s="169"/>
+      <c r="K539" s="169"/>
+      <c r="L539" s="169"/>
+      <c r="M539" s="169"/>
+      <c r="N539" s="163"/>
+      <c r="O539" s="163"/>
+      <c r="P539" s="163"/>
       <c r="Q539" s="146"/>
       <c r="R539" s="1"/>
       <c r="S539" s="7"/>
@@ -11940,43 +13052,43 @@
       <c r="V539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="166"/>
-      <c r="C540" s="172"/>
-      <c r="D540" s="172"/>
-      <c r="E540" s="172"/>
-      <c r="F540" s="172"/>
-      <c r="G540" s="172"/>
-      <c r="H540" s="172"/>
-      <c r="I540" s="166"/>
-      <c r="J540" s="172"/>
-      <c r="K540" s="172"/>
-      <c r="L540" s="172"/>
-      <c r="M540" s="172"/>
-      <c r="N540" s="172"/>
-      <c r="O540" s="166"/>
-      <c r="P540" s="166"/>
+      <c r="B540" s="163"/>
+      <c r="C540" s="169"/>
+      <c r="D540" s="169"/>
+      <c r="E540" s="169"/>
+      <c r="F540" s="169"/>
+      <c r="G540" s="169"/>
+      <c r="H540" s="169"/>
+      <c r="I540" s="163"/>
+      <c r="J540" s="169"/>
+      <c r="K540" s="169"/>
+      <c r="L540" s="169"/>
+      <c r="M540" s="169"/>
+      <c r="N540" s="169"/>
+      <c r="O540" s="163"/>
+      <c r="P540" s="163"/>
       <c r="Q540" s="146"/>
       <c r="S540" s="7"/>
       <c r="T540" s="7"/>
-      <c r="U540" s="175"/>
+      <c r="U540" s="172"/>
       <c r="V540" s="44"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="166"/>
-      <c r="C541" s="173"/>
-      <c r="D541" s="173"/>
-      <c r="E541" s="173"/>
-      <c r="F541" s="173"/>
-      <c r="G541" s="172"/>
-      <c r="H541" s="172"/>
-      <c r="I541" s="166"/>
-      <c r="J541" s="172"/>
-      <c r="K541" s="172"/>
-      <c r="L541" s="172"/>
-      <c r="M541" s="172"/>
-      <c r="N541" s="166"/>
-      <c r="O541" s="166"/>
-      <c r="P541" s="166"/>
+      <c r="B541" s="163"/>
+      <c r="C541" s="170"/>
+      <c r="D541" s="170"/>
+      <c r="E541" s="170"/>
+      <c r="F541" s="170"/>
+      <c r="G541" s="169"/>
+      <c r="H541" s="169"/>
+      <c r="I541" s="163"/>
+      <c r="J541" s="169"/>
+      <c r="K541" s="169"/>
+      <c r="L541" s="169"/>
+      <c r="M541" s="169"/>
+      <c r="N541" s="163"/>
+      <c r="O541" s="163"/>
+      <c r="P541" s="163"/>
       <c r="Q541" s="146"/>
       <c r="R541" s="1"/>
       <c r="S541" s="7"/>
@@ -11985,21 +13097,21 @@
       <c r="V541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="166"/>
-      <c r="C542" s="173"/>
-      <c r="D542" s="173"/>
-      <c r="E542" s="173"/>
-      <c r="F542" s="173"/>
-      <c r="G542" s="172"/>
-      <c r="H542" s="172"/>
-      <c r="I542" s="166"/>
-      <c r="J542" s="172"/>
-      <c r="K542" s="172"/>
-      <c r="L542" s="172"/>
-      <c r="M542" s="172"/>
-      <c r="N542" s="166"/>
-      <c r="O542" s="166"/>
-      <c r="P542" s="166"/>
+      <c r="B542" s="163"/>
+      <c r="C542" s="170"/>
+      <c r="D542" s="170"/>
+      <c r="E542" s="170"/>
+      <c r="F542" s="170"/>
+      <c r="G542" s="169"/>
+      <c r="H542" s="169"/>
+      <c r="I542" s="163"/>
+      <c r="J542" s="169"/>
+      <c r="K542" s="169"/>
+      <c r="L542" s="169"/>
+      <c r="M542" s="169"/>
+      <c r="N542" s="163"/>
+      <c r="O542" s="163"/>
+      <c r="P542" s="163"/>
       <c r="Q542" s="146"/>
       <c r="R542" s="1"/>
       <c r="S542" s="7"/>
@@ -12008,21 +13120,21 @@
       <c r="V542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="166"/>
-      <c r="C543" s="173"/>
-      <c r="D543" s="173"/>
-      <c r="E543" s="173"/>
-      <c r="F543" s="173"/>
-      <c r="G543" s="172"/>
-      <c r="H543" s="172"/>
-      <c r="I543" s="166"/>
-      <c r="J543" s="172"/>
-      <c r="K543" s="172"/>
-      <c r="L543" s="172"/>
-      <c r="M543" s="172"/>
-      <c r="N543" s="166"/>
-      <c r="O543" s="166"/>
-      <c r="P543" s="166"/>
+      <c r="B543" s="163"/>
+      <c r="C543" s="170"/>
+      <c r="D543" s="170"/>
+      <c r="E543" s="170"/>
+      <c r="F543" s="170"/>
+      <c r="G543" s="169"/>
+      <c r="H543" s="169"/>
+      <c r="I543" s="163"/>
+      <c r="J543" s="169"/>
+      <c r="K543" s="169"/>
+      <c r="L543" s="169"/>
+      <c r="M543" s="169"/>
+      <c r="N543" s="163"/>
+      <c r="O543" s="163"/>
+      <c r="P543" s="163"/>
       <c r="Q543" s="146"/>
       <c r="R543" s="1"/>
       <c r="S543" s="7"/>
@@ -12031,21 +13143,21 @@
       <c r="V543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="166"/>
-      <c r="C544" s="173"/>
-      <c r="D544" s="173"/>
-      <c r="E544" s="173"/>
-      <c r="F544" s="173"/>
-      <c r="G544" s="172"/>
-      <c r="H544" s="172"/>
-      <c r="I544" s="166"/>
-      <c r="J544" s="172"/>
-      <c r="K544" s="172"/>
-      <c r="L544" s="172"/>
-      <c r="M544" s="172"/>
-      <c r="N544" s="166"/>
-      <c r="O544" s="166"/>
-      <c r="P544" s="166"/>
+      <c r="B544" s="163"/>
+      <c r="C544" s="170"/>
+      <c r="D544" s="170"/>
+      <c r="E544" s="170"/>
+      <c r="F544" s="170"/>
+      <c r="G544" s="169"/>
+      <c r="H544" s="169"/>
+      <c r="I544" s="163"/>
+      <c r="J544" s="169"/>
+      <c r="K544" s="169"/>
+      <c r="L544" s="169"/>
+      <c r="M544" s="169"/>
+      <c r="N544" s="163"/>
+      <c r="O544" s="163"/>
+      <c r="P544" s="163"/>
       <c r="Q544" s="146"/>
       <c r="R544" s="1"/>
       <c r="S544" s="7"/>
@@ -12054,21 +13166,21 @@
       <c r="V544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="166"/>
-      <c r="C545" s="173"/>
-      <c r="D545" s="173"/>
-      <c r="E545" s="173"/>
-      <c r="F545" s="173"/>
-      <c r="G545" s="172"/>
-      <c r="H545" s="172"/>
-      <c r="I545" s="166"/>
-      <c r="J545" s="172"/>
-      <c r="K545" s="172"/>
-      <c r="L545" s="172"/>
-      <c r="M545" s="172"/>
-      <c r="N545" s="166"/>
-      <c r="O545" s="166"/>
-      <c r="P545" s="166"/>
+      <c r="B545" s="163"/>
+      <c r="C545" s="170"/>
+      <c r="D545" s="170"/>
+      <c r="E545" s="170"/>
+      <c r="F545" s="170"/>
+      <c r="G545" s="169"/>
+      <c r="H545" s="169"/>
+      <c r="I545" s="163"/>
+      <c r="J545" s="169"/>
+      <c r="K545" s="169"/>
+      <c r="L545" s="169"/>
+      <c r="M545" s="169"/>
+      <c r="N545" s="163"/>
+      <c r="O545" s="163"/>
+      <c r="P545" s="163"/>
       <c r="Q545" s="146"/>
       <c r="R545" s="1"/>
       <c r="S545" s="7"/>
@@ -12077,21 +13189,21 @@
       <c r="V545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="166"/>
-      <c r="C546" s="173"/>
-      <c r="D546" s="173"/>
-      <c r="E546" s="173"/>
-      <c r="F546" s="173"/>
-      <c r="G546" s="172"/>
-      <c r="H546" s="172"/>
-      <c r="I546" s="166"/>
-      <c r="J546" s="172"/>
-      <c r="K546" s="172"/>
-      <c r="L546" s="172"/>
-      <c r="M546" s="172"/>
-      <c r="N546" s="166"/>
-      <c r="O546" s="166"/>
-      <c r="P546" s="166"/>
+      <c r="B546" s="163"/>
+      <c r="C546" s="170"/>
+      <c r="D546" s="170"/>
+      <c r="E546" s="170"/>
+      <c r="F546" s="170"/>
+      <c r="G546" s="169"/>
+      <c r="H546" s="169"/>
+      <c r="I546" s="163"/>
+      <c r="J546" s="169"/>
+      <c r="K546" s="169"/>
+      <c r="L546" s="169"/>
+      <c r="M546" s="169"/>
+      <c r="N546" s="163"/>
+      <c r="O546" s="163"/>
+      <c r="P546" s="163"/>
       <c r="Q546" s="146"/>
       <c r="R546" s="1"/>
       <c r="S546" s="7"/>
@@ -12100,21 +13212,21 @@
       <c r="V546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="166"/>
-      <c r="C547" s="173"/>
-      <c r="D547" s="173"/>
-      <c r="E547" s="173"/>
-      <c r="F547" s="173"/>
-      <c r="G547" s="172"/>
-      <c r="H547" s="172"/>
-      <c r="I547" s="166"/>
-      <c r="J547" s="172"/>
-      <c r="K547" s="172"/>
-      <c r="L547" s="172"/>
-      <c r="M547" s="172"/>
-      <c r="N547" s="166"/>
-      <c r="O547" s="166"/>
-      <c r="P547" s="166"/>
+      <c r="B547" s="163"/>
+      <c r="C547" s="170"/>
+      <c r="D547" s="170"/>
+      <c r="E547" s="170"/>
+      <c r="F547" s="170"/>
+      <c r="G547" s="169"/>
+      <c r="H547" s="169"/>
+      <c r="I547" s="163"/>
+      <c r="J547" s="169"/>
+      <c r="K547" s="169"/>
+      <c r="L547" s="169"/>
+      <c r="M547" s="169"/>
+      <c r="N547" s="163"/>
+      <c r="O547" s="163"/>
+      <c r="P547" s="163"/>
       <c r="Q547" s="146"/>
       <c r="R547" s="1"/>
       <c r="S547" s="7"/>
@@ -12123,21 +13235,21 @@
       <c r="V547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="166"/>
-      <c r="C548" s="172"/>
-      <c r="D548" s="172"/>
-      <c r="E548" s="172"/>
-      <c r="F548" s="172"/>
-      <c r="G548" s="172"/>
-      <c r="H548" s="172"/>
-      <c r="I548" s="166"/>
-      <c r="J548" s="172"/>
-      <c r="K548" s="172"/>
-      <c r="L548" s="172"/>
-      <c r="M548" s="172"/>
-      <c r="N548" s="166"/>
-      <c r="O548" s="166"/>
-      <c r="P548" s="166"/>
+      <c r="B548" s="163"/>
+      <c r="C548" s="169"/>
+      <c r="D548" s="169"/>
+      <c r="E548" s="169"/>
+      <c r="F548" s="169"/>
+      <c r="G548" s="169"/>
+      <c r="H548" s="169"/>
+      <c r="I548" s="163"/>
+      <c r="J548" s="169"/>
+      <c r="K548" s="169"/>
+      <c r="L548" s="169"/>
+      <c r="M548" s="169"/>
+      <c r="N548" s="163"/>
+      <c r="O548" s="163"/>
+      <c r="P548" s="163"/>
       <c r="Q548" s="146"/>
       <c r="S548" s="7"/>
       <c r="T548" s="7"/>
@@ -12145,21 +13257,21 @@
       <c r="V548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="166"/>
-      <c r="C549" s="172"/>
-      <c r="D549" s="172"/>
-      <c r="E549" s="172"/>
-      <c r="F549" s="172"/>
-      <c r="G549" s="172"/>
-      <c r="H549" s="172"/>
-      <c r="I549" s="166"/>
-      <c r="J549" s="172"/>
-      <c r="K549" s="172"/>
-      <c r="L549" s="172"/>
-      <c r="M549" s="172"/>
-      <c r="N549" s="166"/>
-      <c r="O549" s="166"/>
-      <c r="P549" s="166"/>
+      <c r="B549" s="163"/>
+      <c r="C549" s="169"/>
+      <c r="D549" s="169"/>
+      <c r="E549" s="169"/>
+      <c r="F549" s="169"/>
+      <c r="G549" s="169"/>
+      <c r="H549" s="169"/>
+      <c r="I549" s="163"/>
+      <c r="J549" s="169"/>
+      <c r="K549" s="169"/>
+      <c r="L549" s="169"/>
+      <c r="M549" s="169"/>
+      <c r="N549" s="163"/>
+      <c r="O549" s="163"/>
+      <c r="P549" s="163"/>
       <c r="Q549" s="146"/>
       <c r="R549" s="1"/>
       <c r="S549" s="7"/>
@@ -12168,285 +13280,285 @@
       <c r="V549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="166"/>
-      <c r="C550" s="172"/>
-      <c r="D550" s="172"/>
-      <c r="E550" s="172"/>
-      <c r="F550" s="172"/>
-      <c r="G550" s="172"/>
-      <c r="H550" s="172"/>
-      <c r="I550" s="166"/>
-      <c r="J550" s="172"/>
-      <c r="K550" s="172"/>
-      <c r="L550" s="172"/>
-      <c r="M550" s="172"/>
-      <c r="N550" s="172"/>
-      <c r="O550" s="166"/>
-      <c r="P550" s="166"/>
+      <c r="B550" s="163"/>
+      <c r="C550" s="169"/>
+      <c r="D550" s="169"/>
+      <c r="E550" s="169"/>
+      <c r="F550" s="169"/>
+      <c r="G550" s="169"/>
+      <c r="H550" s="169"/>
+      <c r="I550" s="163"/>
+      <c r="J550" s="169"/>
+      <c r="K550" s="169"/>
+      <c r="L550" s="169"/>
+      <c r="M550" s="169"/>
+      <c r="N550" s="169"/>
+      <c r="O550" s="163"/>
+      <c r="P550" s="163"/>
       <c r="Q550" s="146"/>
       <c r="S550" s="7"/>
       <c r="T550" s="7"/>
-      <c r="U550" s="175"/>
+      <c r="U550" s="172"/>
       <c r="V550" s="44"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="166"/>
-      <c r="C551" s="173"/>
-      <c r="D551" s="173"/>
-      <c r="E551" s="173"/>
-      <c r="F551" s="173"/>
-      <c r="G551" s="166"/>
-      <c r="H551" s="166"/>
-      <c r="I551" s="166"/>
-      <c r="J551" s="166"/>
-      <c r="K551" s="166"/>
-      <c r="L551" s="166"/>
-      <c r="M551" s="166"/>
-      <c r="N551" s="166"/>
-      <c r="O551" s="166"/>
-      <c r="P551" s="166"/>
+      <c r="B551" s="163"/>
+      <c r="C551" s="170"/>
+      <c r="D551" s="170"/>
+      <c r="E551" s="170"/>
+      <c r="F551" s="170"/>
+      <c r="G551" s="163"/>
+      <c r="H551" s="163"/>
+      <c r="I551" s="163"/>
+      <c r="J551" s="163"/>
+      <c r="K551" s="163"/>
+      <c r="L551" s="163"/>
+      <c r="M551" s="163"/>
+      <c r="N551" s="163"/>
+      <c r="O551" s="163"/>
+      <c r="P551" s="163"/>
       <c r="Q551" s="146"/>
       <c r="R551" s="1"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="166"/>
-      <c r="C552" s="173"/>
-      <c r="D552" s="173"/>
-      <c r="E552" s="173"/>
-      <c r="F552" s="173"/>
-      <c r="G552" s="166"/>
-      <c r="H552" s="166"/>
-      <c r="I552" s="166"/>
-      <c r="J552" s="166"/>
-      <c r="K552" s="166"/>
-      <c r="L552" s="166"/>
-      <c r="M552" s="166"/>
-      <c r="N552" s="166"/>
-      <c r="O552" s="166"/>
-      <c r="P552" s="166"/>
+      <c r="B552" s="163"/>
+      <c r="C552" s="170"/>
+      <c r="D552" s="170"/>
+      <c r="E552" s="170"/>
+      <c r="F552" s="170"/>
+      <c r="G552" s="163"/>
+      <c r="H552" s="163"/>
+      <c r="I552" s="163"/>
+      <c r="J552" s="163"/>
+      <c r="K552" s="163"/>
+      <c r="L552" s="163"/>
+      <c r="M552" s="163"/>
+      <c r="N552" s="163"/>
+      <c r="O552" s="163"/>
+      <c r="P552" s="163"/>
       <c r="Q552" s="146"/>
       <c r="R552" s="1"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="166"/>
-      <c r="C553" s="173"/>
-      <c r="D553" s="173"/>
-      <c r="E553" s="173"/>
-      <c r="F553" s="173"/>
-      <c r="G553" s="166"/>
-      <c r="H553" s="166"/>
-      <c r="I553" s="166"/>
-      <c r="J553" s="166"/>
-      <c r="K553" s="166"/>
-      <c r="L553" s="166"/>
-      <c r="M553" s="166"/>
-      <c r="N553" s="166"/>
-      <c r="O553" s="166"/>
-      <c r="P553" s="166"/>
+      <c r="B553" s="163"/>
+      <c r="C553" s="170"/>
+      <c r="D553" s="170"/>
+      <c r="E553" s="170"/>
+      <c r="F553" s="170"/>
+      <c r="G553" s="163"/>
+      <c r="H553" s="163"/>
+      <c r="I553" s="163"/>
+      <c r="J553" s="163"/>
+      <c r="K553" s="163"/>
+      <c r="L553" s="163"/>
+      <c r="M553" s="163"/>
+      <c r="N553" s="163"/>
+      <c r="O553" s="163"/>
+      <c r="P553" s="163"/>
       <c r="Q553" s="146"/>
       <c r="R553" s="1"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="166"/>
-      <c r="C554" s="173"/>
-      <c r="D554" s="173"/>
-      <c r="E554" s="173"/>
-      <c r="F554" s="173"/>
-      <c r="G554" s="166"/>
-      <c r="H554" s="166"/>
-      <c r="I554" s="166"/>
-      <c r="J554" s="166"/>
-      <c r="K554" s="166"/>
-      <c r="L554" s="166"/>
-      <c r="M554" s="166"/>
-      <c r="N554" s="166"/>
-      <c r="O554" s="166"/>
-      <c r="P554" s="166"/>
+      <c r="B554" s="163"/>
+      <c r="C554" s="170"/>
+      <c r="D554" s="170"/>
+      <c r="E554" s="170"/>
+      <c r="F554" s="170"/>
+      <c r="G554" s="163"/>
+      <c r="H554" s="163"/>
+      <c r="I554" s="163"/>
+      <c r="J554" s="163"/>
+      <c r="K554" s="163"/>
+      <c r="L554" s="163"/>
+      <c r="M554" s="163"/>
+      <c r="N554" s="163"/>
+      <c r="O554" s="163"/>
+      <c r="P554" s="163"/>
       <c r="Q554" s="146"/>
       <c r="R554" s="1"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="166"/>
-      <c r="C555" s="173"/>
-      <c r="D555" s="173"/>
-      <c r="E555" s="173"/>
-      <c r="F555" s="173"/>
-      <c r="G555" s="166"/>
-      <c r="H555" s="166"/>
-      <c r="I555" s="166"/>
-      <c r="J555" s="166"/>
-      <c r="K555" s="166"/>
-      <c r="L555" s="166"/>
-      <c r="M555" s="166"/>
-      <c r="N555" s="166"/>
-      <c r="O555" s="166"/>
-      <c r="P555" s="166"/>
+      <c r="B555" s="163"/>
+      <c r="C555" s="170"/>
+      <c r="D555" s="170"/>
+      <c r="E555" s="170"/>
+      <c r="F555" s="170"/>
+      <c r="G555" s="163"/>
+      <c r="H555" s="163"/>
+      <c r="I555" s="163"/>
+      <c r="J555" s="163"/>
+      <c r="K555" s="163"/>
+      <c r="L555" s="163"/>
+      <c r="M555" s="163"/>
+      <c r="N555" s="163"/>
+      <c r="O555" s="163"/>
+      <c r="P555" s="163"/>
       <c r="Q555" s="146"/>
       <c r="R555" s="1"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="166"/>
-      <c r="C556" s="173"/>
-      <c r="D556" s="173"/>
-      <c r="E556" s="173"/>
-      <c r="F556" s="173"/>
-      <c r="G556" s="166"/>
-      <c r="H556" s="166"/>
-      <c r="I556" s="166"/>
-      <c r="J556" s="166"/>
-      <c r="K556" s="166"/>
-      <c r="L556" s="166"/>
-      <c r="M556" s="166"/>
-      <c r="N556" s="166"/>
-      <c r="O556" s="166"/>
-      <c r="P556" s="166"/>
+      <c r="B556" s="163"/>
+      <c r="C556" s="170"/>
+      <c r="D556" s="170"/>
+      <c r="E556" s="170"/>
+      <c r="F556" s="170"/>
+      <c r="G556" s="163"/>
+      <c r="H556" s="163"/>
+      <c r="I556" s="163"/>
+      <c r="J556" s="163"/>
+      <c r="K556" s="163"/>
+      <c r="L556" s="163"/>
+      <c r="M556" s="163"/>
+      <c r="N556" s="163"/>
+      <c r="O556" s="163"/>
+      <c r="P556" s="163"/>
       <c r="Q556" s="146"/>
       <c r="R556" s="1"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="166"/>
-      <c r="C557" s="173"/>
-      <c r="D557" s="173"/>
-      <c r="E557" s="173"/>
-      <c r="F557" s="173"/>
-      <c r="G557" s="166"/>
-      <c r="H557" s="166"/>
-      <c r="I557" s="166"/>
-      <c r="J557" s="166"/>
-      <c r="K557" s="166"/>
-      <c r="L557" s="166"/>
-      <c r="M557" s="166"/>
-      <c r="N557" s="166"/>
-      <c r="O557" s="166"/>
-      <c r="P557" s="166"/>
+      <c r="B557" s="163"/>
+      <c r="C557" s="170"/>
+      <c r="D557" s="170"/>
+      <c r="E557" s="170"/>
+      <c r="F557" s="170"/>
+      <c r="G557" s="163"/>
+      <c r="H557" s="163"/>
+      <c r="I557" s="163"/>
+      <c r="J557" s="163"/>
+      <c r="K557" s="163"/>
+      <c r="L557" s="163"/>
+      <c r="M557" s="163"/>
+      <c r="N557" s="163"/>
+      <c r="O557" s="163"/>
+      <c r="P557" s="163"/>
       <c r="Q557" s="146"/>
       <c r="R557" s="1"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="166"/>
-      <c r="C558" s="166"/>
-      <c r="D558" s="166"/>
-      <c r="E558" s="166"/>
-      <c r="F558" s="166"/>
-      <c r="G558" s="166"/>
-      <c r="H558" s="166"/>
-      <c r="I558" s="166"/>
-      <c r="J558" s="166"/>
-      <c r="K558" s="166"/>
-      <c r="L558" s="166"/>
-      <c r="M558" s="166"/>
-      <c r="N558" s="166"/>
-      <c r="O558" s="166"/>
-      <c r="P558" s="166"/>
+      <c r="B558" s="163"/>
+      <c r="C558" s="163"/>
+      <c r="D558" s="163"/>
+      <c r="E558" s="163"/>
+      <c r="F558" s="163"/>
+      <c r="G558" s="163"/>
+      <c r="H558" s="163"/>
+      <c r="I558" s="163"/>
+      <c r="J558" s="163"/>
+      <c r="K558" s="163"/>
+      <c r="L558" s="163"/>
+      <c r="M558" s="163"/>
+      <c r="N558" s="163"/>
+      <c r="O558" s="163"/>
+      <c r="P558" s="163"/>
       <c r="Q558" s="146"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="166"/>
-      <c r="C559" s="166"/>
-      <c r="D559" s="166"/>
-      <c r="E559" s="166"/>
-      <c r="F559" s="166"/>
-      <c r="G559" s="166"/>
-      <c r="H559" s="166"/>
-      <c r="I559" s="166"/>
-      <c r="J559" s="166"/>
-      <c r="K559" s="166"/>
-      <c r="L559" s="166"/>
-      <c r="M559" s="166"/>
-      <c r="N559" s="166"/>
-      <c r="O559" s="166"/>
-      <c r="P559" s="166"/>
+      <c r="B559" s="163"/>
+      <c r="C559" s="163"/>
+      <c r="D559" s="163"/>
+      <c r="E559" s="163"/>
+      <c r="F559" s="163"/>
+      <c r="G559" s="163"/>
+      <c r="H559" s="163"/>
+      <c r="I559" s="163"/>
+      <c r="J559" s="163"/>
+      <c r="K559" s="163"/>
+      <c r="L559" s="163"/>
+      <c r="M559" s="163"/>
+      <c r="N559" s="163"/>
+      <c r="O559" s="163"/>
+      <c r="P559" s="163"/>
       <c r="Q559" s="146"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="176"/>
-      <c r="J562" s="176"/>
-      <c r="K562" s="176"/>
-      <c r="L562" s="176"/>
-      <c r="M562" s="176"/>
-      <c r="N562" s="176"/>
-      <c r="O562" s="176"/>
-      <c r="P562" s="176"/>
-      <c r="Q562" s="176"/>
-      <c r="R562" s="176"/>
-      <c r="S562" s="176"/>
-      <c r="T562" s="176"/>
-      <c r="U562" s="176"/>
-      <c r="V562" s="176"/>
-      <c r="W562" s="176"/>
-      <c r="X562" s="176"/>
-      <c r="Y562" s="176"/>
-      <c r="Z562" s="176"/>
+      <c r="I562" s="173"/>
+      <c r="J562" s="173"/>
+      <c r="K562" s="173"/>
+      <c r="L562" s="173"/>
+      <c r="M562" s="173"/>
+      <c r="N562" s="173"/>
+      <c r="O562" s="173"/>
+      <c r="P562" s="173"/>
+      <c r="Q562" s="173"/>
+      <c r="R562" s="173"/>
+      <c r="S562" s="173"/>
+      <c r="T562" s="173"/>
+      <c r="U562" s="173"/>
+      <c r="V562" s="173"/>
+      <c r="W562" s="173"/>
+      <c r="X562" s="173"/>
+      <c r="Y562" s="173"/>
+      <c r="Z562" s="173"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="176"/>
-      <c r="J563" s="176"/>
-      <c r="K563" s="176"/>
-      <c r="L563" s="176"/>
-      <c r="M563" s="176"/>
-      <c r="N563" s="176"/>
-      <c r="O563" s="176"/>
-      <c r="P563" s="176"/>
-      <c r="Q563" s="176"/>
-      <c r="R563" s="176"/>
-      <c r="S563" s="176"/>
-      <c r="T563" s="176"/>
-      <c r="U563" s="176"/>
-      <c r="V563" s="176"/>
-      <c r="W563" s="176"/>
-      <c r="X563" s="176"/>
-      <c r="Y563" s="176"/>
-      <c r="Z563" s="176"/>
+      <c r="I563" s="173"/>
+      <c r="J563" s="173"/>
+      <c r="K563" s="173"/>
+      <c r="L563" s="173"/>
+      <c r="M563" s="173"/>
+      <c r="N563" s="173"/>
+      <c r="O563" s="173"/>
+      <c r="P563" s="173"/>
+      <c r="Q563" s="173"/>
+      <c r="R563" s="173"/>
+      <c r="S563" s="173"/>
+      <c r="T563" s="173"/>
+      <c r="U563" s="173"/>
+      <c r="V563" s="173"/>
+      <c r="W563" s="173"/>
+      <c r="X563" s="173"/>
+      <c r="Y563" s="173"/>
+      <c r="Z563" s="173"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q564" s="176"/>
-      <c r="R564" s="176"/>
-      <c r="S564" s="176"/>
-      <c r="T564" s="176"/>
-      <c r="U564" s="176"/>
+      <c r="Q564" s="173"/>
+      <c r="R564" s="173"/>
+      <c r="S564" s="173"/>
+      <c r="T564" s="173"/>
+      <c r="U564" s="173"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q565" s="176"/>
-      <c r="R565" s="176"/>
-      <c r="S565" s="176"/>
-      <c r="T565" s="176"/>
-      <c r="U565" s="176"/>
+      <c r="Q565" s="173"/>
+      <c r="R565" s="173"/>
+      <c r="S565" s="173"/>
+      <c r="T565" s="173"/>
+      <c r="U565" s="173"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q566" s="176"/>
-      <c r="R566" s="176"/>
-      <c r="S566" s="176"/>
-      <c r="T566" s="176"/>
-      <c r="U566" s="176"/>
+      <c r="Q566" s="173"/>
+      <c r="R566" s="173"/>
+      <c r="S566" s="173"/>
+      <c r="T566" s="173"/>
+      <c r="U566" s="173"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q567" s="176"/>
-      <c r="R567" s="176"/>
-      <c r="S567" s="176"/>
-      <c r="T567" s="176"/>
-      <c r="U567" s="176"/>
+      <c r="Q567" s="173"/>
+      <c r="R567" s="173"/>
+      <c r="S567" s="173"/>
+      <c r="T567" s="173"/>
+      <c r="U567" s="173"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q568" s="176"/>
-      <c r="R568" s="176"/>
-      <c r="S568" s="176"/>
-      <c r="T568" s="176"/>
-      <c r="U568" s="176"/>
+      <c r="Q568" s="173"/>
+      <c r="R568" s="173"/>
+      <c r="S568" s="173"/>
+      <c r="T568" s="173"/>
+      <c r="U568" s="173"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q569" s="176"/>
-      <c r="R569" s="176"/>
-      <c r="S569" s="176"/>
-      <c r="T569" s="176"/>
-      <c r="U569" s="176"/>
+      <c r="Q569" s="173"/>
+      <c r="R569" s="173"/>
+      <c r="S569" s="173"/>
+      <c r="T569" s="173"/>
+      <c r="U569" s="173"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="1"/>
-      <c r="Q570" s="176"/>
-      <c r="R570" s="176"/>
-      <c r="S570" s="176"/>
-      <c r="T570" s="176"/>
-      <c r="U570" s="176"/>
+      <c r="Q570" s="173"/>
+      <c r="R570" s="173"/>
+      <c r="S570" s="173"/>
+      <c r="T570" s="173"/>
+      <c r="U570" s="173"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="7"/>
@@ -12456,11 +13568,11 @@
       <c r="G571" s="7"/>
       <c r="H571" s="7"/>
       <c r="I571" s="7"/>
-      <c r="Q571" s="176"/>
-      <c r="R571" s="176"/>
-      <c r="S571" s="176"/>
-      <c r="T571" s="176"/>
-      <c r="U571" s="176"/>
+      <c r="Q571" s="173"/>
+      <c r="R571" s="173"/>
+      <c r="S571" s="173"/>
+      <c r="T571" s="173"/>
+      <c r="U571" s="173"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="7"/>
@@ -12470,11 +13582,11 @@
       <c r="G572" s="7"/>
       <c r="H572" s="7"/>
       <c r="I572" s="7"/>
-      <c r="Q572" s="176"/>
-      <c r="R572" s="176"/>
-      <c r="S572" s="176"/>
-      <c r="T572" s="176"/>
-      <c r="U572" s="176"/>
+      <c r="Q572" s="173"/>
+      <c r="R572" s="173"/>
+      <c r="S572" s="173"/>
+      <c r="T572" s="173"/>
+      <c r="U572" s="173"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="1"/>
